--- a/Assignment 1/G1_Acceptance.Ass.1.xlsx
+++ b/Assignment 1/G1_Acceptance.Ass.1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25602" windowHeight="16002" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25602" windowHeight="16002" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Names | Group 1" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="573">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -992,7 +992,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1002,7 +1002,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1013,7 +1013,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1023,7 +1023,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1032,7 +1032,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1056,7 +1056,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1066,7 +1066,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1086,7 +1086,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1096,7 +1096,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1114,7 +1114,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1124,7 +1124,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1143,7 +1143,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1154,7 +1154,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1165,7 +1165,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1176,7 +1176,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1187,7 +1187,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1198,7 +1198,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1209,7 +1209,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1219,7 +1219,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1235,7 +1235,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1246,7 +1246,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1257,7 +1257,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1268,7 +1268,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1279,7 +1279,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1290,7 +1290,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1301,7 +1301,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1311,7 +1311,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1332,7 +1332,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1343,7 +1343,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1354,7 +1354,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1365,7 +1365,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1376,7 +1376,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1386,7 +1386,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1402,7 +1402,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1412,7 +1412,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1428,7 +1428,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1438,7 +1438,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1454,7 +1454,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1464,7 +1464,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1476,7 +1476,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1486,7 +1486,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1502,7 +1502,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1522,7 +1522,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1532,7 +1532,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1555,7 +1555,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1565,7 +1565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1584,7 +1584,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1594,7 +1594,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1626,7 +1626,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1637,7 +1637,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1648,7 +1648,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1659,7 +1659,7 @@
         <b/>
         <sz val="11"/>
         <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1670,7 +1670,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1681,7 +1681,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1692,7 +1692,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1702,7 +1702,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1719,7 +1719,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1730,7 +1730,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1741,7 +1741,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1752,7 +1752,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1763,7 +1763,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1773,7 +1773,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1790,7 +1790,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1801,7 +1801,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1812,7 +1812,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1823,7 +1823,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1834,7 +1834,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1844,7 +1844,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1861,7 +1861,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1872,7 +1872,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1883,7 +1883,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1894,7 +1894,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1904,7 +1904,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1914,7 +1914,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1923,7 +1923,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1940,7 +1940,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1951,7 +1951,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1962,7 +1962,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1973,7 +1973,7 @@
         <b/>
         <sz val="11"/>
         <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1984,7 +1984,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1994,7 +1994,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2004,7 +2004,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2013,7 +2013,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2030,7 +2030,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2041,7 +2041,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2052,7 +2052,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2063,7 +2063,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2074,7 +2074,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2084,7 +2084,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2101,7 +2101,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2112,7 +2112,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2123,7 +2123,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2134,7 +2134,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2145,7 +2145,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2155,7 +2155,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2199,7 +2199,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2210,7 +2210,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2221,7 +2221,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2232,7 +2232,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2242,7 +2242,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2252,7 +2252,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2261,7 +2261,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2277,7 +2277,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2287,7 +2287,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2304,7 +2304,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2314,7 +2314,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2331,7 +2331,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2341,7 +2341,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2358,7 +2358,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2368,7 +2368,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2402,28 +2402,7 @@
     <t>SuccessfulCreate</t>
   </si>
   <si>
-    <t>1. Open "Create  lab reference" window.
-2. Insert medical field: Cardioligy
-3. Insert examination type: Electrocardiography
-4. Click ok button.</t>
-  </si>
-  <si>
-    <t>System checks that all required fields are filled. System checks for aviable medical field and examination type. System notify for new lab refernce, and show a print option.</t>
-  </si>
-  <si>
     <t>new lab refernce created</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open "Create  lab reference" window.
-2. Insert medical field: Cardioligy
-3. Insert examination type: 
-4. Click ok button.
-</t>
-  </si>
-  <si>
-    <t>System checks that all required fields are filled.
- System reports about "examination type".
-System asks the specialist to insert examination type.</t>
   </si>
   <si>
     <t>Acceptance Testing for Use Case: View Client's History</t>
@@ -2476,9 +2455,6 @@
     <t>Insert Reference Details</t>
   </si>
   <si>
-    <t>Reference Found</t>
-  </si>
-  <si>
     <t>Open "Insert Reference Details" Window
 Type Patient ID: 302632195
 Type Specialist ID: 1004
@@ -2486,18 +2462,7 @@
 Click OK button</t>
   </si>
   <si>
-    <t xml:space="preserve">System checks that all required 
-fields are filled. System checks for 
-Reference with Patient ID , Specialist ID , Date that the user inserted.
-Reference Found, System Open
-"Show details Window". 
- </t>
-  </si>
-  <si>
     <t>Reference in DB</t>
-  </si>
-  <si>
-    <t>Reference Not In DB</t>
   </si>
   <si>
     <t>Open "Insert Reference Details" Window
@@ -2518,9 +2483,6 @@
     <t>Reference not in DB</t>
   </si>
   <si>
-    <t>Missing fields</t>
-  </si>
-  <si>
     <t>Open "Insert Reference Details" Window
 Type Patient ID: 302632195
 Type Specialist ID: 8888
@@ -2546,9 +2508,6 @@
     <t>View Reference Details</t>
   </si>
   <si>
-    <t>Login,Insert Reference Details</t>
-  </si>
-  <si>
     <t>Add Examination Result</t>
   </si>
   <si>
@@ -2570,39 +2529,6 @@
   </si>
   <si>
     <t>Add Examination Results</t>
-  </si>
-  <si>
-    <t>Login,Insert Reference Details,
-View Reference Details</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Successfully Examination Added </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>With</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Picture
- Attached</t>
-    </r>
   </si>
   <si>
     <t>Open "Add Examination Results" Window
@@ -2621,35 +2547,6 @@
     <t>Add Examination Result With Picture</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Successfully Examination Added </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Without</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Picture
- Attached</t>
-    </r>
-  </si>
-  <si>
     <t>Open "Add Examination Results" Window
 Type Details: Upper Respiratory 
 Tract Infection , he has it
@@ -2661,9 +2558,6 @@
 System Report "Examination Added with the code 90002"</t>
   </si>
   <si>
-    <t>Missing Fields</t>
-  </si>
-  <si>
     <t>Open "Add Examination Results" Window
 Type Details: 
 Click OK button</t>
@@ -2682,10 +2576,6 @@
   </si>
   <si>
     <t>Add Picture</t>
-  </si>
-  <si>
-    <t>Login,Insert Reference Details,
-View Reference Details,  Add Examination Results</t>
   </si>
   <si>
     <t>Successfully Add Picture</t>
@@ -3071,9 +2961,6 @@
                                            </t>
   </si>
   <si>
-    <t>System check the record filed isn't empty. System save text and  appointment details System show "Saved successfully".</t>
-  </si>
-  <si>
     <t>successfully saved in system</t>
   </si>
   <si>
@@ -3092,9 +2979,6 @@
   </si>
   <si>
     <t>1. Open "Record Appointment" window.</t>
-  </si>
-  <si>
-    <t>Refernce Number</t>
   </si>
   <si>
     <t>Acceptance Testing for Use Case: View examination results</t>
@@ -3228,16 +3112,267 @@
   <si>
     <t>cancel Process</t>
   </si>
+  <si>
+    <t>ReferenceFound</t>
+  </si>
+  <si>
+    <t>ReferenceNotInDB</t>
+  </si>
+  <si>
+    <t>AddExaminationResult</t>
+  </si>
+  <si>
+    <t>SuccessPictureAttached</t>
+  </si>
+  <si>
+    <t>SuccessPictureNotAttached</t>
+  </si>
+  <si>
+    <t>MissingExaminationFields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System checks that all required fields are filled. System checks for Reference with Patient ID , Specialist ID , Date that the user inserted.
+Reference Found, System Open "Show details Window". 
+ </t>
+  </si>
+  <si>
+    <t>MissingRefDate</t>
+  </si>
+  <si>
+    <t>MissingRefID</t>
+  </si>
+  <si>
+    <t>MissingRefSpecialist</t>
+  </si>
+  <si>
+    <t>MissingIDAndDate</t>
+  </si>
+  <si>
+    <t>MissingIDAndSpecialist</t>
+  </si>
+  <si>
+    <t>MissingAllFields</t>
+  </si>
+  <si>
+    <t>MissingDateAndSpecialist</t>
+  </si>
+  <si>
+    <t>1. Open "Create  lab reference" window.
+2. Insert examination code: 2003
+3. Urgency: none
+4. comment: after period.
+5. Click ok button.</t>
+  </si>
+  <si>
+    <t>System checks that all required fields are filled. 
+System check for valid examination code.
+System display "created successfully".</t>
+  </si>
+  <si>
+    <t>1. Open "Create  lab reference" window.
+2. Insert examination code: 2003
+3. Urgency: none
+4. comment:
+5. Click ok button.</t>
+  </si>
+  <si>
+    <t>1. Open "Create  lab reference" window.
+2. Insert examination code: 2003
+3. Urgency: 
+4. comment: after period.
+5. Click ok button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Create  lab reference" window.
+2. Insert examination code: 
+3. Urgency: none
+4. comment: after period.
+5. Click ok button.
+</t>
+  </si>
+  <si>
+    <t>System checks that all required fields are filled. System reports about "Missing examination code".
+System asks the Specialist to insert examination code.</t>
+  </si>
+  <si>
+    <t>invalidExaminationCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Create  lab reference" window.
+2. Insert examination code: 12
+3. Urgency: none
+4. comment: after period.
+5. Click ok button.
+</t>
+  </si>
+  <si>
+    <t>System checks that all required fields are filled. System reports about "invalid examination code".
+System asks the Specialist to insert valid examination code.</t>
+  </si>
+  <si>
+    <t>Invalid examination code</t>
+  </si>
+  <si>
+    <t>System check the record filed isn't empty. System save text and  appointment details System display "Saved successfully".</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Transfer details</t>
+  </si>
+  <si>
+    <t>Transfer details</t>
+  </si>
+  <si>
+    <t>TransferDetails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Transfer details" window.
+2. choose: 1
+3. Click ok button.
+                                           </t>
+  </si>
+  <si>
+    <t>System ask to choose option.
+ system check for valid choose.
+System transfer the whole file and display
+"transfer Succeeded".</t>
+  </si>
+  <si>
+    <t>transfer Succeeded.</t>
+  </si>
+  <si>
+    <t>WrongChoice</t>
+  </si>
+  <si>
+    <t>1. Open "Transfer details" window.
+2. choose: 4
+3. Click ok button.</t>
+  </si>
+  <si>
+    <t>System ask to choose option.
+system check for valid choose. 
+Validation failed. System displays error message "must number between 1-2 before continue". Return to Transfer details screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in case the user clicks wrong choice </t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Report missing appointment</t>
+  </si>
+  <si>
+    <t>Report missing appointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReportMissing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Report missing appointment" window.
+2. choose: Yes
+3. Click ok button.
+                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">System ask to choose option.
+ System check for valid choose.
+System report on missing appointment.
+</t>
+  </si>
+  <si>
+    <t>client didn't came</t>
+  </si>
+  <si>
+    <t>ReportByMistake</t>
+  </si>
+  <si>
+    <t>1. Open "Report missing appointment" window.
+2. choose: No
+3. Click ok button.</t>
+  </si>
+  <si>
+    <t>System ask to choose option.
+System check for valid choose.
+System cancel report on missing appointment.</t>
+  </si>
+  <si>
+    <t>in case the user clicks wrong option</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Transfer specific details</t>
+  </si>
+  <si>
+    <t>Transfer specific details</t>
+  </si>
+  <si>
+    <t>FileTransfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                               </t>
+  </si>
+  <si>
+    <t>System display transfer process.
+System notify "transfer compleat".</t>
+  </si>
+  <si>
+    <t>transfer Successed</t>
+  </si>
+  <si>
+    <t>TransferError</t>
+  </si>
+  <si>
+    <t>ystem display transfer process.
+System notify "transfer error".</t>
+  </si>
+  <si>
+    <t>transfer failed</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Transfer whole medical file</t>
+  </si>
+  <si>
+    <t>Transfer whole medical file</t>
+  </si>
+  <si>
+    <t>Data Table:  Examination type</t>
+  </si>
+  <si>
+    <t>Examination code</t>
+  </si>
+  <si>
+    <t>Examination name</t>
+  </si>
+  <si>
+    <t>Electrocardiography</t>
+  </si>
+  <si>
+    <t>physiotherapy</t>
+  </si>
+  <si>
+    <t>Papilloma</t>
+  </si>
+  <si>
+    <t>sinusitis</t>
+  </si>
+  <si>
+    <t>Hearing test</t>
+  </si>
+  <si>
+    <t>orthodontics</t>
+  </si>
+  <si>
+    <t>psoriasis</t>
+  </si>
+  <si>
+    <t>Tova</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3245,7 +3380,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3254,7 +3389,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3262,7 +3397,7 @@
       <b/>
       <u/>
       <sz val="14"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3270,20 +3405,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3291,7 +3426,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3300,7 +3435,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3308,7 +3443,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF002060"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3316,7 +3451,7 @@
       <b/>
       <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3324,7 +3459,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3332,7 +3467,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3341,7 +3476,7 @@
       <u/>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3349,16 +3484,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3394,7 +3541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3729,7 +3876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3783,9 +3930,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4020,10 +4164,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4052,6 +4192,21 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4082,76 +4237,99 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -4195,7 +4373,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4270,6 +4448,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4305,6 +4500,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4463,21 +4675,21 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.68359375" customWidth="1"/>
-    <col min="3" max="3" width="22.3125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="117" customFormat="1" ht="23.1" x14ac:dyDescent="0.85">
-      <c r="A2" s="118" t="s">
-        <v>475</v>
-      </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="118"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" s="114" customFormat="1" ht="22.2" x14ac:dyDescent="0.7">
+      <c r="A2" s="115" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" s="116"/>
+      <c r="C2" s="115"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
@@ -4485,21 +4697,21 @@
         <v>302632195</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="B4" s="14">
         <v>312143969</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
@@ -4507,18 +4719,18 @@
         <v>305003659</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="B6" s="14">
         <v>200940997</v>
       </c>
-      <c r="C6" s="116" t="s">
-        <v>474</v>
+      <c r="C6" s="113" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -4535,59 +4747,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I104"/>
+  <dimension ref="A2:I116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="33.47265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.47265625" customWidth="1"/>
-    <col min="4" max="4" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.47265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="18.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="77" t="s">
+      <c r="I3" s="76" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>113</v>
       </c>
@@ -4597,7 +4809,7 @@
       <c r="C4" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="52" t="s">
         <v>130</v>
       </c>
       <c r="E4" s="18" t="s">
@@ -4606,7 +4818,7 @@
       <c r="F4" s="18">
         <v>1001</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="163" t="s">
         <v>131</v>
       </c>
       <c r="H4" s="18">
@@ -4616,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
@@ -4626,7 +4838,7 @@
       <c r="C5" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="54" t="s">
         <v>138</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -4635,7 +4847,7 @@
       <c r="F5" s="14">
         <v>1002</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="164" t="s">
         <v>132</v>
       </c>
       <c r="H5" s="14">
@@ -4645,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>117</v>
       </c>
@@ -4655,7 +4867,7 @@
       <c r="C6" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="54" t="s">
         <v>140</v>
       </c>
       <c r="E6" s="14" t="s">
@@ -4664,7 +4876,7 @@
       <c r="F6" s="14">
         <v>1003</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="164" t="s">
         <v>133</v>
       </c>
       <c r="H6" s="14">
@@ -4674,7 +4886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>118</v>
       </c>
@@ -4684,7 +4896,7 @@
       <c r="C7" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="54" t="s">
         <v>142</v>
       </c>
       <c r="E7" s="14" t="s">
@@ -4693,7 +4905,7 @@
       <c r="F7" s="14">
         <v>1004</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="164" t="s">
         <v>135</v>
       </c>
       <c r="H7" s="14">
@@ -4703,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>119</v>
       </c>
@@ -4713,7 +4925,7 @@
       <c r="C8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>144</v>
       </c>
       <c r="E8" s="14" t="s">
@@ -4722,7 +4934,7 @@
       <c r="F8" s="14">
         <v>1005</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="164" t="s">
         <v>136</v>
       </c>
       <c r="H8" s="14">
@@ -4732,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>121</v>
       </c>
@@ -4742,7 +4954,7 @@
       <c r="C9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="53" t="s">
         <v>143</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -4751,7 +4963,7 @@
       <c r="F9" s="14">
         <v>1006</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="164" t="s">
         <v>137</v>
       </c>
       <c r="H9" s="14">
@@ -4761,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>125</v>
       </c>
@@ -4771,7 +4983,7 @@
       <c r="C10" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>147</v>
       </c>
       <c r="E10" s="14" t="s">
@@ -4780,7 +4992,7 @@
       <c r="F10" s="14">
         <v>1007</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="164" t="s">
         <v>134</v>
       </c>
       <c r="H10" s="14">
@@ -4790,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>164</v>
       </c>
@@ -4800,7 +5012,7 @@
       <c r="C11" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>151</v>
       </c>
       <c r="E11" s="14" t="s">
@@ -4809,7 +5021,7 @@
       <c r="F11" s="14">
         <v>1008</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="164" t="s">
         <v>159</v>
       </c>
       <c r="H11" s="14">
@@ -4819,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>166</v>
       </c>
@@ -4829,7 +5041,7 @@
       <c r="C12" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
         <v>153</v>
       </c>
       <c r="E12" s="14" t="s">
@@ -4838,7 +5050,7 @@
       <c r="F12" s="14">
         <v>1009</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="164" t="s">
         <v>160</v>
       </c>
       <c r="H12" s="14">
@@ -4848,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>167</v>
       </c>
@@ -4858,7 +5070,7 @@
       <c r="C13" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="53" t="s">
         <v>154</v>
       </c>
       <c r="E13" s="14" t="s">
@@ -4867,7 +5079,7 @@
       <c r="F13" s="14">
         <v>1010</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="164" t="s">
         <v>161</v>
       </c>
       <c r="H13" s="14">
@@ -4877,7 +5089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>169</v>
       </c>
@@ -4887,7 +5099,7 @@
       <c r="C14" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="53" t="s">
         <v>156</v>
       </c>
       <c r="E14" s="14" t="s">
@@ -4896,7 +5108,7 @@
       <c r="F14" s="14">
         <v>1011</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="164" t="s">
         <v>162</v>
       </c>
       <c r="H14" s="14">
@@ -4906,7 +5118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>171</v>
       </c>
@@ -4916,7 +5128,7 @@
       <c r="C15" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="53" t="s">
         <v>157</v>
       </c>
       <c r="E15" s="14" t="s">
@@ -4925,7 +5137,7 @@
       <c r="F15" s="14">
         <v>1012</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="164" t="s">
         <v>163</v>
       </c>
       <c r="H15" s="14">
@@ -4935,26 +5147,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="16">
         <v>302632195</v>
       </c>
@@ -4964,11 +5176,11 @@
       <c r="C20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="163" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>200940997</v>
       </c>
@@ -4978,11 +5190,11 @@
       <c r="C21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="164" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>312143969</v>
       </c>
@@ -4992,11 +5204,11 @@
       <c r="C22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="164" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>305003659</v>
       </c>
@@ -5006,27 +5218,27 @@
       <c r="C23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="164" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="28" t="s">
+    <row r="26" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="14">
         <v>1002</v>
       </c>
@@ -5037,7 +5249,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="14">
         <v>1004</v>
       </c>
@@ -5048,7 +5260,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="14">
         <v>1003</v>
       </c>
@@ -5059,7 +5271,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="18">
         <v>1001</v>
       </c>
@@ -5070,156 +5282,156 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="37"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
-    </row>
-    <row r="32" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="36"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
+    </row>
+    <row r="32" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="45" t="s">
+    <row r="33" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="41"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="43"/>
+      <c r="C33" s="40"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="42"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="37"/>
+      <c r="C34" s="41"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="42"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="37"/>
+      <c r="C35" s="41"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="42"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="37"/>
+      <c r="C36" s="41"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="42"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="37"/>
+      <c r="C37" s="41"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="42"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="37"/>
+      <c r="C38" s="41"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="42"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="37"/>
+      <c r="C39" s="41"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="42"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="37"/>
+      <c r="C40" s="41"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="42"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="39"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="42"/>
-    </row>
-    <row r="43" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B41" s="37"/>
+      <c r="C41" s="41"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="38"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="41"/>
+    </row>
+    <row r="43" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A44" s="43" t="s">
+    <row r="44" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="41"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C44" s="40"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="16">
         <v>11</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="42"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C45" s="41"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>22</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="42"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C46" s="41"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>33</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="42"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C47" s="41"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>44</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="42"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="37"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="39"/>
-    </row>
-    <row r="51" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C48" s="41"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="36"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+    </row>
+    <row r="51" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A52" s="28" t="s">
+    <row r="52" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="29" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="16">
         <v>302632195</v>
       </c>
@@ -5230,7 +5442,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="16">
         <v>302632195</v>
       </c>
@@ -5241,7 +5453,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="16">
         <v>302632195</v>
       </c>
@@ -5252,7 +5464,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>200940997</v>
       </c>
@@ -5263,7 +5475,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>200940997</v>
       </c>
@@ -5274,7 +5486,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>305003659</v>
       </c>
@@ -5285,7 +5497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>312143969</v>
       </c>
@@ -5296,7 +5508,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>305003659</v>
       </c>
@@ -5307,7 +5519,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>312143969</v>
       </c>
@@ -5318,26 +5530,26 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A64" s="28" t="s">
+    <row r="64" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="18">
         <v>1001</v>
       </c>
@@ -5347,11 +5559,11 @@
       <c r="C65" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D65" s="56">
+      <c r="D65" s="55">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="18">
         <v>1001</v>
       </c>
@@ -5361,11 +5573,11 @@
       <c r="C66" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D66" s="57">
+      <c r="D66" s="56">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="14">
         <v>1002</v>
       </c>
@@ -5375,11 +5587,11 @@
       <c r="C67" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D67" s="57">
+      <c r="D67" s="56">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="18">
         <v>1001</v>
       </c>
@@ -5389,11 +5601,11 @@
       <c r="C68" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D68" s="57">
+      <c r="D68" s="56">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="14">
         <v>1002</v>
       </c>
@@ -5403,11 +5615,11 @@
       <c r="C69" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D69" s="57">
+      <c r="D69" s="56">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="14">
         <v>1004</v>
       </c>
@@ -5417,11 +5629,11 @@
       <c r="C70" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D70" s="57">
+      <c r="D70" s="56">
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="14">
         <v>1002</v>
       </c>
@@ -5431,11 +5643,11 @@
       <c r="C71" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D71" s="57">
+      <c r="D71" s="56">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="14">
         <v>1004</v>
       </c>
@@ -5445,11 +5657,11 @@
       <c r="C72" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="D72" s="57">
+      <c r="D72" s="56">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="18">
         <v>1001</v>
       </c>
@@ -5459,11 +5671,11 @@
       <c r="C73" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="D73" s="56">
+      <c r="D73" s="55">
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="18">
         <v>1001</v>
       </c>
@@ -5473,11 +5685,11 @@
       <c r="C74" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="D74" s="57">
+      <c r="D74" s="56">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="14">
         <v>1002</v>
       </c>
@@ -5487,11 +5699,11 @@
       <c r="C75" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="D75" s="57">
+      <c r="D75" s="56">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="18">
         <v>1001</v>
       </c>
@@ -5501,11 +5713,11 @@
       <c r="C76" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D76" s="57">
+      <c r="D76" s="56">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="14">
         <v>1002</v>
       </c>
@@ -5515,11 +5727,11 @@
       <c r="C77" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D77" s="57">
+      <c r="D77" s="56">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="14">
         <v>1004</v>
       </c>
@@ -5529,11 +5741,11 @@
       <c r="C78" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D78" s="57">
+      <c r="D78" s="56">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="14">
         <v>1002</v>
       </c>
@@ -5543,11 +5755,11 @@
       <c r="C79" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D79" s="57">
+      <c r="D79" s="56">
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="14">
         <v>1004</v>
       </c>
@@ -5557,30 +5769,30 @@
       <c r="C80" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D80" s="57">
+      <c r="D80" s="56">
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A83" s="28" t="s">
+    <row r="83" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B83" s="45" t="s">
+      <c r="B83" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D83" s="30" t="s">
+      <c r="D83" s="29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="16">
         <v>302632195</v>
       </c>
@@ -5590,11 +5802,11 @@
       <c r="C84" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="D84" s="56">
+      <c r="D84" s="55">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="16">
         <v>302632195</v>
       </c>
@@ -5604,11 +5816,11 @@
       <c r="C85" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D85" s="57">
+      <c r="D85" s="56">
         <v>0.375</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
         <v>305003659</v>
       </c>
@@ -5618,11 +5830,11 @@
       <c r="C86" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D86" s="57">
+      <c r="D86" s="56">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
         <v>305003659</v>
       </c>
@@ -5632,11 +5844,11 @@
       <c r="C87" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D87" s="57">
+      <c r="D87" s="56">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
         <v>305003659</v>
       </c>
@@ -5646,11 +5858,11 @@
       <c r="C88" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D88" s="57">
+      <c r="D88" s="56">
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
         <v>312143969</v>
       </c>
@@ -5660,11 +5872,11 @@
       <c r="C89" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D89" s="57">
+      <c r="D89" s="56">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
         <v>312143969</v>
       </c>
@@ -5674,36 +5886,36 @@
       <c r="C90" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D90" s="57">
+      <c r="D90" s="56">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="64" t="s">
+    <row r="93" spans="1:6" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A93" s="63" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="65" t="s">
+    <row r="94" spans="1:6" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A94" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="B94" s="65" t="s">
+      <c r="B94" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C94" s="66" t="s">
+      <c r="C94" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="D94" s="66" t="s">
+      <c r="D94" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="E94" s="66" t="s">
+      <c r="E94" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="F94" s="66" t="s">
+      <c r="F94" s="65" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="14">
         <v>302632195</v>
       </c>
@@ -5723,7 +5935,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="14">
         <v>305003659</v>
       </c>
@@ -5739,11 +5951,11 @@
       <c r="E96" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="F96" s="67" t="s">
+      <c r="F96" s="66" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="14">
         <v>200940997</v>
       </c>
@@ -5759,65 +5971,142 @@
       <c r="E97" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="F97" s="67" t="s">
+      <c r="F97" s="66" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="68"/>
-      <c r="B98" s="68"/>
-      <c r="C98" s="68"/>
-      <c r="D98" s="68"/>
-      <c r="E98" s="68"/>
-      <c r="F98" s="68"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="64" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" s="67"/>
+      <c r="B98" s="67"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+    </row>
+    <row r="100" spans="1:6" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A100" s="63" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="66" t="s">
+    <row r="101" spans="1:6" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A101" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="B101" s="66" t="s">
+      <c r="B101" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="C101" s="66" t="s">
+      <c r="C101" s="65" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="14">
         <v>90000</v>
       </c>
-      <c r="B102" s="67" t="s">
+      <c r="B102" s="66" t="s">
         <v>250</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="14">
         <v>90001</v>
       </c>
-      <c r="B103" s="67" t="s">
+      <c r="B103" s="66" t="s">
         <v>251</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="14">
         <v>90002</v>
       </c>
-      <c r="B104" s="67" t="s">
+      <c r="B104" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A107" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A108" s="44" t="s">
+        <v>563</v>
+      </c>
+      <c r="B108" s="44" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109" s="50">
+        <v>2001</v>
+      </c>
+      <c r="B109" s="160" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A110" s="48">
+        <v>2002</v>
+      </c>
+      <c r="B110" s="161" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A111" s="48">
+        <v>2003</v>
+      </c>
+      <c r="B111" s="161" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A112" s="48">
+        <v>2004</v>
+      </c>
+      <c r="B112" s="161" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" s="48">
+        <v>2005</v>
+      </c>
+      <c r="B113" s="161" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" s="48">
+        <v>2006</v>
+      </c>
+      <c r="B114" s="161" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" s="48">
+        <v>2007</v>
+      </c>
+      <c r="B115" s="161" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" s="48">
+        <v>2008</v>
+      </c>
+      <c r="B116" s="162" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -5852,73 +6141,73 @@
       <selection activeCell="B5" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.83984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.3125" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.3125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="121"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="123"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="27" t="s">
+      <c r="B4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="9" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="31" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -5932,7 +6221,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -5946,7 +6235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -5960,7 +6249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -5974,7 +6263,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -5984,70 +6273,70 @@
       <c r="C14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="34" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="17" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="120" t="s">
+    <row r="16" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="121"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="26" t="s">
+      <c r="B17" s="123"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A18" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A19" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A20" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="23"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="27" t="s">
+      <c r="B20" s="22"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A21" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A23" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-    </row>
-    <row r="24" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="31" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
@@ -6061,7 +6350,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>49</v>
       </c>
@@ -6075,8 +6364,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="58" t="s">
+    <row r="27" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="57" t="s">
         <v>279</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -6085,12 +6374,12 @@
       <c r="C27" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="72" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="58" t="s">
+    <row r="28" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="57" t="s">
         <v>281</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -6099,11 +6388,11 @@
       <c r="C28" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="72" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
@@ -6117,11 +6406,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="35" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -6131,11 +6420,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="35" t="s">
         <v>66</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -6145,11 +6434,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="35" t="s">
         <v>56</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -6159,77 +6448,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="69"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="72"/>
-    </row>
-    <row r="34" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="69"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="72"/>
-    </row>
-    <row r="35" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="120" t="s">
+    <row r="33" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A33" s="68"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
+    </row>
+    <row r="34" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="68"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="71"/>
+    </row>
+    <row r="35" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="121"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="26" t="s">
+      <c r="B35" s="123"/>
+    </row>
+    <row r="36" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A36" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="27" t="s">
+    <row r="37" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A37" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="27" t="s">
+    <row r="38" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A38" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="23"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="27" t="s">
+      <c r="B38" s="22"/>
+    </row>
+    <row r="39" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A39" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A42" s="21" t="s">
+    <row r="42" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A42" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-    </row>
-    <row r="43" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A43" s="31" t="s">
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
         <v>266</v>
       </c>
@@ -6243,7 +6532,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="101.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>267</v>
       </c>
@@ -6257,8 +6546,8 @@
         <v>327</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A46" s="58" t="s">
+    <row r="46" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="57" t="s">
         <v>328</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -6267,12 +6556,12 @@
       <c r="C46" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D46" s="73" t="s">
+      <c r="D46" s="72" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A47" s="58" t="s">
+    <row r="47" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="57" t="s">
         <v>268</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -6281,11 +6570,11 @@
       <c r="C47" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D47" s="73" t="s">
+      <c r="D47" s="72" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="7" t="s">
         <v>23</v>
       </c>
@@ -6299,95 +6588,95 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="69"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="72"/>
-    </row>
-    <row r="50" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="69"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="72"/>
-    </row>
-    <row r="51" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A51" s="120" t="s">
+    <row r="49" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A49" s="68"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="71"/>
+    </row>
+    <row r="50" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="68"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="71"/>
+    </row>
+    <row r="51" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="122" t="s">
         <v>259</v>
       </c>
-      <c r="B51" s="121"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="26" t="s">
+      <c r="B51" s="123"/>
+    </row>
+    <row r="52" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A52" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="24" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="27" t="s">
+    <row r="53" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A53" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="27" t="s">
+    <row r="54" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A54" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="23"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="27" t="s">
+      <c r="B54" s="22"/>
+    </row>
+    <row r="55" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A55" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="74"/>
-      <c r="B56" s="75"/>
-    </row>
-    <row r="58" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A58" s="21" t="s">
+    <row r="56" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A56" s="73"/>
+      <c r="B56" s="74"/>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="38"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="40"/>
-    </row>
-    <row r="59" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A59" s="31" t="s">
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="39"/>
+    </row>
+    <row r="59" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="48" t="s">
+      <c r="C59" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="D59" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C60" s="46" t="s">
+      <c r="C60" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="D60" s="47" t="s">
+      <c r="D60" s="46" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
         <v>183</v>
       </c>
@@ -6397,11 +6686,11 @@
       <c r="C61" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="D61" s="34" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
         <v>185</v>
       </c>
@@ -6415,11 +6704,11 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="35" t="s">
         <v>263</v>
       </c>
       <c r="C63" s="9" t="s">
@@ -6429,63 +6718,63 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="66" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A66" s="120" t="s">
+    <row r="65" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="66" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="122" t="s">
         <v>190</v>
       </c>
-      <c r="B66" s="121"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="26" t="s">
+      <c r="B66" s="123"/>
+    </row>
+    <row r="67" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A67" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="24" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="27" t="s">
+    <row r="68" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A68" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="27" t="s">
+    <row r="69" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A69" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="23"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="27" t="s">
+      <c r="B69" s="22"/>
+    </row>
+    <row r="70" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A70" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="23" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A72" s="21" t="s">
+    <row r="72" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A73" s="31" t="s">
+    <row r="73" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A73" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C73" s="48" t="s">
+      <c r="C73" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="34" t="s">
+      <c r="D73" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
         <v>192</v>
       </c>
@@ -6495,25 +6784,25 @@
       <c r="C74" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D74" s="47" t="s">
+      <c r="D74" s="46" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="101.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:4" ht="96.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
         <v>193</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C75" s="46" t="s">
+      <c r="C75" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D75" s="34" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="4" t="s">
         <v>200</v>
       </c>
@@ -6527,11 +6816,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="35" t="s">
         <v>232</v>
       </c>
       <c r="C77" s="9" t="s">
@@ -6541,189 +6830,189 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="80" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A80" s="120" t="s">
+    <row r="79" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="80" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A80" s="122" t="s">
         <v>196</v>
       </c>
-      <c r="B80" s="121"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="26" t="s">
+      <c r="B80" s="123"/>
+    </row>
+    <row r="81" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A81" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="24" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="27" t="s">
+    <row r="82" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A82" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="27" t="s">
+    <row r="83" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A83" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="23"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="27" t="s">
+      <c r="B83" s="22"/>
+    </row>
+    <row r="84" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A84" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="23" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A86" s="21" t="s">
+    <row r="86" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A87" s="31" t="s">
+    <row r="87" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A87" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="48" t="s">
+      <c r="C87" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D87" s="34" t="s">
+      <c r="D87" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A88" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C88" s="46" t="s">
+      <c r="C88" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="D88" s="60" t="s">
+      <c r="D88" s="59" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="173.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:4" ht="165.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89" s="4" t="s">
         <v>212</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C89" s="59" t="s">
+      <c r="C89" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="D89" s="59" t="s">
+      <c r="D89" s="58" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A90" s="58" t="s">
+    <row r="90" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A90" s="57" t="s">
         <v>214</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C90" s="59" t="s">
+      <c r="C90" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="D90" s="61" t="s">
+      <c r="D90" s="60" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A91" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="C91" s="63" t="s">
+      <c r="C91" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="62" t="s">
+      <c r="D91" s="61" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="94" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A94" s="120" t="s">
+    <row r="93" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="94" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A94" s="122" t="s">
         <v>198</v>
       </c>
-      <c r="B94" s="121"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="26" t="s">
+      <c r="B94" s="123"/>
+    </row>
+    <row r="95" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A95" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B95" s="25" t="s">
+      <c r="B95" s="24" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="27" t="s">
+    <row r="96" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A96" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="27" t="s">
+    <row r="97" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A97" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B97" s="23"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="27" t="s">
+      <c r="B97" s="22"/>
+    </row>
+    <row r="98" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A98" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B98" s="24" t="s">
+      <c r="B98" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A100" s="21" t="s">
+    <row r="100" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A101" s="31" t="s">
+    <row r="101" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A101" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B101" s="31" t="s">
+      <c r="B101" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C101" s="48" t="s">
+      <c r="C101" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D101" s="34" t="s">
+      <c r="D101" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A102" s="4" t="s">
         <v>217</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C102" s="46" t="s">
+      <c r="C102" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="D102" s="60" t="s">
+      <c r="D102" s="59" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:4" ht="110.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A103" s="4" t="s">
         <v>229</v>
       </c>
@@ -6733,11 +7022,11 @@
       <c r="C103" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D103" s="59" t="s">
+      <c r="D103" s="58" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A104" s="4" t="s">
         <v>224</v>
       </c>
@@ -6747,21 +7036,21 @@
       <c r="C104" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D104" s="61" t="s">
+      <c r="D104" s="60" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A105" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B105" s="36" t="s">
+      <c r="B105" s="35" t="s">
         <v>231</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="61" t="s">
+      <c r="D105" s="60" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6788,241 +7077,241 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.3125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.68359375" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="122" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="121"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="123"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="78"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="27" t="s">
+      <c r="B4" s="77"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="79"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="76"/>
-    </row>
-    <row r="7" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="80" t="s">
+      <c r="B5" s="78"/>
+    </row>
+    <row r="6" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A6" s="75"/>
+    </row>
+    <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="79" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="91" t="s">
+    <row r="8" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A8" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="92" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="81" t="s">
+    <row r="9" spans="1:4" ht="56.1" x14ac:dyDescent="0.45">
+      <c r="A9" s="80" t="s">
         <v>288</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="82" t="s">
         <v>317</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="84" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="81" t="s">
+    <row r="10" spans="1:4" ht="83.7" x14ac:dyDescent="0.45">
+      <c r="A10" s="80" t="s">
         <v>291</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="82" t="s">
         <v>318</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="82" t="s">
         <v>292</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="83" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="81" t="s">
+    <row r="11" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
+      <c r="A11" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="82" t="s">
         <v>319</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="82" t="s">
         <v>294</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="84" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="124" t="s">
+    <row r="12" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
+      <c r="A12" s="126" t="s">
         <v>296</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="82" t="s">
         <v>320</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="84" t="s">
         <v>333</v>
       </c>
-      <c r="D12" s="123" t="s">
+      <c r="D12" s="125" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="125"/>
-      <c r="B13" s="83" t="s">
+    <row r="13" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
+      <c r="A13" s="127"/>
+      <c r="B13" s="82" t="s">
         <v>297</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="82" t="s">
         <v>334</v>
       </c>
-      <c r="D13" s="123"/>
-    </row>
-    <row r="14" spans="1:4" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="125"/>
-      <c r="B14" s="85" t="s">
+      <c r="D13" s="125"/>
+    </row>
+    <row r="14" spans="1:4" ht="139.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="127"/>
+      <c r="B14" s="84" t="s">
         <v>298</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="82" t="s">
         <v>336</v>
       </c>
-      <c r="D14" s="123"/>
-    </row>
-    <row r="15" spans="1:4" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="122" t="s">
+      <c r="D14" s="125"/>
+    </row>
+    <row r="15" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
+      <c r="A15" s="124" t="s">
         <v>337</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="82" t="s">
         <v>332</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="84" t="s">
         <v>333</v>
       </c>
-      <c r="D15" s="123" t="s">
+      <c r="D15" s="125" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="122"/>
-      <c r="B16" s="83" t="s">
+    <row r="16" spans="1:4" ht="97.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="124"/>
+      <c r="B16" s="82" t="s">
         <v>300</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="82" t="s">
         <v>335</v>
       </c>
-      <c r="D16" s="123"/>
-    </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="122"/>
-      <c r="B17" s="83" t="s">
+      <c r="D16" s="125"/>
+    </row>
+    <row r="17" spans="1:4" ht="27.9" x14ac:dyDescent="0.45">
+      <c r="A17" s="124"/>
+      <c r="B17" s="82" t="s">
         <v>301</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="85" t="s">
         <v>302</v>
       </c>
-      <c r="D17" s="123"/>
-    </row>
-    <row r="18" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="122"/>
-      <c r="B18" s="83" t="s">
+      <c r="D17" s="125"/>
+    </row>
+    <row r="18" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="124"/>
+      <c r="B18" s="82" t="s">
         <v>303</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="85" t="s">
         <v>304</v>
       </c>
-      <c r="D18" s="123"/>
-    </row>
-    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="82" t="s">
+      <c r="D18" s="125"/>
+    </row>
+    <row r="19" spans="1:4" ht="56.1" x14ac:dyDescent="0.45">
+      <c r="A19" s="81" t="s">
         <v>305</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="82" t="s">
         <v>321</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="82" t="s">
         <v>306</v>
       </c>
-      <c r="D19" s="83" t="s">
+      <c r="D19" s="82" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="81" t="s">
+    <row r="20" spans="1:4" ht="56.1" x14ac:dyDescent="0.45">
+      <c r="A20" s="80" t="s">
         <v>308</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="82" t="s">
         <v>322</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="D20" s="87"/>
-    </row>
-    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="81" t="s">
+      <c r="D20" s="86"/>
+    </row>
+    <row r="21" spans="1:4" ht="56.1" x14ac:dyDescent="0.45">
+      <c r="A21" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="D21" s="88" t="s">
+      <c r="D21" s="87" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="81" t="s">
+    <row r="22" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
+      <c r="A22" s="80" t="s">
         <v>312</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="89" t="s">
         <v>324</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C22" s="88" t="s">
         <v>313</v>
       </c>
-      <c r="D22" s="88" t="s">
+      <c r="D22" s="87" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7041,79 +7330,79 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection sqref="A1:XFD129"/>
+    <sheetView topLeftCell="A51" zoomScale="122" zoomScaleNormal="70" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="121"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="123"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="27" t="s">
+      <c r="B4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="9" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="31" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="201.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -7127,7 +7416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="173.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -7141,7 +7430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="129.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -7155,7 +7444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -7169,7 +7458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -7179,742 +7468,1035 @@
       <c r="C14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="34" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="17" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="130" t="s">
+    <row r="16" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="137" t="s">
         <v>341</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="133" t="s">
+      <c r="B17" s="138"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A18" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="134" t="s">
+      <c r="B18" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="135" t="s">
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A19" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="136" t="s">
+      <c r="B19" s="143" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="135" t="s">
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A20" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="137"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="135" t="s">
+      <c r="B20" s="143"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A21" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="132"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-    </row>
-    <row r="23" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A23" s="139" t="s">
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="139"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+    </row>
+    <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A23" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="140"/>
-      <c r="C23" s="140"/>
-      <c r="D23" s="141"/>
-    </row>
-    <row r="24" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="142" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="146"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="143" t="s">
+      <c r="B24" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="144" t="s">
+      <c r="C24" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="145" t="s">
+      <c r="D24" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="187.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="146" t="s">
+    <row r="25" spans="1:4" ht="69" x14ac:dyDescent="0.45">
+      <c r="A25" s="147" t="s">
         <v>343</v>
       </c>
-      <c r="B25" s="147" t="s">
+      <c r="B25" s="148" t="s">
+        <v>520</v>
+      </c>
+      <c r="C25" s="148" t="s">
+        <v>521</v>
+      </c>
+      <c r="D25" s="149" t="s">
         <v>344</v>
       </c>
-      <c r="C25" s="147" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="69" x14ac:dyDescent="0.45">
+      <c r="A26" s="147" t="s">
+        <v>343</v>
+      </c>
+      <c r="B26" s="148" t="s">
+        <v>522</v>
+      </c>
+      <c r="C26" s="148" t="s">
+        <v>521</v>
+      </c>
+      <c r="D26" s="149" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="69" x14ac:dyDescent="0.45">
+      <c r="A27" s="147" t="s">
+        <v>343</v>
+      </c>
+      <c r="B27" s="148" t="s">
+        <v>523</v>
+      </c>
+      <c r="C27" s="148" t="s">
+        <v>521</v>
+      </c>
+      <c r="D27" s="149" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="82.8" x14ac:dyDescent="0.45">
+      <c r="A28" s="150" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="151" t="s">
+        <v>524</v>
+      </c>
+      <c r="C28" s="151" t="s">
+        <v>525</v>
+      </c>
+      <c r="D28" s="152" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="150" t="s">
+        <v>526</v>
+      </c>
+      <c r="B29" s="151" t="s">
+        <v>527</v>
+      </c>
+      <c r="C29" s="151" t="s">
+        <v>528</v>
+      </c>
+      <c r="D29" s="152" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="33" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="122" t="s">
         <v>345</v>
       </c>
-      <c r="D25" s="148" t="s">
+      <c r="B33" s="123"/>
+    </row>
+    <row r="34" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A34" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="24" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="172.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="149" t="s">
+    <row r="35" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A35" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A36" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="22"/>
+    </row>
+    <row r="37" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A37" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A38" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+    </row>
+    <row r="39" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="45" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="122" t="s">
+        <v>462</v>
+      </c>
+      <c r="B45" s="123"/>
+    </row>
+    <row r="46" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A46" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A47" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A48" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="22"/>
+    </row>
+    <row r="49" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A49" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A50" s="73"/>
+      <c r="B50" s="74"/>
+    </row>
+    <row r="51" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A51" s="73"/>
+      <c r="B51" s="74"/>
+    </row>
+    <row r="52" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A52" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+    </row>
+    <row r="53" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>471</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="59" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="122" t="s">
+        <v>472</v>
+      </c>
+      <c r="B59" s="123"/>
+    </row>
+    <row r="60" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A60" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A61" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A62" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="22"/>
+    </row>
+    <row r="63" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A63" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A64" s="73"/>
+      <c r="B64" s="74"/>
+    </row>
+    <row r="65" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A65" s="73"/>
+      <c r="B65" s="74"/>
+    </row>
+    <row r="66" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A66" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+    </row>
+    <row r="67" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A68" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A69" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="118" t="s">
+        <v>483</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A72" s="119" t="s">
+        <v>487</v>
+      </c>
+      <c r="B72" s="120" t="s">
+        <v>488</v>
+      </c>
+      <c r="C72" s="120" t="s">
+        <v>489</v>
+      </c>
+      <c r="D72" s="121" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="75" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A75" s="122" t="s">
+        <v>491</v>
+      </c>
+      <c r="B75" s="123"/>
+    </row>
+    <row r="76" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A76" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A77" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A78" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="22"/>
+    </row>
+    <row r="79" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A79" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A80" s="73"/>
+      <c r="B80" s="74"/>
+    </row>
+    <row r="81" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A81" s="73"/>
+      <c r="B81" s="74"/>
+    </row>
+    <row r="82" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A82" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+    </row>
+    <row r="83" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A83" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="110.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A84" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="96.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A85" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="150" t="s">
-        <v>347</v>
-      </c>
-      <c r="C26" s="150" t="s">
-        <v>348</v>
-      </c>
-      <c r="D26" s="151" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="16">
-        <v>302632195</v>
-      </c>
-      <c r="B33" s="17">
-        <v>11</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="56">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="16">
-        <v>302632195</v>
-      </c>
-      <c r="B34" s="13">
-        <v>22</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D34" s="57">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="3">
-        <v>305003659</v>
-      </c>
-      <c r="B35" s="13">
-        <v>11</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="D35" s="57">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="3">
-        <v>305003659</v>
-      </c>
-      <c r="B36" s="13">
-        <v>22</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="D36" s="57">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="3">
-        <v>305003659</v>
-      </c>
-      <c r="B37" s="13">
-        <v>44</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="57">
-        <v>0.39583333333333331</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="3">
-        <v>312143969</v>
-      </c>
-      <c r="B38" s="13">
-        <v>22</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D38" s="57">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="3">
-        <v>312143969</v>
-      </c>
-      <c r="B39" s="13">
-        <v>44</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D39" s="57">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="42" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="120" t="s">
-        <v>349</v>
-      </c>
-      <c r="B42" s="121"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="26" t="s">
+      <c r="B85" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A86" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="35" t="s">
+        <v>500</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="110.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A87" s="118" t="s">
+        <v>502</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D87" s="34" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="90" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A90" s="122" t="s">
+        <v>531</v>
+      </c>
+      <c r="B90" s="123"/>
+    </row>
+    <row r="91" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A91" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="25" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="27" t="s">
+      <c r="B91" s="24" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A92" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B92" s="21" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="27" t="s">
+    <row r="93" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A93" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="23"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="27" t="s">
+      <c r="B93" s="22"/>
+    </row>
+    <row r="94" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A94" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B94" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A47" s="21" t="s">
+    <row r="95" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A95" s="73"/>
+      <c r="B95" s="74"/>
+    </row>
+    <row r="96" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A96" s="73"/>
+      <c r="B96" s="74"/>
+    </row>
+    <row r="97" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A97" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-    </row>
-    <row r="48" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A48" s="31" t="s">
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+    </row>
+    <row r="98" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A98" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B98" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C98" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D98" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="129.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="187.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A51" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="66" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A66" s="120" t="s">
-        <v>476</v>
-      </c>
-      <c r="B66" s="121"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="23"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A71" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-    </row>
-    <row r="72" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A72" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B72" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="129.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A73" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="158.69999999999999" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A74" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A75" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B75" s="36" t="s">
-        <v>486</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="64" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="66" t="s">
-        <v>487</v>
-      </c>
-      <c r="B84" s="66" t="s">
-        <v>246</v>
-      </c>
-      <c r="C84" s="66" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="14">
-        <v>3001</v>
-      </c>
-      <c r="B85" s="67" t="s">
-        <v>250</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="14">
-        <v>3002</v>
-      </c>
-      <c r="B86" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="14">
-        <v>3003</v>
-      </c>
-      <c r="B87" s="67" t="s">
-        <v>255</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="14">
-        <v>3004</v>
-      </c>
-      <c r="B88" s="67"/>
-      <c r="C88" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="92" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A92" s="120" t="s">
-        <v>488</v>
-      </c>
-      <c r="B92" s="121"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" s="25" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B94" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="23"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A97" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" s="20"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-    </row>
-    <row r="98" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A98" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B98" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C98" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D98" s="34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="173.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A99" s="4" t="s">
-        <v>490</v>
+        <v>533</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>491</v>
+        <v>534</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="201.9" thickBot="1" x14ac:dyDescent="0.6">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A100" s="4" t="s">
-        <v>494</v>
+        <v>537</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>495</v>
+        <v>538</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A101" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B101" s="36" t="s">
-        <v>498</v>
+      <c r="B101" s="35" t="s">
+        <v>500</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>27</v>
+        <v>501</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="187.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A102" s="152" t="s">
-        <v>499</v>
-      </c>
-      <c r="B102" s="6" t="s">
+    <row r="103" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="104" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A104" s="122" t="s">
+        <v>541</v>
+      </c>
+      <c r="B104" s="123"/>
+    </row>
+    <row r="105" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A105" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A106" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A107" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="22"/>
+    </row>
+    <row r="108" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A108" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="159" customFormat="1" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A109" s="158"/>
+      <c r="B109" s="74"/>
+    </row>
+    <row r="111" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A111" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+    </row>
+    <row r="112" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A112" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A113" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A114" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A115" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" s="35" t="s">
         <v>500</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C115" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="D102" s="35" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A103" s="153" t="s">
-        <v>503</v>
-      </c>
-      <c r="B103" s="154" t="s">
-        <v>504</v>
-      </c>
-      <c r="C103" s="154" t="s">
-        <v>505</v>
-      </c>
-      <c r="D103" s="155" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="119" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A119" s="120" t="s">
-        <v>507</v>
-      </c>
-      <c r="B119" s="121"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D115" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="118" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A118" s="122" t="s">
+        <v>551</v>
+      </c>
+      <c r="B118" s="123"/>
+    </row>
+    <row r="119" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A119" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="24" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A120" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A121" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" s="22"/>
+    </row>
+    <row r="122" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A122" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A125" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+    </row>
+    <row r="126" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A126" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A127" s="153" t="s">
+        <v>553</v>
+      </c>
+      <c r="B127" s="154" t="s">
+        <v>554</v>
+      </c>
+      <c r="C127" s="154" t="s">
+        <v>555</v>
+      </c>
+      <c r="D127" s="155" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A128" s="117" t="s">
+        <v>557</v>
+      </c>
+      <c r="B128" s="156"/>
+      <c r="C128" s="156" t="s">
+        <v>558</v>
+      </c>
+      <c r="D128" s="157" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="131" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A131" s="122" t="s">
+        <v>560</v>
+      </c>
+      <c r="B131" s="123"/>
+    </row>
+    <row r="132" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A132" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B120" s="25" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="27" t="s">
+      <c r="B132" s="24" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A133" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B121" s="22" t="s">
+      <c r="B133" s="21" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="27" t="s">
+    <row r="134" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A134" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B122" s="23"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="27" t="s">
+      <c r="B134" s="22"/>
+    </row>
+    <row r="135" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A135" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A124" s="21" t="s">
+      <c r="B135" s="23" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A137" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B124" s="20"/>
-      <c r="C124" s="20"/>
-      <c r="D124" s="20"/>
-    </row>
-    <row r="125" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A125" s="31" t="s">
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+    </row>
+    <row r="138" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A138" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B125" s="32" t="s">
+      <c r="B138" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C125" s="33" t="s">
+      <c r="C138" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D125" s="34" t="s">
+      <c r="D138" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="288.3" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A126" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="245.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A127" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="129.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A128" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B128" s="36" t="s">
-        <v>516</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="245.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A129" s="152" t="s">
-        <v>518</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="D129" s="35" t="s">
-        <v>521</v>
+    <row r="139" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A139" s="153" t="s">
+        <v>553</v>
+      </c>
+      <c r="B139" s="154" t="s">
+        <v>554</v>
+      </c>
+      <c r="C139" s="154" t="s">
+        <v>555</v>
+      </c>
+      <c r="D139" s="155" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A140" s="117" t="s">
+        <v>557</v>
+      </c>
+      <c r="B140" s="156"/>
+      <c r="C140" s="156" t="s">
+        <v>558</v>
+      </c>
+      <c r="D140" s="157" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A119:B119"/>
+  <mergeCells count="10">
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A131:B131"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A75:B75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7923,439 +8505,487 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="48.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="126" t="s">
+    <row r="1" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A1" s="128" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" s="128"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A2" s="94" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A3" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A4" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="66"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A5" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A9" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
+      <c r="A10" s="93" t="s">
+        <v>506</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>512</v>
+      </c>
+      <c r="D10" s="86" t="s">
         <v>360</v>
       </c>
-      <c r="B1" s="126"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="95" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="179.4" x14ac:dyDescent="0.45">
+      <c r="A11" s="93" t="s">
+        <v>507</v>
+      </c>
+      <c r="B11" s="84" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="C11" s="99" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="95" t="s">
+      <c r="D11" s="86" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
+      <c r="A12" s="93" t="s">
+        <v>513</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>364</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>365</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A13" s="117" t="s">
+        <v>514</v>
+      </c>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="86"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A14" s="117" t="s">
+        <v>515</v>
+      </c>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="86"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A15" s="117" t="s">
+        <v>516</v>
+      </c>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="86"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A16" s="117" t="s">
+        <v>517</v>
+      </c>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="86"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A17" s="117" t="s">
+        <v>519</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="86"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A18" s="117" t="s">
+        <v>518</v>
+      </c>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="86"/>
+    </row>
+    <row r="19" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
+      <c r="A19" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>367</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A22" s="128" t="s">
+        <v>368</v>
+      </c>
+      <c r="B22" s="128"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A23" s="94" t="s">
+        <v>357</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A24" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B24" s="66" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="95" t="s">
+    <row r="25" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A25" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="67"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="95" t="s">
+      <c r="B25" s="66"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A26" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="106" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A8" s="21" t="s">
+      <c r="B26" s="103" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A29" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="96" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A30" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B30" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C30" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D30" s="98" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="158.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="94" t="s">
-        <v>363</v>
-      </c>
-      <c r="B10" s="85" t="s">
-        <v>364</v>
-      </c>
-      <c r="C10" s="85" t="s">
-        <v>365</v>
-      </c>
-      <c r="D10" s="87" t="s">
+    <row r="31" spans="1:4" ht="41.4" x14ac:dyDescent="0.45">
+      <c r="A31" s="93" t="s">
+        <v>508</v>
+      </c>
+      <c r="B31" s="133" t="s">
+        <v>371</v>
+      </c>
+      <c r="C31" s="99" t="s">
+        <v>372</v>
+      </c>
+      <c r="D31" s="134" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
+      <c r="A32" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="132" t="s">
+        <v>374</v>
+      </c>
+      <c r="C32" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A35" s="100" t="s">
+        <v>375</v>
+      </c>
+      <c r="B35" s="100"/>
+    </row>
+    <row r="36" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A36" s="94" t="s">
+        <v>357</v>
+      </c>
+      <c r="B36" s="66" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A37" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A38" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="66"/>
+    </row>
+    <row r="39" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A39" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="135" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A41" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A42" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
+      <c r="A43" s="102" t="s">
+        <v>509</v>
+      </c>
+      <c r="B43" s="84" t="s">
+        <v>377</v>
+      </c>
+      <c r="C43" s="84" t="s">
+        <v>378</v>
+      </c>
+      <c r="D43" s="86" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="69" x14ac:dyDescent="0.45">
+      <c r="A44" s="102" t="s">
+        <v>510</v>
+      </c>
+      <c r="B44" s="84" t="s">
+        <v>380</v>
+      </c>
+      <c r="C44" s="84" t="s">
+        <v>381</v>
+      </c>
+      <c r="D44" s="86" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
+      <c r="A45" s="93" t="s">
+        <v>511</v>
+      </c>
+      <c r="B45" s="84" t="s">
+        <v>382</v>
+      </c>
+      <c r="C45" s="84" t="s">
+        <v>383</v>
+      </c>
+      <c r="D45" s="86" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="187.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="94" t="s">
-        <v>367</v>
-      </c>
-      <c r="B11" s="85" t="s">
-        <v>368</v>
-      </c>
-      <c r="C11" s="100" t="s">
-        <v>369</v>
-      </c>
-      <c r="D11" s="87" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="94" t="s">
-        <v>371</v>
-      </c>
-      <c r="B12" s="100" t="s">
-        <v>372</v>
-      </c>
-      <c r="C12" s="85" t="s">
-        <v>373</v>
-      </c>
-      <c r="D12" s="87" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="94" t="s">
+    <row r="46" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
+      <c r="A46" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="88" t="s">
-        <v>375</v>
-      </c>
-      <c r="C13" s="100" t="s">
+      <c r="B46" s="87" t="s">
+        <v>384</v>
+      </c>
+      <c r="C46" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D46" s="86" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="126" t="s">
+    <row r="49" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A49" s="128" t="s">
+        <v>385</v>
+      </c>
+      <c r="B49" s="128"/>
+    </row>
+    <row r="50" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A50" s="94" t="s">
+        <v>357</v>
+      </c>
+      <c r="B50" s="66" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A51" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A52" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="66"/>
+    </row>
+    <row r="53" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A53" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="136" t="s">
         <v>376</v>
       </c>
-      <c r="B16" s="126"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="95" t="s">
-        <v>361</v>
-      </c>
-      <c r="B17" s="67" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="67" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="67"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A23" s="21" t="s">
+    </row>
+    <row r="55" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A55" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="96" t="s">
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+    </row>
+    <row r="56" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A56" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="97" t="s">
+      <c r="B56" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C56" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="99" t="s">
+      <c r="D56" s="98" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="94" t="s">
-        <v>379</v>
-      </c>
-      <c r="B25" s="100" t="s">
-        <v>380</v>
-      </c>
-      <c r="C25" s="100" t="s">
-        <v>381</v>
-      </c>
-      <c r="D25" s="104" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="94" t="s">
+    <row r="57" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
+      <c r="A57" s="93" t="s">
+        <v>387</v>
+      </c>
+      <c r="B57" s="84" t="s">
+        <v>388</v>
+      </c>
+      <c r="C57" s="84" t="s">
+        <v>389</v>
+      </c>
+      <c r="D57" s="86" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="96.6" x14ac:dyDescent="0.45">
+      <c r="A58" s="93" t="s">
+        <v>390</v>
+      </c>
+      <c r="B58" s="84" t="s">
+        <v>391</v>
+      </c>
+      <c r="C58" s="84" t="s">
+        <v>392</v>
+      </c>
+      <c r="D58" s="86" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
+      <c r="A59" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="105" t="s">
-        <v>383</v>
-      </c>
-      <c r="C26" s="100" t="s">
+      <c r="B59" s="87" t="s">
+        <v>394</v>
+      </c>
+      <c r="C59" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="101" t="s">
-        <v>384</v>
-      </c>
-      <c r="B29" s="101"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="95" t="s">
-        <v>361</v>
-      </c>
-      <c r="B30" s="67" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="67" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="67"/>
-    </row>
-    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="100" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A35" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="96" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="97" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="99" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="103" t="s">
-        <v>387</v>
-      </c>
-      <c r="B37" s="85" t="s">
-        <v>388</v>
-      </c>
-      <c r="C37" s="85" t="s">
-        <v>389</v>
-      </c>
-      <c r="D37" s="87" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="103" t="s">
-        <v>391</v>
-      </c>
-      <c r="B38" s="85" t="s">
-        <v>392</v>
-      </c>
-      <c r="C38" s="85" t="s">
-        <v>393</v>
-      </c>
-      <c r="D38" s="87" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="94" t="s">
-        <v>394</v>
-      </c>
-      <c r="B39" s="85" t="s">
-        <v>395</v>
-      </c>
-      <c r="C39" s="85" t="s">
-        <v>396</v>
-      </c>
-      <c r="D39" s="87" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="88" t="s">
-        <v>397</v>
-      </c>
-      <c r="C40" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="87" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="126" t="s">
-        <v>398</v>
-      </c>
-      <c r="B43" s="126"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="95" t="s">
-        <v>361</v>
-      </c>
-      <c r="B44" s="67" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="67" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="67"/>
-    </row>
-    <row r="47" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="89" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="85" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A49" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="96" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="97" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="99" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="94" t="s">
-        <v>401</v>
-      </c>
-      <c r="B51" s="85" t="s">
-        <v>402</v>
-      </c>
-      <c r="C51" s="85" t="s">
-        <v>403</v>
-      </c>
-      <c r="D51" s="87" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="94" t="s">
-        <v>404</v>
-      </c>
-      <c r="B52" s="85" t="s">
-        <v>405</v>
-      </c>
-      <c r="C52" s="85" t="s">
-        <v>406</v>
-      </c>
-      <c r="D52" s="87" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="88" t="s">
-        <v>408</v>
-      </c>
-      <c r="C53" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="87" t="s">
+      <c r="D59" s="86" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8369,399 +8999,399 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.83984375" customWidth="1"/>
-    <col min="2" max="2" width="23.3125" customWidth="1"/>
-    <col min="3" max="3" width="19.83984375" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="129" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="129"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="108" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="108" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="66"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="56.4" x14ac:dyDescent="0.45">
+      <c r="A10" s="107" t="s">
+        <v>400</v>
+      </c>
+      <c r="B10" s="102" t="s">
+        <v>399</v>
+      </c>
+      <c r="C10" s="102" t="s">
+        <v>398</v>
+      </c>
+      <c r="D10" s="102" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.2" x14ac:dyDescent="0.45">
+      <c r="A11" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="B11" s="102" t="s">
+        <v>403</v>
+      </c>
+      <c r="C11" s="102" t="s">
+        <v>402</v>
+      </c>
+      <c r="D11" s="102" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="129" t="s">
+        <v>405</v>
+      </c>
+      <c r="B14" s="129"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="108" t="s">
+        <v>357</v>
+      </c>
+      <c r="B15" s="108" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="66"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="239.7" x14ac:dyDescent="0.45">
+      <c r="A23" s="107" t="s">
+        <v>410</v>
+      </c>
+      <c r="B23" s="102" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="127"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="111" t="s">
-        <v>361</v>
-      </c>
-      <c r="B2" s="111" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="67" t="s">
+      <c r="C23" s="102" t="s">
+        <v>408</v>
+      </c>
+      <c r="D23" s="111" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="141" x14ac:dyDescent="0.45">
+      <c r="A24" s="107" t="s">
+        <v>414</v>
+      </c>
+      <c r="B24" s="102" t="s">
+        <v>413</v>
+      </c>
+      <c r="C24" s="102" t="s">
+        <v>412</v>
+      </c>
+      <c r="D24" s="102" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="211.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="107" t="s">
+        <v>418</v>
+      </c>
+      <c r="B25" s="102" t="s">
+        <v>417</v>
+      </c>
+      <c r="C25" s="112" t="s">
+        <v>416</v>
+      </c>
+      <c r="D25" s="102" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="141" x14ac:dyDescent="0.45">
+      <c r="A26" s="107" t="s">
+        <v>422</v>
+      </c>
+      <c r="B26" s="102" t="s">
+        <v>421</v>
+      </c>
+      <c r="C26" s="102" t="s">
+        <v>420</v>
+      </c>
+      <c r="D26" s="102" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="106" t="s">
+        <v>426</v>
+      </c>
+      <c r="B27" s="102" t="s">
+        <v>425</v>
+      </c>
+      <c r="C27" s="102" t="s">
+        <v>424</v>
+      </c>
+      <c r="D27" s="102" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="98.7" x14ac:dyDescent="0.45">
+      <c r="A28" s="106" t="s">
+        <v>429</v>
+      </c>
+      <c r="B28" s="102" t="s">
+        <v>428</v>
+      </c>
+      <c r="C28" s="102" t="s">
+        <v>427</v>
+      </c>
+      <c r="D28" s="102" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="84.6" x14ac:dyDescent="0.45">
+      <c r="A29" s="106" t="s">
+        <v>432</v>
+      </c>
+      <c r="B29" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="C29" s="102" t="s">
+        <v>430</v>
+      </c>
+      <c r="D29" s="102" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="129" t="s">
+        <v>433</v>
+      </c>
+      <c r="B33" s="129"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="108" t="s">
+        <v>357</v>
+      </c>
+      <c r="B34" s="108" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B35" s="66" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="67" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="67"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="67" t="s">
+      <c r="B36" s="66"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="112" t="s">
+      <c r="B37" s="66" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="109" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="113" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="113" t="s">
+      <c r="B41" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="113" t="s">
+      <c r="C41" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="113" t="s">
+      <c r="D41" s="110" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="110" t="s">
-        <v>414</v>
-      </c>
-      <c r="B10" s="103" t="s">
-        <v>413</v>
-      </c>
-      <c r="C10" s="103" t="s">
-        <v>412</v>
-      </c>
-      <c r="D10" s="103" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="110" t="s">
-        <v>418</v>
-      </c>
-      <c r="B11" s="103" t="s">
-        <v>417</v>
-      </c>
-      <c r="C11" s="103" t="s">
-        <v>416</v>
-      </c>
-      <c r="D11" s="103" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="127" t="s">
-        <v>419</v>
-      </c>
-      <c r="B14" s="127"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="111" t="s">
-        <v>361</v>
-      </c>
-      <c r="B15" s="111" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="67" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="67"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="67" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="113" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="113" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="113" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="244.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="110" t="s">
-        <v>424</v>
-      </c>
-      <c r="B23" s="103" t="s">
+    <row r="42" spans="1:4" ht="267.89999999999998" x14ac:dyDescent="0.45">
+      <c r="A42" s="107" t="s">
+        <v>438</v>
+      </c>
+      <c r="B42" s="102" t="s">
+        <v>437</v>
+      </c>
+      <c r="C42" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="D42" s="102" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="126.9" x14ac:dyDescent="0.45">
+      <c r="A43" s="107" t="s">
+        <v>442</v>
+      </c>
+      <c r="B43" s="102" t="s">
+        <v>441</v>
+      </c>
+      <c r="C43" s="102" t="s">
+        <v>440</v>
+      </c>
+      <c r="D43" s="102" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="126.9" x14ac:dyDescent="0.45">
+      <c r="A44" s="107" t="s">
+        <v>445</v>
+      </c>
+      <c r="B44" s="102" t="s">
+        <v>444</v>
+      </c>
+      <c r="C44" s="102" t="s">
+        <v>443</v>
+      </c>
+      <c r="D44" s="102" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="112.8" x14ac:dyDescent="0.45">
+      <c r="A45" s="107" t="s">
+        <v>448</v>
+      </c>
+      <c r="B45" s="102" t="s">
+        <v>447</v>
+      </c>
+      <c r="C45" s="102" t="s">
+        <v>446</v>
+      </c>
+      <c r="D45" s="102" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="112.8" x14ac:dyDescent="0.45">
+      <c r="A46" s="107" t="s">
+        <v>451</v>
+      </c>
+      <c r="B46" s="102" t="s">
+        <v>450</v>
+      </c>
+      <c r="C46" s="102" t="s">
+        <v>449</v>
+      </c>
+      <c r="D46" s="112" t="s">
         <v>423</v>
       </c>
-      <c r="C23" s="103" t="s">
-        <v>422</v>
-      </c>
-      <c r="D23" s="114" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="110" t="s">
-        <v>428</v>
-      </c>
-      <c r="B24" s="103" t="s">
-        <v>427</v>
-      </c>
-      <c r="C24" s="103" t="s">
-        <v>426</v>
-      </c>
-      <c r="D24" s="103" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="216" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="110" t="s">
+    </row>
+    <row r="47" spans="1:4" ht="112.8" x14ac:dyDescent="0.45">
+      <c r="A47" s="106" t="s">
+        <v>454</v>
+      </c>
+      <c r="B47" s="102" t="s">
+        <v>453</v>
+      </c>
+      <c r="C47" s="102" t="s">
+        <v>452</v>
+      </c>
+      <c r="D47" s="107"/>
+    </row>
+    <row r="48" spans="1:4" ht="84.6" x14ac:dyDescent="0.45">
+      <c r="A48" s="107" t="s">
         <v>432</v>
       </c>
-      <c r="B25" s="103" t="s">
+      <c r="B48" s="102" t="s">
         <v>431</v>
       </c>
-      <c r="C25" s="115" t="s">
+      <c r="C48" s="102" t="s">
         <v>430</v>
       </c>
-      <c r="D25" s="103" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="110" t="s">
-        <v>436</v>
-      </c>
-      <c r="B26" s="103" t="s">
-        <v>435</v>
-      </c>
-      <c r="C26" s="103" t="s">
-        <v>434</v>
-      </c>
-      <c r="D26" s="103" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="109" t="s">
-        <v>440</v>
-      </c>
-      <c r="B27" s="103" t="s">
-        <v>439</v>
-      </c>
-      <c r="C27" s="103" t="s">
-        <v>438</v>
-      </c>
-      <c r="D27" s="103" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="109" t="s">
-        <v>443</v>
-      </c>
-      <c r="B28" s="103" t="s">
-        <v>442</v>
-      </c>
-      <c r="C28" s="103" t="s">
-        <v>441</v>
-      </c>
-      <c r="D28" s="103" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="109" t="s">
-        <v>446</v>
-      </c>
-      <c r="B29" s="103" t="s">
-        <v>445</v>
-      </c>
-      <c r="C29" s="103" t="s">
-        <v>444</v>
-      </c>
-      <c r="D29" s="103" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="127" t="s">
-        <v>447</v>
-      </c>
-      <c r="B33" s="127"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="111" t="s">
-        <v>361</v>
-      </c>
-      <c r="B34" s="111" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="67" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="67"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="67" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="113" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="113" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="113" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="259.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="110" t="s">
-        <v>452</v>
-      </c>
-      <c r="B42" s="103" t="s">
-        <v>451</v>
-      </c>
-      <c r="C42" s="103" t="s">
-        <v>450</v>
-      </c>
-      <c r="D42" s="103" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="110" t="s">
-        <v>456</v>
-      </c>
-      <c r="B43" s="103" t="s">
-        <v>455</v>
-      </c>
-      <c r="C43" s="103" t="s">
-        <v>454</v>
-      </c>
-      <c r="D43" s="103" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="110" t="s">
-        <v>459</v>
-      </c>
-      <c r="B44" s="103" t="s">
-        <v>458</v>
-      </c>
-      <c r="C44" s="103" t="s">
-        <v>457</v>
-      </c>
-      <c r="D44" s="103" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="110" t="s">
-        <v>462</v>
-      </c>
-      <c r="B45" s="103" t="s">
-        <v>461</v>
-      </c>
-      <c r="C45" s="103" t="s">
-        <v>460</v>
-      </c>
-      <c r="D45" s="103" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="110" t="s">
-        <v>465</v>
-      </c>
-      <c r="B46" s="103" t="s">
-        <v>464</v>
-      </c>
-      <c r="C46" s="103" t="s">
-        <v>463</v>
-      </c>
-      <c r="D46" s="115" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="109" t="s">
-        <v>468</v>
-      </c>
-      <c r="B47" s="103" t="s">
-        <v>467</v>
-      </c>
-      <c r="C47" s="103" t="s">
-        <v>466</v>
-      </c>
-      <c r="D47" s="110"/>
-    </row>
-    <row r="48" spans="1:4" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="110" t="s">
-        <v>446</v>
-      </c>
-      <c r="B48" s="103" t="s">
-        <v>445</v>
-      </c>
-      <c r="C48" s="103" t="s">
-        <v>444</v>
-      </c>
-      <c r="D48" s="103" t="s">
-        <v>415</v>
+      <c r="D48" s="102" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -8782,437 +9412,437 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="42.83984375" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.47265625" customWidth="1"/>
-    <col min="3" max="3" width="28.15625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="8.83984375" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="121"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="123"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="27" t="s">
+      <c r="B4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="127" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="129" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" s="129"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="108" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" s="108" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="66"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="56.4" x14ac:dyDescent="0.45">
+      <c r="A16" s="105" t="s">
+        <v>400</v>
+      </c>
+      <c r="B16" s="102" t="s">
+        <v>399</v>
+      </c>
+      <c r="C16" s="102" t="s">
+        <v>398</v>
+      </c>
+      <c r="D16" s="102" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.2" x14ac:dyDescent="0.45">
+      <c r="A17" s="105" t="s">
+        <v>404</v>
+      </c>
+      <c r="B17" s="102" t="s">
+        <v>403</v>
+      </c>
+      <c r="C17" s="102" t="s">
+        <v>402</v>
+      </c>
+      <c r="D17" s="102" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="129" t="s">
+        <v>405</v>
+      </c>
+      <c r="B21" s="129"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="108" t="s">
+        <v>357</v>
+      </c>
+      <c r="B22" s="108" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="66"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="183.3" x14ac:dyDescent="0.45">
+      <c r="A30" s="105" t="s">
+        <v>410</v>
+      </c>
+      <c r="B30" s="102" t="s">
         <v>409</v>
       </c>
-      <c r="B8" s="127"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="111" t="s">
-        <v>361</v>
-      </c>
-      <c r="B9" s="111" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="67" t="s">
+      <c r="C30" s="102" t="s">
+        <v>408</v>
+      </c>
+      <c r="D30" s="111" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="126.9" x14ac:dyDescent="0.45">
+      <c r="A31" s="105" t="s">
+        <v>414</v>
+      </c>
+      <c r="B31" s="102" t="s">
+        <v>413</v>
+      </c>
+      <c r="C31" s="102" t="s">
+        <v>412</v>
+      </c>
+      <c r="D31" s="102" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="155.1" x14ac:dyDescent="0.45">
+      <c r="A32" s="105" t="s">
+        <v>418</v>
+      </c>
+      <c r="B32" s="102" t="s">
+        <v>417</v>
+      </c>
+      <c r="C32" s="112" t="s">
+        <v>416</v>
+      </c>
+      <c r="D32" s="102" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="126.9" x14ac:dyDescent="0.45">
+      <c r="A33" s="105" t="s">
+        <v>422</v>
+      </c>
+      <c r="B33" s="102" t="s">
+        <v>421</v>
+      </c>
+      <c r="C33" s="102" t="s">
+        <v>420</v>
+      </c>
+      <c r="D33" s="102" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="408.9" x14ac:dyDescent="0.45">
+      <c r="A34" s="104" t="s">
+        <v>426</v>
+      </c>
+      <c r="B34" s="102" t="s">
+        <v>425</v>
+      </c>
+      <c r="C34" s="102" t="s">
+        <v>424</v>
+      </c>
+      <c r="D34" s="102" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="98.7" x14ac:dyDescent="0.45">
+      <c r="A35" s="104" t="s">
+        <v>429</v>
+      </c>
+      <c r="B35" s="102" t="s">
+        <v>428</v>
+      </c>
+      <c r="C35" s="102" t="s">
+        <v>427</v>
+      </c>
+      <c r="D35" s="102" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="56.4" x14ac:dyDescent="0.45">
+      <c r="A36" s="104" t="s">
+        <v>432</v>
+      </c>
+      <c r="B36" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="C36" s="102" t="s">
+        <v>430</v>
+      </c>
+      <c r="D36" s="102" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="38" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="130" t="s">
+        <v>433</v>
+      </c>
+      <c r="B38" s="131"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="108" t="s">
+        <v>434</v>
+      </c>
+      <c r="B39" s="108" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="67" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="67" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="66"/>
+      <c r="B41" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="67"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="67" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="B42" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="112" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="109" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="113" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="113" t="s">
+      <c r="B45" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="113" t="s">
+      <c r="C45" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="113" t="s">
+      <c r="D45" s="110" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="108" t="s">
-        <v>414</v>
-      </c>
-      <c r="B16" s="103" t="s">
-        <v>413</v>
-      </c>
-      <c r="C16" s="103" t="s">
-        <v>412</v>
-      </c>
-      <c r="D16" s="103" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="108" t="s">
-        <v>418</v>
-      </c>
-      <c r="B17" s="103" t="s">
-        <v>417</v>
-      </c>
-      <c r="C17" s="103" t="s">
-        <v>416</v>
-      </c>
-      <c r="D17" s="103" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="127" t="s">
-        <v>419</v>
-      </c>
-      <c r="B21" s="127"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="111" t="s">
-        <v>361</v>
-      </c>
-      <c r="B22" s="111" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="67" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="67"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="67" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="113" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="113" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="113" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="172.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="108" t="s">
-        <v>424</v>
-      </c>
-      <c r="B30" s="103" t="s">
+    <row r="46" spans="1:4" ht="183.3" x14ac:dyDescent="0.45">
+      <c r="A46" s="105" t="s">
+        <v>438</v>
+      </c>
+      <c r="B46" s="102" t="s">
+        <v>437</v>
+      </c>
+      <c r="C46" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="D46" s="102" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="126.9" x14ac:dyDescent="0.45">
+      <c r="A47" s="105" t="s">
+        <v>442</v>
+      </c>
+      <c r="B47" s="102" t="s">
+        <v>441</v>
+      </c>
+      <c r="C47" s="102" t="s">
+        <v>440</v>
+      </c>
+      <c r="D47" s="102" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="126.9" x14ac:dyDescent="0.45">
+      <c r="A48" s="105" t="s">
+        <v>445</v>
+      </c>
+      <c r="B48" s="102" t="s">
+        <v>444</v>
+      </c>
+      <c r="C48" s="102" t="s">
+        <v>443</v>
+      </c>
+      <c r="D48" s="102" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="112.8" x14ac:dyDescent="0.45">
+      <c r="A49" s="105" t="s">
+        <v>448</v>
+      </c>
+      <c r="B49" s="102" t="s">
+        <v>447</v>
+      </c>
+      <c r="C49" s="102" t="s">
+        <v>446</v>
+      </c>
+      <c r="D49" s="102" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="112.8" x14ac:dyDescent="0.45">
+      <c r="A50" s="105" t="s">
+        <v>451</v>
+      </c>
+      <c r="B50" s="102" t="s">
+        <v>450</v>
+      </c>
+      <c r="C50" s="102" t="s">
+        <v>449</v>
+      </c>
+      <c r="D50" s="112" t="s">
         <v>423</v>
       </c>
-      <c r="C30" s="103" t="s">
-        <v>422</v>
-      </c>
-      <c r="D30" s="114" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="108" t="s">
-        <v>428</v>
-      </c>
-      <c r="B31" s="103" t="s">
-        <v>427</v>
-      </c>
-      <c r="C31" s="103" t="s">
-        <v>426</v>
-      </c>
-      <c r="D31" s="103" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="108" t="s">
+    </row>
+    <row r="51" spans="1:4" ht="112.8" x14ac:dyDescent="0.45">
+      <c r="A51" s="104" t="s">
+        <v>454</v>
+      </c>
+      <c r="B51" s="102" t="s">
+        <v>453</v>
+      </c>
+      <c r="C51" s="102" t="s">
+        <v>452</v>
+      </c>
+      <c r="D51" s="105"/>
+    </row>
+    <row r="52" spans="1:4" ht="56.4" x14ac:dyDescent="0.45">
+      <c r="A52" s="105" t="s">
         <v>432</v>
       </c>
-      <c r="B32" s="103" t="s">
+      <c r="B52" s="102" t="s">
         <v>431</v>
       </c>
-      <c r="C32" s="115" t="s">
+      <c r="C52" s="102" t="s">
         <v>430</v>
       </c>
-      <c r="D32" s="103" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="108" t="s">
-        <v>436</v>
-      </c>
-      <c r="B33" s="103" t="s">
-        <v>435</v>
-      </c>
-      <c r="C33" s="103" t="s">
-        <v>434</v>
-      </c>
-      <c r="D33" s="103" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="107" t="s">
-        <v>440</v>
-      </c>
-      <c r="B34" s="103" t="s">
-        <v>439</v>
-      </c>
-      <c r="C34" s="103" t="s">
-        <v>438</v>
-      </c>
-      <c r="D34" s="103" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="B35" s="103" t="s">
-        <v>442</v>
-      </c>
-      <c r="C35" s="103" t="s">
-        <v>441</v>
-      </c>
-      <c r="D35" s="103" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="107" t="s">
-        <v>446</v>
-      </c>
-      <c r="B36" s="103" t="s">
-        <v>445</v>
-      </c>
-      <c r="C36" s="103" t="s">
-        <v>444</v>
-      </c>
-      <c r="D36" s="103" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="38" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A38" s="128" t="s">
-        <v>447</v>
-      </c>
-      <c r="B38" s="129"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="111" t="s">
-        <v>448</v>
-      </c>
-      <c r="B39" s="111" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" s="67" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="67"/>
-      <c r="B41" s="67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="67" t="s">
-        <v>410</v>
-      </c>
-      <c r="B42" s="67" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="113" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="113" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="113" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="187.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="108" t="s">
-        <v>452</v>
-      </c>
-      <c r="B46" s="103" t="s">
-        <v>451</v>
-      </c>
-      <c r="C46" s="103" t="s">
-        <v>450</v>
-      </c>
-      <c r="D46" s="103" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="108" t="s">
-        <v>456</v>
-      </c>
-      <c r="B47" s="103" t="s">
-        <v>455</v>
-      </c>
-      <c r="C47" s="103" t="s">
-        <v>454</v>
-      </c>
-      <c r="D47" s="103" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="108" t="s">
-        <v>459</v>
-      </c>
-      <c r="B48" s="103" t="s">
-        <v>458</v>
-      </c>
-      <c r="C48" s="103" t="s">
-        <v>457</v>
-      </c>
-      <c r="D48" s="103" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="108" t="s">
-        <v>462</v>
-      </c>
-      <c r="B49" s="103" t="s">
-        <v>461</v>
-      </c>
-      <c r="C49" s="103" t="s">
-        <v>460</v>
-      </c>
-      <c r="D49" s="103" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="108" t="s">
-        <v>465</v>
-      </c>
-      <c r="B50" s="103" t="s">
-        <v>464</v>
-      </c>
-      <c r="C50" s="103" t="s">
-        <v>463</v>
-      </c>
-      <c r="D50" s="115" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="107" t="s">
-        <v>468</v>
-      </c>
-      <c r="B51" s="103" t="s">
-        <v>467</v>
-      </c>
-      <c r="C51" s="103" t="s">
-        <v>466</v>
-      </c>
-      <c r="D51" s="108"/>
-    </row>
-    <row r="52" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="108" t="s">
-        <v>446</v>
-      </c>
-      <c r="B52" s="103" t="s">
-        <v>445</v>
-      </c>
-      <c r="C52" s="103" t="s">
-        <v>444</v>
-      </c>
-      <c r="D52" s="103" t="s">
-        <v>415</v>
+      <c r="D52" s="102" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment 1/G1_Acceptance.Ass.1.xlsx
+++ b/Assignment 1/G1_Acceptance.Ass.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25602" windowHeight="16002" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25602" windowHeight="16002" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Names | Group 1" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="574">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -3363,12 +3363,15 @@
   <si>
     <t>Tova</t>
   </si>
+  <si>
+    <t>Clinic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3476,14 +3479,6 @@
       <u/>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3876,7 +3871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4178,20 +4173,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4207,36 +4195,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4251,12 +4209,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4270,7 +4222,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4314,7 +4266,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4325,6 +4277,69 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4682,12 +4697,12 @@
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="114" customFormat="1" ht="22.2" x14ac:dyDescent="0.7">
-      <c r="A2" s="115" t="s">
+    <row r="2" spans="1:3" s="111" customFormat="1" ht="22.2" x14ac:dyDescent="0.7">
+      <c r="A2" s="112" t="s">
         <v>461</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="115"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="112"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
@@ -4729,7 +4744,7 @@
       <c r="B6" s="14">
         <v>200940997</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="110" t="s">
         <v>460</v>
       </c>
     </row>
@@ -4749,8 +4764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -4818,7 +4833,7 @@
       <c r="F4" s="18">
         <v>1001</v>
       </c>
-      <c r="G4" s="163" t="s">
+      <c r="G4" s="148" t="s">
         <v>131</v>
       </c>
       <c r="H4" s="18">
@@ -4847,7 +4862,7 @@
       <c r="F5" s="14">
         <v>1002</v>
       </c>
-      <c r="G5" s="164" t="s">
+      <c r="G5" s="149" t="s">
         <v>132</v>
       </c>
       <c r="H5" s="14">
@@ -4876,7 +4891,7 @@
       <c r="F6" s="14">
         <v>1003</v>
       </c>
-      <c r="G6" s="164" t="s">
+      <c r="G6" s="149" t="s">
         <v>133</v>
       </c>
       <c r="H6" s="14">
@@ -4905,7 +4920,7 @@
       <c r="F7" s="14">
         <v>1004</v>
       </c>
-      <c r="G7" s="164" t="s">
+      <c r="G7" s="149" t="s">
         <v>135</v>
       </c>
       <c r="H7" s="14">
@@ -4934,7 +4949,7 @@
       <c r="F8" s="14">
         <v>1005</v>
       </c>
-      <c r="G8" s="164" t="s">
+      <c r="G8" s="149" t="s">
         <v>136</v>
       </c>
       <c r="H8" s="14">
@@ -4963,7 +4978,7 @@
       <c r="F9" s="14">
         <v>1006</v>
       </c>
-      <c r="G9" s="164" t="s">
+      <c r="G9" s="149" t="s">
         <v>137</v>
       </c>
       <c r="H9" s="14">
@@ -4992,7 +5007,7 @@
       <c r="F10" s="14">
         <v>1007</v>
       </c>
-      <c r="G10" s="164" t="s">
+      <c r="G10" s="149" t="s">
         <v>134</v>
       </c>
       <c r="H10" s="14">
@@ -5021,7 +5036,7 @@
       <c r="F11" s="14">
         <v>1008</v>
       </c>
-      <c r="G11" s="164" t="s">
+      <c r="G11" s="149" t="s">
         <v>159</v>
       </c>
       <c r="H11" s="14">
@@ -5050,7 +5065,7 @@
       <c r="F12" s="14">
         <v>1009</v>
       </c>
-      <c r="G12" s="164" t="s">
+      <c r="G12" s="149" t="s">
         <v>160</v>
       </c>
       <c r="H12" s="14">
@@ -5079,7 +5094,7 @@
       <c r="F13" s="14">
         <v>1010</v>
       </c>
-      <c r="G13" s="164" t="s">
+      <c r="G13" s="149" t="s">
         <v>161</v>
       </c>
       <c r="H13" s="14">
@@ -5108,7 +5123,7 @@
       <c r="F14" s="14">
         <v>1011</v>
       </c>
-      <c r="G14" s="164" t="s">
+      <c r="G14" s="149" t="s">
         <v>162</v>
       </c>
       <c r="H14" s="14">
@@ -5137,7 +5152,7 @@
       <c r="F15" s="14">
         <v>1012</v>
       </c>
-      <c r="G15" s="164" t="s">
+      <c r="G15" s="149" t="s">
         <v>163</v>
       </c>
       <c r="H15" s="14">
@@ -5176,7 +5191,7 @@
       <c r="C20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="163" t="s">
+      <c r="D20" s="148" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5190,7 +5205,7 @@
       <c r="C21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="164" t="s">
+      <c r="D21" s="149" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5204,7 +5219,7 @@
       <c r="C22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="164" t="s">
+      <c r="D22" s="149" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5218,7 +5233,7 @@
       <c r="C23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="164" t="s">
+      <c r="D23" s="149" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6049,7 +6064,7 @@
       <c r="A109" s="50">
         <v>2001</v>
       </c>
-      <c r="B109" s="160" t="s">
+      <c r="B109" s="145" t="s">
         <v>565</v>
       </c>
     </row>
@@ -6057,7 +6072,7 @@
       <c r="A110" s="48">
         <v>2002</v>
       </c>
-      <c r="B110" s="161" t="s">
+      <c r="B110" s="146" t="s">
         <v>566</v>
       </c>
     </row>
@@ -6065,7 +6080,7 @@
       <c r="A111" s="48">
         <v>2003</v>
       </c>
-      <c r="B111" s="161" t="s">
+      <c r="B111" s="146" t="s">
         <v>567</v>
       </c>
     </row>
@@ -6073,7 +6088,7 @@
       <c r="A112" s="48">
         <v>2004</v>
       </c>
-      <c r="B112" s="161" t="s">
+      <c r="B112" s="146" t="s">
         <v>568</v>
       </c>
     </row>
@@ -6081,7 +6096,7 @@
       <c r="A113" s="48">
         <v>2005</v>
       </c>
-      <c r="B113" s="161" t="s">
+      <c r="B113" s="146" t="s">
         <v>569</v>
       </c>
     </row>
@@ -6089,7 +6104,7 @@
       <c r="A114" s="48">
         <v>2006</v>
       </c>
-      <c r="B114" s="161" t="s">
+      <c r="B114" s="146" t="s">
         <v>570</v>
       </c>
     </row>
@@ -6097,7 +6112,7 @@
       <c r="A115" s="48">
         <v>2007</v>
       </c>
-      <c r="B115" s="161" t="s">
+      <c r="B115" s="146" t="s">
         <v>571</v>
       </c>
     </row>
@@ -6105,7 +6120,7 @@
       <c r="A116" s="48">
         <v>2008</v>
       </c>
-      <c r="B116" s="162" t="s">
+      <c r="B116" s="147" t="s">
         <v>572</v>
       </c>
     </row>
@@ -6137,8 +6152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="A1:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -6150,10 +6165,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="123"/>
+      <c r="B1" s="151"/>
     </row>
     <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
@@ -6279,10 +6294,10 @@
     </row>
     <row r="16" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="122" t="s">
+      <c r="A17" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="123"/>
+      <c r="B17" s="151"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A18" s="25" t="s">
@@ -6461,10 +6476,10 @@
       <c r="D34" s="71"/>
     </row>
     <row r="35" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="122" t="s">
+      <c r="A35" s="150" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="123"/>
+      <c r="B35" s="151"/>
     </row>
     <row r="36" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A36" s="25" t="s">
@@ -6486,7 +6501,9 @@
       <c r="A38" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="22"/>
+      <c r="B38" s="22" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A39" s="26" t="s">
@@ -6601,10 +6618,10 @@
       <c r="D50" s="71"/>
     </row>
     <row r="51" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="122" t="s">
+      <c r="A51" s="150" t="s">
         <v>259</v>
       </c>
-      <c r="B51" s="123"/>
+      <c r="B51" s="151"/>
     </row>
     <row r="52" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A52" s="25" t="s">
@@ -6720,10 +6737,10 @@
     </row>
     <row r="65" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="66" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="122" t="s">
+      <c r="A66" s="150" t="s">
         <v>190</v>
       </c>
-      <c r="B66" s="123"/>
+      <c r="B66" s="151"/>
     </row>
     <row r="67" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A67" s="25" t="s">
@@ -6832,10 +6849,10 @@
     </row>
     <row r="79" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="80" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A80" s="122" t="s">
+      <c r="A80" s="150" t="s">
         <v>196</v>
       </c>
-      <c r="B80" s="123"/>
+      <c r="B80" s="151"/>
     </row>
     <row r="81" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A81" s="25" t="s">
@@ -6944,10 +6961,10 @@
     </row>
     <row r="93" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="94" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="122" t="s">
+      <c r="A94" s="150" t="s">
         <v>198</v>
       </c>
-      <c r="B94" s="123"/>
+      <c r="B94" s="151"/>
     </row>
     <row r="95" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A95" s="25" t="s">
@@ -7073,7 +7090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -7086,10 +7103,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="150" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="123"/>
+      <c r="B1" s="151"/>
     </row>
     <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
@@ -7184,7 +7201,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="154" t="s">
         <v>296</v>
       </c>
       <c r="B12" s="82" t="s">
@@ -7193,32 +7210,32 @@
       <c r="C12" s="84" t="s">
         <v>333</v>
       </c>
-      <c r="D12" s="125" t="s">
+      <c r="D12" s="153" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="127"/>
+      <c r="A13" s="155"/>
       <c r="B13" s="82" t="s">
         <v>297</v>
       </c>
       <c r="C13" s="82" t="s">
         <v>334</v>
       </c>
-      <c r="D13" s="125"/>
+      <c r="D13" s="153"/>
     </row>
     <row r="14" spans="1:4" ht="139.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="127"/>
+      <c r="A14" s="155"/>
       <c r="B14" s="84" t="s">
         <v>298</v>
       </c>
       <c r="C14" s="82" t="s">
         <v>336</v>
       </c>
-      <c r="D14" s="125"/>
+      <c r="D14" s="153"/>
     </row>
     <row r="15" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="124" t="s">
+      <c r="A15" s="152" t="s">
         <v>337</v>
       </c>
       <c r="B15" s="82" t="s">
@@ -7227,39 +7244,39 @@
       <c r="C15" s="84" t="s">
         <v>333</v>
       </c>
-      <c r="D15" s="125" t="s">
+      <c r="D15" s="153" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="97.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="124"/>
+      <c r="A16" s="152"/>
       <c r="B16" s="82" t="s">
         <v>300</v>
       </c>
       <c r="C16" s="82" t="s">
         <v>335</v>
       </c>
-      <c r="D16" s="125"/>
+      <c r="D16" s="153"/>
     </row>
     <row r="17" spans="1:4" ht="27.9" x14ac:dyDescent="0.45">
-      <c r="A17" s="124"/>
+      <c r="A17" s="152"/>
       <c r="B17" s="82" t="s">
         <v>301</v>
       </c>
       <c r="C17" s="85" t="s">
         <v>302</v>
       </c>
-      <c r="D17" s="125"/>
+      <c r="D17" s="153"/>
     </row>
     <row r="18" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="124"/>
+      <c r="A18" s="152"/>
       <c r="B18" s="82" t="s">
         <v>303</v>
       </c>
       <c r="C18" s="85" t="s">
         <v>304</v>
       </c>
-      <c r="D18" s="125"/>
+      <c r="D18" s="153"/>
     </row>
     <row r="19" spans="1:4" ht="56.1" x14ac:dyDescent="0.45">
       <c r="A19" s="81" t="s">
@@ -7332,8 +7349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="122" zoomScaleNormal="70" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -7345,10 +7362,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="123"/>
+      <c r="B1" s="151"/>
     </row>
     <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
@@ -7474,64 +7491,64 @@
     </row>
     <row r="16" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="137" t="s">
+      <c r="A17" s="156" t="s">
         <v>341</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A18" s="140" t="s">
+      <c r="A18" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="126" t="s">
         <v>342</v>
       </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
     </row>
     <row r="19" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A19" s="142" t="s">
+      <c r="A19" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="143" t="s">
+      <c r="B19" s="128" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
     </row>
     <row r="20" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A20" s="142" t="s">
+      <c r="A20" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="143"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
     </row>
     <row r="21" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A21" s="142" t="s">
+      <c r="A21" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="144" t="s">
+      <c r="B21" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="139"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
+      <c r="A22" s="124"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
     </row>
     <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A23" s="145" t="s">
+      <c r="A23" s="130" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="146"/>
+      <c r="D23" s="131"/>
     </row>
     <row r="24" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="30" t="s">
@@ -7548,72 +7565,72 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="69" x14ac:dyDescent="0.45">
-      <c r="A25" s="147" t="s">
+      <c r="A25" s="132" t="s">
         <v>343</v>
       </c>
-      <c r="B25" s="148" t="s">
+      <c r="B25" s="133" t="s">
         <v>520</v>
       </c>
-      <c r="C25" s="148" t="s">
+      <c r="C25" s="133" t="s">
         <v>521</v>
       </c>
-      <c r="D25" s="149" t="s">
+      <c r="D25" s="134" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="69" x14ac:dyDescent="0.45">
-      <c r="A26" s="147" t="s">
+      <c r="A26" s="132" t="s">
         <v>343</v>
       </c>
-      <c r="B26" s="148" t="s">
+      <c r="B26" s="133" t="s">
         <v>522</v>
       </c>
-      <c r="C26" s="148" t="s">
+      <c r="C26" s="133" t="s">
         <v>521</v>
       </c>
-      <c r="D26" s="149" t="s">
+      <c r="D26" s="134" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="69" x14ac:dyDescent="0.45">
-      <c r="A27" s="147" t="s">
+      <c r="A27" s="132" t="s">
         <v>343</v>
       </c>
-      <c r="B27" s="148" t="s">
+      <c r="B27" s="133" t="s">
         <v>523</v>
       </c>
-      <c r="C27" s="148" t="s">
+      <c r="C27" s="133" t="s">
         <v>521</v>
       </c>
-      <c r="D27" s="149" t="s">
+      <c r="D27" s="134" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="82.8" x14ac:dyDescent="0.45">
-      <c r="A28" s="150" t="s">
+      <c r="A28" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="151" t="s">
+      <c r="B28" s="136" t="s">
         <v>524</v>
       </c>
-      <c r="C28" s="151" t="s">
+      <c r="C28" s="136" t="s">
         <v>525</v>
       </c>
-      <c r="D28" s="152" t="s">
+      <c r="D28" s="137" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="150" t="s">
+      <c r="A29" s="135" t="s">
         <v>526</v>
       </c>
-      <c r="B29" s="151" t="s">
+      <c r="B29" s="136" t="s">
         <v>527</v>
       </c>
-      <c r="C29" s="151" t="s">
+      <c r="C29" s="136" t="s">
         <v>528</v>
       </c>
-      <c r="D29" s="152" t="s">
+      <c r="D29" s="137" t="s">
         <v>529</v>
       </c>
     </row>
@@ -7633,10 +7650,10 @@
     </row>
     <row r="32" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="33" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="122" t="s">
+      <c r="A33" s="150" t="s">
         <v>345</v>
       </c>
-      <c r="B33" s="123"/>
+      <c r="B33" s="151"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A34" s="25" t="s">
@@ -7734,10 +7751,10 @@
     </row>
     <row r="44" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="45" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="122" t="s">
+      <c r="A45" s="150" t="s">
         <v>462</v>
       </c>
-      <c r="B45" s="123"/>
+      <c r="B45" s="151"/>
     </row>
     <row r="46" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A46" s="25" t="s">
@@ -7843,10 +7860,10 @@
     </row>
     <row r="58" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="59" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="122" t="s">
+      <c r="A59" s="150" t="s">
         <v>472</v>
       </c>
-      <c r="B59" s="123"/>
+      <c r="B59" s="151"/>
     </row>
     <row r="60" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A60" s="25" t="s">
@@ -7951,7 +7968,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="118" t="s">
+      <c r="A71" s="115" t="s">
         <v>483</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -7965,25 +7982,25 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="119" t="s">
+      <c r="A72" s="116" t="s">
         <v>487</v>
       </c>
-      <c r="B72" s="120" t="s">
+      <c r="B72" s="117" t="s">
         <v>488</v>
       </c>
-      <c r="C72" s="120" t="s">
+      <c r="C72" s="117" t="s">
         <v>489</v>
       </c>
-      <c r="D72" s="121" t="s">
+      <c r="D72" s="118" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="75" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="122" t="s">
+      <c r="A75" s="150" t="s">
         <v>491</v>
       </c>
-      <c r="B75" s="123"/>
+      <c r="B75" s="151"/>
     </row>
     <row r="76" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A76" s="25" t="s">
@@ -8005,7 +8022,9 @@
       <c r="A78" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="22"/>
+      <c r="B78" s="22" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="79" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A79" s="26" t="s">
@@ -8088,7 +8107,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="110.7" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A87" s="118" t="s">
+      <c r="A87" s="115" t="s">
         <v>502</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -8103,10 +8122,10 @@
     </row>
     <row r="89" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="90" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A90" s="122" t="s">
+      <c r="A90" s="150" t="s">
         <v>531</v>
       </c>
-      <c r="B90" s="123"/>
+      <c r="B90" s="151"/>
     </row>
     <row r="91" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A91" s="25" t="s">
@@ -8212,10 +8231,10 @@
     </row>
     <row r="103" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="104" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A104" s="122" t="s">
+      <c r="A104" s="150" t="s">
         <v>541</v>
       </c>
-      <c r="B104" s="123"/>
+      <c r="B104" s="151"/>
     </row>
     <row r="105" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A105" s="25" t="s">
@@ -8247,8 +8266,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="159" customFormat="1" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A109" s="158"/>
+    <row r="109" spans="1:4" s="144" customFormat="1" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A109" s="143"/>
       <c r="B109" s="74"/>
     </row>
     <row r="111" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
@@ -8317,10 +8336,10 @@
     </row>
     <row r="117" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="118" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A118" s="122" t="s">
+      <c r="A118" s="150" t="s">
         <v>551</v>
       </c>
-      <c r="B118" s="123"/>
+      <c r="B118" s="151"/>
     </row>
     <row r="119" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A119" s="25" t="s">
@@ -8342,7 +8361,9 @@
       <c r="A121" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B121" s="22"/>
+      <c r="B121" s="22" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="122" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A122" s="26" t="s">
@@ -8375,37 +8396,37 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A127" s="153" t="s">
+      <c r="A127" s="138" t="s">
         <v>553</v>
       </c>
-      <c r="B127" s="154" t="s">
+      <c r="B127" s="139" t="s">
         <v>554</v>
       </c>
-      <c r="C127" s="154" t="s">
+      <c r="C127" s="139" t="s">
         <v>555</v>
       </c>
-      <c r="D127" s="155" t="s">
+      <c r="D127" s="140" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A128" s="117" t="s">
+      <c r="A128" s="114" t="s">
         <v>557</v>
       </c>
-      <c r="B128" s="156"/>
-      <c r="C128" s="156" t="s">
+      <c r="B128" s="141"/>
+      <c r="C128" s="141" t="s">
         <v>558</v>
       </c>
-      <c r="D128" s="157" t="s">
+      <c r="D128" s="142" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="131" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A131" s="122" t="s">
+      <c r="A131" s="150" t="s">
         <v>560</v>
       </c>
-      <c r="B131" s="123"/>
+      <c r="B131" s="151"/>
     </row>
     <row r="132" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A132" s="25" t="s">
@@ -8427,7 +8448,9 @@
       <c r="A134" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B134" s="22"/>
+      <c r="B134" s="22" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="135" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A135" s="26" t="s">
@@ -8460,28 +8483,28 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A139" s="153" t="s">
+      <c r="A139" s="138" t="s">
         <v>553</v>
       </c>
-      <c r="B139" s="154" t="s">
+      <c r="B139" s="139" t="s">
         <v>554</v>
       </c>
-      <c r="C139" s="154" t="s">
+      <c r="C139" s="139" t="s">
         <v>555</v>
       </c>
-      <c r="D139" s="155" t="s">
+      <c r="D139" s="140" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A140" s="117" t="s">
+      <c r="A140" s="114" t="s">
         <v>557</v>
       </c>
-      <c r="B140" s="156"/>
-      <c r="C140" s="156" t="s">
+      <c r="B140" s="141"/>
+      <c r="C140" s="141" t="s">
         <v>558</v>
       </c>
-      <c r="D140" s="157" t="s">
+      <c r="D140" s="142" t="s">
         <v>559</v>
       </c>
     </row>
@@ -8507,8 +8530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="B13:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -8520,10 +8543,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="158" t="s">
         <v>356</v>
       </c>
-      <c r="B1" s="128"/>
+      <c r="B1" s="158"/>
     </row>
     <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A2" s="94" t="s">
@@ -8620,7 +8643,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="114" t="s">
         <v>514</v>
       </c>
       <c r="B13" s="84"/>
@@ -8628,7 +8651,7 @@
       <c r="D13" s="86"/>
     </row>
     <row r="14" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="114" t="s">
         <v>515</v>
       </c>
       <c r="B14" s="84"/>
@@ -8636,7 +8659,7 @@
       <c r="D14" s="86"/>
     </row>
     <row r="15" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="114" t="s">
         <v>516</v>
       </c>
       <c r="B15" s="84"/>
@@ -8644,7 +8667,7 @@
       <c r="D15" s="86"/>
     </row>
     <row r="16" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="114" t="s">
         <v>517</v>
       </c>
       <c r="B16" s="84"/>
@@ -8652,7 +8675,7 @@
       <c r="D16" s="86"/>
     </row>
     <row r="17" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="114" t="s">
         <v>519</v>
       </c>
       <c r="B17" s="84"/>
@@ -8660,7 +8683,7 @@
       <c r="D17" s="86"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="114" t="s">
         <v>518</v>
       </c>
       <c r="B18" s="84"/>
@@ -8682,10 +8705,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A22" s="128" t="s">
+      <c r="A22" s="158" t="s">
         <v>368</v>
       </c>
-      <c r="B22" s="128"/>
+      <c r="B22" s="158"/>
     </row>
     <row r="23" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A23" s="94" t="s">
@@ -8743,13 +8766,13 @@
       <c r="A31" s="93" t="s">
         <v>508</v>
       </c>
-      <c r="B31" s="133" t="s">
+      <c r="B31" s="120" t="s">
         <v>371</v>
       </c>
       <c r="C31" s="99" t="s">
         <v>372</v>
       </c>
-      <c r="D31" s="134" t="s">
+      <c r="D31" s="121" t="s">
         <v>373</v>
       </c>
     </row>
@@ -8757,7 +8780,7 @@
       <c r="A32" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="132" t="s">
+      <c r="B32" s="119" t="s">
         <v>374</v>
       </c>
       <c r="C32" s="99" t="s">
@@ -8799,7 +8822,7 @@
       <c r="A39" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="135" t="s">
+      <c r="B39" s="122" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8882,10 +8905,10 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A49" s="128" t="s">
+      <c r="A49" s="158" t="s">
         <v>385</v>
       </c>
-      <c r="B49" s="128"/>
+      <c r="B49" s="158"/>
     </row>
     <row r="50" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A50" s="94" t="s">
@@ -8913,7 +8936,7 @@
       <c r="A53" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="136" t="s">
+      <c r="B53" s="123" t="s">
         <v>376</v>
       </c>
     </row>
@@ -8995,8 +9018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="200" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -9008,10 +9031,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="168" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="129"/>
+      <c r="B1" s="168"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="108" t="s">
@@ -9039,62 +9062,62 @@
       <c r="A5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="103" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="109" t="s">
+    <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="110" t="s">
+      <c r="D9" s="109" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="56.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
       <c r="A10" s="107" t="s">
         <v>400</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="89" t="s">
         <v>399</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="89" t="s">
         <v>398</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="89" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
       <c r="A11" s="107" t="s">
         <v>404</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="89" t="s">
         <v>403</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="89" t="s">
         <v>402</v>
       </c>
-      <c r="D11" s="102" t="s">
+      <c r="D11" s="89" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="168" t="s">
         <v>405</v>
       </c>
-      <c r="B14" s="129"/>
+      <c r="B14" s="168"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="108" t="s">
@@ -9122,82 +9145,82 @@
       <c r="A18" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="103" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="109" t="s">
+    <row r="21" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="110" t="s">
+      <c r="A22" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="110" t="s">
+      <c r="C22" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="110" t="s">
+      <c r="D22" s="109" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="239.7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="220.8" x14ac:dyDescent="0.45">
       <c r="A23" s="107" t="s">
         <v>410</v>
       </c>
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="161" t="s">
         <v>409</v>
       </c>
-      <c r="C23" s="102" t="s">
+      <c r="C23" s="161" t="s">
         <v>408</v>
       </c>
-      <c r="D23" s="111" t="s">
+      <c r="D23" s="161" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="141" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
       <c r="A24" s="107" t="s">
         <v>414</v>
       </c>
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="161" t="s">
         <v>413</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="161" t="s">
         <v>412</v>
       </c>
-      <c r="D24" s="102" t="s">
+      <c r="D24" s="161" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="211.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="193.2" x14ac:dyDescent="0.45">
       <c r="A25" s="107" t="s">
         <v>418</v>
       </c>
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="161" t="s">
         <v>417</v>
       </c>
-      <c r="C25" s="112" t="s">
+      <c r="C25" s="162" t="s">
         <v>416</v>
       </c>
-      <c r="D25" s="102" t="s">
+      <c r="D25" s="161" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="141" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
       <c r="A26" s="107" t="s">
         <v>422</v>
       </c>
-      <c r="B26" s="102" t="s">
+      <c r="B26" s="161" t="s">
         <v>421</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="161" t="s">
         <v>420</v>
       </c>
-      <c r="D26" s="102" t="s">
+      <c r="D26" s="161" t="s">
         <v>419</v>
       </c>
     </row>
@@ -9205,49 +9228,49 @@
       <c r="A27" s="106" t="s">
         <v>426</v>
       </c>
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="161" t="s">
         <v>425</v>
       </c>
-      <c r="C27" s="102" t="s">
+      <c r="C27" s="161" t="s">
         <v>424</v>
       </c>
-      <c r="D27" s="102" t="s">
+      <c r="D27" s="161" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="98.7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="96.6" x14ac:dyDescent="0.45">
       <c r="A28" s="106" t="s">
         <v>429</v>
       </c>
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="161" t="s">
         <v>428</v>
       </c>
-      <c r="C28" s="102" t="s">
+      <c r="C28" s="161" t="s">
         <v>427</v>
       </c>
-      <c r="D28" s="102" t="s">
+      <c r="D28" s="161" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="84.6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
       <c r="A29" s="106" t="s">
         <v>432</v>
       </c>
-      <c r="B29" s="102" t="s">
+      <c r="B29" s="161" t="s">
         <v>431</v>
       </c>
-      <c r="C29" s="102" t="s">
+      <c r="C29" s="161" t="s">
         <v>430</v>
       </c>
-      <c r="D29" s="102" t="s">
+      <c r="D29" s="161" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="129" t="s">
+      <c r="A33" s="159" t="s">
         <v>433</v>
       </c>
-      <c r="B33" s="129"/>
+      <c r="B33" s="159"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="108" t="s">
@@ -9275,122 +9298,122 @@
       <c r="A37" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="103" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" s="109" t="s">
+    <row r="40" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="110" t="s">
+      <c r="B41" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="110" t="s">
+      <c r="C41" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="110" t="s">
+      <c r="D41" s="109" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="267.89999999999998" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="248.4" x14ac:dyDescent="0.45">
       <c r="A42" s="107" t="s">
         <v>438</v>
       </c>
-      <c r="B42" s="102" t="s">
+      <c r="B42" s="89" t="s">
         <v>437</v>
       </c>
-      <c r="C42" s="102" t="s">
+      <c r="C42" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="D42" s="102" t="s">
+      <c r="D42" s="89" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="126.9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
       <c r="A43" s="107" t="s">
         <v>442</v>
       </c>
-      <c r="B43" s="102" t="s">
+      <c r="B43" s="89" t="s">
         <v>441</v>
       </c>
-      <c r="C43" s="102" t="s">
+      <c r="C43" s="89" t="s">
         <v>440</v>
       </c>
-      <c r="D43" s="102" t="s">
+      <c r="D43" s="89" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="126.9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
       <c r="A44" s="107" t="s">
         <v>445</v>
       </c>
-      <c r="B44" s="102" t="s">
+      <c r="B44" s="89" t="s">
         <v>444</v>
       </c>
-      <c r="C44" s="102" t="s">
+      <c r="C44" s="89" t="s">
         <v>443</v>
       </c>
-      <c r="D44" s="102" t="s">
+      <c r="D44" s="89" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="112.8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A45" s="107" t="s">
         <v>448</v>
       </c>
-      <c r="B45" s="102" t="s">
+      <c r="B45" s="89" t="s">
         <v>447</v>
       </c>
-      <c r="C45" s="102" t="s">
+      <c r="C45" s="89" t="s">
         <v>446</v>
       </c>
-      <c r="D45" s="102" t="s">
+      <c r="D45" s="89" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="112.8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A46" s="107" t="s">
         <v>451</v>
       </c>
-      <c r="B46" s="102" t="s">
+      <c r="B46" s="89" t="s">
         <v>450</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="89" t="s">
         <v>449</v>
       </c>
-      <c r="D46" s="112" t="s">
+      <c r="D46" s="166" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="112.8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A47" s="106" t="s">
         <v>454</v>
       </c>
-      <c r="B47" s="102" t="s">
+      <c r="B47" s="89" t="s">
         <v>453</v>
       </c>
-      <c r="C47" s="102" t="s">
+      <c r="C47" s="89" t="s">
         <v>452</v>
       </c>
-      <c r="D47" s="107"/>
-    </row>
-    <row r="48" spans="1:4" ht="84.6" x14ac:dyDescent="0.45">
+      <c r="D47" s="167"/>
+    </row>
+    <row r="48" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
       <c r="A48" s="107" t="s">
         <v>432</v>
       </c>
-      <c r="B48" s="102" t="s">
+      <c r="B48" s="89" t="s">
         <v>431</v>
       </c>
-      <c r="C48" s="102" t="s">
+      <c r="C48" s="89" t="s">
         <v>430</v>
       </c>
-      <c r="D48" s="102" t="s">
+      <c r="D48" s="89" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9408,8 +9431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -9422,10 +9445,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="123"/>
+      <c r="B1" s="151"/>
     </row>
     <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
@@ -9458,10 +9481,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="159" t="s">
         <v>395</v>
       </c>
-      <c r="B8" s="129"/>
+      <c r="B8" s="159"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="108" t="s">
@@ -9489,62 +9512,62 @@
       <c r="A12" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="103" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="109" t="s">
+    <row r="14" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="109" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="56.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
       <c r="A16" s="105" t="s">
         <v>400</v>
       </c>
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="161" t="s">
         <v>399</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="161" t="s">
         <v>398</v>
       </c>
-      <c r="D16" s="102" t="s">
+      <c r="D16" s="160" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
       <c r="A17" s="105" t="s">
         <v>404</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="161" t="s">
         <v>403</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="161" t="s">
         <v>402</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="160" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="129" t="s">
+      <c r="A21" s="168" t="s">
         <v>405</v>
       </c>
-      <c r="B21" s="129"/>
+      <c r="B21" s="168"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="108" t="s">
@@ -9572,276 +9595,280 @@
       <c r="A25" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="103" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="109" t="s">
+    <row r="28" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="110" t="s">
+      <c r="C29" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="110" t="s">
+      <c r="D29" s="109" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="183.3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.45">
       <c r="A30" s="105" t="s">
         <v>410</v>
       </c>
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="161" t="s">
         <v>409</v>
       </c>
-      <c r="C30" s="102" t="s">
+      <c r="C30" s="161" t="s">
         <v>408</v>
       </c>
-      <c r="D30" s="111" t="s">
+      <c r="D30" s="161" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="126.9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A31" s="105" t="s">
         <v>414</v>
       </c>
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="161" t="s">
         <v>413</v>
       </c>
-      <c r="C31" s="102" t="s">
+      <c r="C31" s="161" t="s">
         <v>412</v>
       </c>
-      <c r="D31" s="102" t="s">
+      <c r="D31" s="161" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="155.1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
       <c r="A32" s="105" t="s">
         <v>418</v>
       </c>
-      <c r="B32" s="102" t="s">
+      <c r="B32" s="161" t="s">
         <v>417</v>
       </c>
-      <c r="C32" s="112" t="s">
+      <c r="C32" s="162" t="s">
         <v>416</v>
       </c>
-      <c r="D32" s="102" t="s">
+      <c r="D32" s="161" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="126.9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A33" s="105" t="s">
         <v>422</v>
       </c>
-      <c r="B33" s="102" t="s">
+      <c r="B33" s="161" t="s">
         <v>421</v>
       </c>
-      <c r="C33" s="102" t="s">
+      <c r="C33" s="161" t="s">
         <v>420</v>
       </c>
-      <c r="D33" s="102" t="s">
+      <c r="D33" s="161" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="408.9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="358.8" x14ac:dyDescent="0.45">
       <c r="A34" s="104" t="s">
         <v>426</v>
       </c>
-      <c r="B34" s="102" t="s">
+      <c r="B34" s="161" t="s">
         <v>425</v>
       </c>
-      <c r="C34" s="102" t="s">
+      <c r="C34" s="161" t="s">
         <v>424</v>
       </c>
-      <c r="D34" s="102" t="s">
+      <c r="D34" s="161" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="98.7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="82.8" x14ac:dyDescent="0.45">
       <c r="A35" s="104" t="s">
         <v>429</v>
       </c>
-      <c r="B35" s="102" t="s">
+      <c r="B35" s="161" t="s">
         <v>428</v>
       </c>
-      <c r="C35" s="102" t="s">
+      <c r="C35" s="161" t="s">
         <v>427</v>
       </c>
-      <c r="D35" s="102" t="s">
+      <c r="D35" s="161" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="56.4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
       <c r="A36" s="104" t="s">
         <v>432</v>
       </c>
-      <c r="B36" s="102" t="s">
+      <c r="B36" s="161" t="s">
         <v>431</v>
       </c>
-      <c r="C36" s="102" t="s">
+      <c r="C36" s="161" t="s">
         <v>430</v>
       </c>
-      <c r="D36" s="102" t="s">
+      <c r="D36" s="161" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="38" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="130" t="s">
+      <c r="A38" s="169" t="s">
         <v>433</v>
       </c>
-      <c r="B38" s="131"/>
+      <c r="B38" s="170"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="108" t="s">
+        <v>357</v>
+      </c>
+      <c r="B39" s="108" t="s">
         <v>434</v>
       </c>
-      <c r="B39" s="108" t="s">
-        <v>357</v>
-      </c>
+      <c r="C39" s="108"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="66" t="s">
-        <v>1</v>
-      </c>
+      <c r="C40" s="66"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" s="66"/>
-      <c r="B41" s="66" t="s">
+      <c r="A41" s="66" t="s">
         <v>2</v>
       </c>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="103" t="s">
         <v>396</v>
       </c>
-      <c r="B42" s="66" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" s="109" t="s">
+      <c r="C42" s="66"/>
+    </row>
+    <row r="44" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" s="110" t="s">
+      <c r="A45" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="110" t="s">
+      <c r="B45" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="110" t="s">
+      <c r="C45" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="110" t="s">
+      <c r="D45" s="109" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="183.3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="165.6" x14ac:dyDescent="0.45">
       <c r="A46" s="105" t="s">
         <v>438</v>
       </c>
-      <c r="B46" s="102" t="s">
+      <c r="B46" s="163" t="s">
         <v>437</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="163" t="s">
         <v>436</v>
       </c>
-      <c r="D46" s="102" t="s">
+      <c r="D46" s="163" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="126.9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A47" s="105" t="s">
         <v>442</v>
       </c>
-      <c r="B47" s="102" t="s">
+      <c r="B47" s="163" t="s">
         <v>441</v>
       </c>
-      <c r="C47" s="102" t="s">
+      <c r="C47" s="163" t="s">
         <v>440</v>
       </c>
-      <c r="D47" s="102" t="s">
+      <c r="D47" s="163" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="126.9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A48" s="105" t="s">
         <v>445</v>
       </c>
-      <c r="B48" s="102" t="s">
+      <c r="B48" s="163" t="s">
         <v>444</v>
       </c>
-      <c r="C48" s="102" t="s">
+      <c r="C48" s="163" t="s">
         <v>443</v>
       </c>
-      <c r="D48" s="102" t="s">
+      <c r="D48" s="163" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="112.8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" ht="96.6" x14ac:dyDescent="0.45">
       <c r="A49" s="105" t="s">
         <v>448</v>
       </c>
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="163" t="s">
         <v>447</v>
       </c>
-      <c r="C49" s="102" t="s">
+      <c r="C49" s="163" t="s">
         <v>446</v>
       </c>
-      <c r="D49" s="102" t="s">
+      <c r="D49" s="163" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="112.8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" ht="96.6" x14ac:dyDescent="0.45">
       <c r="A50" s="105" t="s">
         <v>451</v>
       </c>
-      <c r="B50" s="102" t="s">
+      <c r="B50" s="163" t="s">
         <v>450</v>
       </c>
-      <c r="C50" s="102" t="s">
+      <c r="C50" s="163" t="s">
         <v>449</v>
       </c>
-      <c r="D50" s="112" t="s">
+      <c r="D50" s="164" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="112.8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" ht="96.6" x14ac:dyDescent="0.45">
       <c r="A51" s="104" t="s">
         <v>454</v>
       </c>
-      <c r="B51" s="102" t="s">
+      <c r="B51" s="163" t="s">
         <v>453</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="163" t="s">
         <v>452</v>
       </c>
-      <c r="D51" s="105"/>
-    </row>
-    <row r="52" spans="1:4" ht="56.4" x14ac:dyDescent="0.45">
+      <c r="D51" s="165"/>
+    </row>
+    <row r="52" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
       <c r="A52" s="105" t="s">
         <v>432</v>
       </c>
-      <c r="B52" s="102" t="s">
+      <c r="B52" s="163" t="s">
         <v>431</v>
       </c>
-      <c r="C52" s="102" t="s">
+      <c r="C52" s="163" t="s">
         <v>430</v>
       </c>
-      <c r="D52" s="102" t="s">
+      <c r="D52" s="163" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9853,5 +9880,6 @@
     <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assignment 1/G1_Acceptance.Ass.1.xlsx
+++ b/Assignment 1/G1_Acceptance.Ass.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25602" windowHeight="16002" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25602" windowHeight="16002" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Names | Group 1" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="592">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -2481,19 +2481,6 @@
   </si>
   <si>
     <t>Reference not in DB</t>
-  </si>
-  <si>
-    <t>Open "Insert Reference Details" Window
-Type Patient ID: 302632195
-Type Specialist ID: 8888
-Type Date : 
-Click OK button</t>
-  </si>
-  <si>
-    <t>System checks that all required 
-fields are filled.System reports that the field Type Date is missing.
-System ask to fill the missing field
-and try again.</t>
   </si>
   <si>
     <t>Missing Required Fields</t>
@@ -3365,6 +3352,114 @@
   </si>
   <si>
     <t>Clinic</t>
+  </si>
+  <si>
+    <t>Open "Insert Reference Details" Window
+Type Patient ID: 302632195
+Type Specialist ID: 1004
+Type Date : 
+Click OK button</t>
+  </si>
+  <si>
+    <t>Open "Insert Reference Details" Window
+Type Patient ID: 
+Type Specialist ID: 1004
+Type Date : 1.7.16
+Click OK button</t>
+  </si>
+  <si>
+    <t>System checks that all required 
+fields are filled.System reports that the field Type Date is missing.
+System ask to fill the missing field Reference Date,
+and try again.</t>
+  </si>
+  <si>
+    <t>System checks that all required 
+fields are filled.System reports that the field Type ID is missing.
+System ask to fill the missing field Reference ID,
+and try again.</t>
+  </si>
+  <si>
+    <t>Missing Required Field Referemce Date</t>
+  </si>
+  <si>
+    <t>Open "Insert Reference Details" Window
+Type Patient ID: 302632195
+Type Specialist ID: 
+Type Date : 1.7.16
+Click OK button</t>
+  </si>
+  <si>
+    <t>System checks that all required 
+fields are filled.System reports that the field Type Specialist ID is missing.
+System ask to fill the missing field Specialist ID,
+and try again.</t>
+  </si>
+  <si>
+    <t>Open "Insert Reference Details" Window
+Type Patient ID: 
+Type Specialist ID: 1004
+Type Date : 
+Click OK button</t>
+  </si>
+  <si>
+    <t>Open "Insert Reference Details" Window
+Type Patient ID: 
+Type Specialist ID: 
+Type Date : 1.7.16
+Click OK button</t>
+  </si>
+  <si>
+    <t>Open "Insert Reference Details" Window
+Type Patient ID: 302632195
+Type Specialist ID: 
+Type Date : 
+Click OK button</t>
+  </si>
+  <si>
+    <t>Open "Insert Reference Details" Window
+Type Patient ID: 
+Type Specialist ID: 
+Type Date :
+Click OK button</t>
+  </si>
+  <si>
+    <t>Missing Required Field Client's ID</t>
+  </si>
+  <si>
+    <t>Missing Required Field Specialist ID</t>
+  </si>
+  <si>
+    <t>Missing Required Fields Specialist ID And Client's ID</t>
+  </si>
+  <si>
+    <t>Missing Required Fields Specialist ID And Reference Date</t>
+  </si>
+  <si>
+    <t>Missing all required fields.</t>
+  </si>
+  <si>
+    <t>System checks that all required 
+fields are filled.System reports that the fields Type client's ID and reference date are missing.
+System ask to fill the missing field client's ID and reference date
+and try again.</t>
+  </si>
+  <si>
+    <t>System checks that all required 
+fields are filled.System reports that the fields Type specialist ID and reference date are missing.
+System ask to fill the missing field specialist ID and reference date
+and try again.</t>
+  </si>
+  <si>
+    <t>System checks that all required 
+fields are filled.System reports that the fields Type specialist ID and client's ID are missing.
+System ask to fill the missing field specialist ID and client's ID 
+and try again.</t>
+  </si>
+  <si>
+    <t>System checks that all required 
+fields are filled.System reports that the fields Type Specialist ID, reference date and client's ID are missing.
+System ask to fill the missing required fields.</t>
   </si>
 </sst>
 </file>
@@ -4278,6 +4373,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4305,34 +4424,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4699,7 +4794,7 @@
   <sheetData>
     <row r="2" spans="1:3" s="111" customFormat="1" ht="22.2" x14ac:dyDescent="0.7">
       <c r="A2" s="112" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B2" s="113"/>
       <c r="C2" s="112"/>
@@ -4712,18 +4807,18 @@
         <v>302632195</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B4" s="14">
         <v>312143969</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -4734,18 +4829,18 @@
         <v>305003659</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B6" s="14">
         <v>200940997</v>
       </c>
       <c r="C6" s="110" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -6049,15 +6144,15 @@
     </row>
     <row r="107" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A107" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A108" s="44" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B108" s="44" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
@@ -6065,7 +6160,7 @@
         <v>2001</v>
       </c>
       <c r="B109" s="145" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
@@ -6073,7 +6168,7 @@
         <v>2002</v>
       </c>
       <c r="B110" s="146" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
@@ -6081,7 +6176,7 @@
         <v>2003</v>
       </c>
       <c r="B111" s="146" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
@@ -6089,7 +6184,7 @@
         <v>2004</v>
       </c>
       <c r="B112" s="146" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -6097,7 +6192,7 @@
         <v>2005</v>
       </c>
       <c r="B113" s="146" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
@@ -6105,7 +6200,7 @@
         <v>2006</v>
       </c>
       <c r="B114" s="146" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
@@ -6113,7 +6208,7 @@
         <v>2007</v>
       </c>
       <c r="B115" s="146" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
@@ -6121,7 +6216,7 @@
         <v>2008</v>
       </c>
       <c r="B116" s="147" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -6152,8 +6247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -6165,10 +6260,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="151"/>
+      <c r="B1" s="159"/>
     </row>
     <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
@@ -6294,10 +6389,10 @@
     </row>
     <row r="16" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="150" t="s">
+      <c r="A17" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="151"/>
+      <c r="B17" s="159"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A18" s="25" t="s">
@@ -6476,10 +6571,10 @@
       <c r="D34" s="71"/>
     </row>
     <row r="35" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="150" t="s">
+      <c r="A35" s="158" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="151"/>
+      <c r="B35" s="159"/>
     </row>
     <row r="36" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A36" s="25" t="s">
@@ -6502,7 +6597,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
@@ -6618,10 +6713,10 @@
       <c r="D50" s="71"/>
     </row>
     <row r="51" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="150" t="s">
+      <c r="A51" s="158" t="s">
         <v>259</v>
       </c>
-      <c r="B51" s="151"/>
+      <c r="B51" s="159"/>
     </row>
     <row r="52" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A52" s="25" t="s">
@@ -6737,10 +6832,10 @@
     </row>
     <row r="65" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="66" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="150" t="s">
+      <c r="A66" s="158" t="s">
         <v>190</v>
       </c>
-      <c r="B66" s="151"/>
+      <c r="B66" s="159"/>
     </row>
     <row r="67" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A67" s="25" t="s">
@@ -6849,10 +6944,10 @@
     </row>
     <row r="79" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="80" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A80" s="150" t="s">
+      <c r="A80" s="158" t="s">
         <v>196</v>
       </c>
-      <c r="B80" s="151"/>
+      <c r="B80" s="159"/>
     </row>
     <row r="81" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A81" s="25" t="s">
@@ -6961,10 +7056,10 @@
     </row>
     <row r="93" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="94" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="150" t="s">
+      <c r="A94" s="158" t="s">
         <v>198</v>
       </c>
-      <c r="B94" s="151"/>
+      <c r="B94" s="159"/>
     </row>
     <row r="95" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A95" s="25" t="s">
@@ -7090,7 +7185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -7103,10 +7198,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="158" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="151"/>
+      <c r="B1" s="159"/>
     </row>
     <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
@@ -7201,7 +7296,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="162" t="s">
         <v>296</v>
       </c>
       <c r="B12" s="82" t="s">
@@ -7210,32 +7305,32 @@
       <c r="C12" s="84" t="s">
         <v>333</v>
       </c>
-      <c r="D12" s="153" t="s">
+      <c r="D12" s="161" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="155"/>
+      <c r="A13" s="163"/>
       <c r="B13" s="82" t="s">
         <v>297</v>
       </c>
       <c r="C13" s="82" t="s">
         <v>334</v>
       </c>
-      <c r="D13" s="153"/>
+      <c r="D13" s="161"/>
     </row>
     <row r="14" spans="1:4" ht="139.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="155"/>
+      <c r="A14" s="163"/>
       <c r="B14" s="84" t="s">
         <v>298</v>
       </c>
       <c r="C14" s="82" t="s">
         <v>336</v>
       </c>
-      <c r="D14" s="153"/>
+      <c r="D14" s="161"/>
     </row>
     <row r="15" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="152" t="s">
+      <c r="A15" s="160" t="s">
         <v>337</v>
       </c>
       <c r="B15" s="82" t="s">
@@ -7244,39 +7339,39 @@
       <c r="C15" s="84" t="s">
         <v>333</v>
       </c>
-      <c r="D15" s="153" t="s">
+      <c r="D15" s="161" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="97.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="152"/>
+      <c r="A16" s="160"/>
       <c r="B16" s="82" t="s">
         <v>300</v>
       </c>
       <c r="C16" s="82" t="s">
         <v>335</v>
       </c>
-      <c r="D16" s="153"/>
+      <c r="D16" s="161"/>
     </row>
     <row r="17" spans="1:4" ht="27.9" x14ac:dyDescent="0.45">
-      <c r="A17" s="152"/>
+      <c r="A17" s="160"/>
       <c r="B17" s="82" t="s">
         <v>301</v>
       </c>
       <c r="C17" s="85" t="s">
         <v>302</v>
       </c>
-      <c r="D17" s="153"/>
+      <c r="D17" s="161"/>
     </row>
     <row r="18" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="152"/>
+      <c r="A18" s="160"/>
       <c r="B18" s="82" t="s">
         <v>303</v>
       </c>
       <c r="C18" s="85" t="s">
         <v>304</v>
       </c>
-      <c r="D18" s="153"/>
+      <c r="D18" s="161"/>
     </row>
     <row r="19" spans="1:4" ht="56.1" x14ac:dyDescent="0.45">
       <c r="A19" s="81" t="s">
@@ -7349,7 +7444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
@@ -7362,10 +7457,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="151"/>
+      <c r="B1" s="159"/>
     </row>
     <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
@@ -7491,10 +7586,10 @@
     </row>
     <row r="16" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="164" t="s">
         <v>341</v>
       </c>
-      <c r="B17" s="157"/>
+      <c r="B17" s="165"/>
       <c r="C17" s="124"/>
       <c r="D17" s="124"/>
     </row>
@@ -7569,10 +7664,10 @@
         <v>343</v>
       </c>
       <c r="B25" s="133" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C25" s="133" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D25" s="134" t="s">
         <v>344</v>
@@ -7583,10 +7678,10 @@
         <v>343</v>
       </c>
       <c r="B26" s="133" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C26" s="133" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D26" s="134" t="s">
         <v>344</v>
@@ -7597,10 +7692,10 @@
         <v>343</v>
       </c>
       <c r="B27" s="133" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C27" s="133" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D27" s="134" t="s">
         <v>344</v>
@@ -7611,10 +7706,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="136" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C28" s="136" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D28" s="137" t="s">
         <v>41</v>
@@ -7622,16 +7717,16 @@
     </row>
     <row r="29" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="135" t="s">
+        <v>524</v>
+      </c>
+      <c r="B29" s="136" t="s">
+        <v>525</v>
+      </c>
+      <c r="C29" s="136" t="s">
         <v>526</v>
       </c>
-      <c r="B29" s="136" t="s">
+      <c r="D29" s="137" t="s">
         <v>527</v>
-      </c>
-      <c r="C29" s="136" t="s">
-        <v>528</v>
-      </c>
-      <c r="D29" s="137" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
@@ -7650,10 +7745,10 @@
     </row>
     <row r="32" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="33" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="150" t="s">
+      <c r="A33" s="158" t="s">
         <v>345</v>
       </c>
-      <c r="B33" s="151"/>
+      <c r="B33" s="159"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A34" s="25" t="s">
@@ -7751,17 +7846,17 @@
     </row>
     <row r="44" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="45" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="150" t="s">
-        <v>462</v>
-      </c>
-      <c r="B45" s="151"/>
+      <c r="A45" s="158" t="s">
+        <v>460</v>
+      </c>
+      <c r="B45" s="159"/>
     </row>
     <row r="46" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A46" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
@@ -7818,30 +7913,30 @@
     </row>
     <row r="54" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>464</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="D55" s="11" t="s">
         <v>468</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
@@ -7849,7 +7944,7 @@
         <v>23</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>27</v>
@@ -7860,17 +7955,17 @@
     </row>
     <row r="58" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="59" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="150" t="s">
-        <v>472</v>
-      </c>
-      <c r="B59" s="151"/>
+      <c r="A59" s="158" t="s">
+        <v>470</v>
+      </c>
+      <c r="B59" s="159"/>
     </row>
     <row r="60" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A60" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
@@ -7927,30 +8022,30 @@
     </row>
     <row r="68" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="D68" s="8" t="s">
         <v>475</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="D69" s="11" t="s">
         <v>479</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
@@ -7958,7 +8053,7 @@
         <v>23</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>27</v>
@@ -7969,45 +8064,45 @@
     </row>
     <row r="71" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71" s="115" t="s">
+        <v>481</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="D71" s="34" t="s">
         <v>484</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="D71" s="34" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="116" t="s">
+        <v>485</v>
+      </c>
+      <c r="B72" s="117" t="s">
+        <v>486</v>
+      </c>
+      <c r="C72" s="117" t="s">
         <v>487</v>
       </c>
-      <c r="B72" s="117" t="s">
+      <c r="D72" s="118" t="s">
         <v>488</v>
-      </c>
-      <c r="C72" s="117" t="s">
-        <v>489</v>
-      </c>
-      <c r="D72" s="118" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="75" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="150" t="s">
-        <v>491</v>
-      </c>
-      <c r="B75" s="151"/>
+      <c r="A75" s="158" t="s">
+        <v>489</v>
+      </c>
+      <c r="B75" s="159"/>
     </row>
     <row r="76" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A76" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
@@ -8023,7 +8118,7 @@
         <v>2</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
@@ -8066,16 +8161,16 @@
     </row>
     <row r="84" spans="1:4" ht="110.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A84" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="D84" s="8" t="s">
         <v>494</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="96.9" thickBot="1" x14ac:dyDescent="0.5">
@@ -8083,13 +8178,13 @@
         <v>19</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D85" s="11" t="s">
         <v>497</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
@@ -8097,10 +8192,10 @@
         <v>23</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>28</v>
@@ -8108,31 +8203,31 @@
     </row>
     <row r="87" spans="1:4" ht="110.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87" s="115" t="s">
+        <v>500</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="D87" s="34" t="s">
         <v>503</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="D87" s="34" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="90" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A90" s="150" t="s">
-        <v>531</v>
-      </c>
-      <c r="B90" s="151"/>
+      <c r="A90" s="158" t="s">
+        <v>529</v>
+      </c>
+      <c r="B90" s="159"/>
     </row>
     <row r="91" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A91" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
@@ -8189,30 +8284,30 @@
     </row>
     <row r="99" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A99" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="D99" s="8" t="s">
         <v>534</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A100" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="D100" s="11" t="s">
         <v>538</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
@@ -8220,10 +8315,10 @@
         <v>23</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>28</v>
@@ -8231,17 +8326,17 @@
     </row>
     <row r="103" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="104" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A104" s="150" t="s">
-        <v>541</v>
-      </c>
-      <c r="B104" s="151"/>
+      <c r="A104" s="158" t="s">
+        <v>539</v>
+      </c>
+      <c r="B104" s="159"/>
     </row>
     <row r="105" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A105" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
@@ -8294,30 +8389,30 @@
     </row>
     <row r="113" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A113" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="D113" s="8" t="s">
         <v>544</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A114" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="D114" s="11" t="s">
         <v>548</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
@@ -8325,10 +8420,10 @@
         <v>23</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D115" s="11" t="s">
         <v>28</v>
@@ -8336,17 +8431,17 @@
     </row>
     <row r="117" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="118" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A118" s="150" t="s">
-        <v>551</v>
-      </c>
-      <c r="B118" s="151"/>
+      <c r="A118" s="158" t="s">
+        <v>549</v>
+      </c>
+      <c r="B118" s="159"/>
     </row>
     <row r="119" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A119" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
@@ -8362,7 +8457,7 @@
         <v>2</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
@@ -8370,7 +8465,7 @@
         <v>3</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
@@ -8397,43 +8492,43 @@
     </row>
     <row r="127" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
       <c r="A127" s="138" t="s">
+        <v>551</v>
+      </c>
+      <c r="B127" s="139" t="s">
+        <v>552</v>
+      </c>
+      <c r="C127" s="139" t="s">
         <v>553</v>
       </c>
-      <c r="B127" s="139" t="s">
+      <c r="D127" s="140" t="s">
         <v>554</v>
-      </c>
-      <c r="C127" s="139" t="s">
-        <v>555</v>
-      </c>
-      <c r="D127" s="140" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
       <c r="A128" s="114" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B128" s="141"/>
       <c r="C128" s="141" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D128" s="142" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="131" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A131" s="150" t="s">
-        <v>560</v>
-      </c>
-      <c r="B131" s="151"/>
+      <c r="A131" s="158" t="s">
+        <v>558</v>
+      </c>
+      <c r="B131" s="159"/>
     </row>
     <row r="132" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A132" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
@@ -8449,7 +8544,7 @@
         <v>2</v>
       </c>
       <c r="B134" s="22" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
@@ -8457,7 +8552,7 @@
         <v>3</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
@@ -8484,28 +8579,28 @@
     </row>
     <row r="139" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
       <c r="A139" s="138" t="s">
+        <v>551</v>
+      </c>
+      <c r="B139" s="139" t="s">
+        <v>552</v>
+      </c>
+      <c r="C139" s="139" t="s">
         <v>553</v>
       </c>
-      <c r="B139" s="139" t="s">
+      <c r="D139" s="140" t="s">
         <v>554</v>
-      </c>
-      <c r="C139" s="139" t="s">
-        <v>555</v>
-      </c>
-      <c r="D139" s="140" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
       <c r="A140" s="114" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B140" s="141"/>
       <c r="C140" s="141" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D140" s="142" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -8530,8 +8625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="B13:D18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -8539,14 +8634,14 @@
     <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.80859375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="166" t="s">
         <v>356</v>
       </c>
-      <c r="B1" s="158"/>
+      <c r="B1" s="166"/>
     </row>
     <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A2" s="94" t="s">
@@ -8602,13 +8697,13 @@
     </row>
     <row r="10" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A10" s="93" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B10" s="84" t="s">
         <v>359</v>
       </c>
       <c r="C10" s="84" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D10" s="86" t="s">
         <v>360</v>
@@ -8616,7 +8711,7 @@
     </row>
     <row r="11" spans="1:4" ht="179.4" x14ac:dyDescent="0.45">
       <c r="A11" s="93" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B11" s="84" t="s">
         <v>361</v>
@@ -8630,72 +8725,108 @@
     </row>
     <row r="12" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A12" s="93" t="s">
+        <v>511</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>572</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>574</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
+      <c r="A13" s="114" t="s">
+        <v>512</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>573</v>
+      </c>
+      <c r="C13" s="84" t="s">
+        <v>575</v>
+      </c>
+      <c r="D13" s="86" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
+      <c r="A14" s="114" t="s">
         <v>513</v>
       </c>
-      <c r="B12" s="84" t="s">
-        <v>364</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>365</v>
-      </c>
-      <c r="D12" s="86" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A13" s="114" t="s">
+      <c r="B14" s="84" t="s">
+        <v>577</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>578</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="138" x14ac:dyDescent="0.45">
+      <c r="A15" s="114" t="s">
         <v>514</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="86"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A14" s="114" t="s">
+      <c r="B15" s="84" t="s">
+        <v>579</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>588</v>
+      </c>
+      <c r="D15" s="86" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
+      <c r="A16" s="114" t="s">
         <v>515</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="86"/>
-    </row>
-    <row r="15" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A15" s="114" t="s">
+      <c r="B16" s="84" t="s">
+        <v>580</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>590</v>
+      </c>
+      <c r="D16" s="86" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="138" x14ac:dyDescent="0.45">
+      <c r="A17" s="114" t="s">
+        <v>517</v>
+      </c>
+      <c r="B17" s="84" t="s">
+        <v>581</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>589</v>
+      </c>
+      <c r="D17" s="86" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
+      <c r="A18" s="114" t="s">
         <v>516</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="86"/>
-    </row>
-    <row r="16" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A16" s="114" t="s">
-        <v>517</v>
-      </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="86"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A17" s="114" t="s">
-        <v>519</v>
-      </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="86"/>
-    </row>
-    <row r="18" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A18" s="114" t="s">
-        <v>518</v>
-      </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="86"/>
+      <c r="B18" s="84" t="s">
+        <v>582</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>591</v>
+      </c>
+      <c r="D18" s="86" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
       <c r="A19" s="93" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="87" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C19" s="99" t="s">
         <v>27</v>
@@ -8705,17 +8836,17 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A22" s="158" t="s">
-        <v>368</v>
-      </c>
-      <c r="B22" s="158"/>
+      <c r="A22" s="166" t="s">
+        <v>366</v>
+      </c>
+      <c r="B22" s="166"/>
     </row>
     <row r="23" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A23" s="94" t="s">
         <v>357</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
@@ -8764,16 +8895,16 @@
     </row>
     <row r="31" spans="1:4" ht="41.4" x14ac:dyDescent="0.45">
       <c r="A31" s="93" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B31" s="120" t="s">
+        <v>369</v>
+      </c>
+      <c r="C31" s="99" t="s">
+        <v>370</v>
+      </c>
+      <c r="D31" s="121" t="s">
         <v>371</v>
-      </c>
-      <c r="C31" s="99" t="s">
-        <v>372</v>
-      </c>
-      <c r="D31" s="121" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
@@ -8781,7 +8912,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="119" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C32" s="99" t="s">
         <v>27</v>
@@ -8792,7 +8923,7 @@
     </row>
     <row r="35" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A35" s="100" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B35" s="100"/>
     </row>
@@ -8801,7 +8932,7 @@
         <v>357</v>
       </c>
       <c r="B36" s="66" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
@@ -8823,7 +8954,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="122" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
@@ -8850,44 +8981,44 @@
     </row>
     <row r="43" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
       <c r="A43" s="102" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B43" s="84" t="s">
+        <v>375</v>
+      </c>
+      <c r="C43" s="84" t="s">
+        <v>376</v>
+      </c>
+      <c r="D43" s="86" t="s">
         <v>377</v>
-      </c>
-      <c r="C43" s="84" t="s">
-        <v>378</v>
-      </c>
-      <c r="D43" s="86" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="69" x14ac:dyDescent="0.45">
       <c r="A44" s="102" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B44" s="84" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C44" s="84" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D44" s="86" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A45" s="93" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B45" s="84" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C45" s="84" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D45" s="86" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
@@ -8895,7 +9026,7 @@
         <v>23</v>
       </c>
       <c r="B46" s="87" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C46" s="84" t="s">
         <v>27</v>
@@ -8905,17 +9036,17 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A49" s="158" t="s">
-        <v>385</v>
-      </c>
-      <c r="B49" s="158"/>
+      <c r="A49" s="166" t="s">
+        <v>383</v>
+      </c>
+      <c r="B49" s="166"/>
     </row>
     <row r="50" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A50" s="94" t="s">
         <v>357</v>
       </c>
       <c r="B50" s="66" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
@@ -8937,7 +9068,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="123" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
@@ -8964,30 +9095,30 @@
     </row>
     <row r="57" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
       <c r="A57" s="93" t="s">
+        <v>385</v>
+      </c>
+      <c r="B57" s="84" t="s">
+        <v>386</v>
+      </c>
+      <c r="C57" s="84" t="s">
         <v>387</v>
       </c>
-      <c r="B57" s="84" t="s">
-        <v>388</v>
-      </c>
-      <c r="C57" s="84" t="s">
-        <v>389</v>
-      </c>
       <c r="D57" s="86" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="96.6" x14ac:dyDescent="0.45">
       <c r="A58" s="93" t="s">
+        <v>388</v>
+      </c>
+      <c r="B58" s="84" t="s">
+        <v>389</v>
+      </c>
+      <c r="C58" s="84" t="s">
         <v>390</v>
       </c>
-      <c r="B58" s="84" t="s">
+      <c r="D58" s="86" t="s">
         <v>391</v>
-      </c>
-      <c r="C58" s="84" t="s">
-        <v>392</v>
-      </c>
-      <c r="D58" s="86" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
@@ -8995,7 +9126,7 @@
         <v>23</v>
       </c>
       <c r="B59" s="87" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C59" s="84" t="s">
         <v>27</v>
@@ -9018,7 +9149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -9031,17 +9162,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="168" t="s">
-        <v>395</v>
-      </c>
-      <c r="B1" s="168"/>
+      <c r="A1" s="167" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="167"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="108" t="s">
         <v>357</v>
       </c>
       <c r="B2" s="108" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -9087,44 +9218,44 @@
     </row>
     <row r="10" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
       <c r="A10" s="107" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C10" s="89" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D10" s="89" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
       <c r="A11" s="107" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B11" s="89" t="s">
+        <v>401</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="167" t="s">
         <v>403</v>
       </c>
-      <c r="C11" s="89" t="s">
-        <v>402</v>
-      </c>
-      <c r="D11" s="89" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="168" t="s">
-        <v>405</v>
-      </c>
-      <c r="B14" s="168"/>
+      <c r="B14" s="167"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="108" t="s">
         <v>357</v>
       </c>
       <c r="B15" s="108" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -9146,7 +9277,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="103" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -9170,114 +9301,114 @@
     </row>
     <row r="23" spans="1:4" ht="220.8" x14ac:dyDescent="0.45">
       <c r="A23" s="107" t="s">
-        <v>410</v>
-      </c>
-      <c r="B23" s="161" t="s">
-        <v>409</v>
-      </c>
-      <c r="C23" s="161" t="s">
         <v>408</v>
       </c>
-      <c r="D23" s="161" t="s">
+      <c r="B23" s="151" t="s">
         <v>407</v>
+      </c>
+      <c r="C23" s="151" t="s">
+        <v>406</v>
+      </c>
+      <c r="D23" s="151" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
       <c r="A24" s="107" t="s">
-        <v>414</v>
-      </c>
-      <c r="B24" s="161" t="s">
-        <v>413</v>
-      </c>
-      <c r="C24" s="161" t="s">
         <v>412</v>
       </c>
-      <c r="D24" s="161" t="s">
+      <c r="B24" s="151" t="s">
         <v>411</v>
+      </c>
+      <c r="C24" s="151" t="s">
+        <v>410</v>
+      </c>
+      <c r="D24" s="151" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="193.2" x14ac:dyDescent="0.45">
       <c r="A25" s="107" t="s">
-        <v>418</v>
-      </c>
-      <c r="B25" s="161" t="s">
-        <v>417</v>
-      </c>
-      <c r="C25" s="162" t="s">
         <v>416</v>
       </c>
-      <c r="D25" s="161" t="s">
+      <c r="B25" s="151" t="s">
         <v>415</v>
+      </c>
+      <c r="C25" s="152" t="s">
+        <v>414</v>
+      </c>
+      <c r="D25" s="151" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
       <c r="A26" s="107" t="s">
-        <v>422</v>
-      </c>
-      <c r="B26" s="161" t="s">
-        <v>421</v>
-      </c>
-      <c r="C26" s="161" t="s">
         <v>420</v>
       </c>
-      <c r="D26" s="161" t="s">
+      <c r="B26" s="151" t="s">
         <v>419</v>
+      </c>
+      <c r="C26" s="151" t="s">
+        <v>418</v>
+      </c>
+      <c r="D26" s="151" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A27" s="106" t="s">
-        <v>426</v>
-      </c>
-      <c r="B27" s="161" t="s">
-        <v>425</v>
-      </c>
-      <c r="C27" s="161" t="s">
         <v>424</v>
       </c>
-      <c r="D27" s="161" t="s">
+      <c r="B27" s="151" t="s">
         <v>423</v>
+      </c>
+      <c r="C27" s="151" t="s">
+        <v>422</v>
+      </c>
+      <c r="D27" s="151" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="96.6" x14ac:dyDescent="0.45">
       <c r="A28" s="106" t="s">
-        <v>429</v>
-      </c>
-      <c r="B28" s="161" t="s">
-        <v>428</v>
-      </c>
-      <c r="C28" s="161" t="s">
         <v>427</v>
       </c>
-      <c r="D28" s="161" t="s">
-        <v>401</v>
+      <c r="B28" s="151" t="s">
+        <v>426</v>
+      </c>
+      <c r="C28" s="151" t="s">
+        <v>425</v>
+      </c>
+      <c r="D28" s="151" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
       <c r="A29" s="106" t="s">
-        <v>432</v>
-      </c>
-      <c r="B29" s="161" t="s">
+        <v>430</v>
+      </c>
+      <c r="B29" s="151" t="s">
+        <v>429</v>
+      </c>
+      <c r="C29" s="151" t="s">
+        <v>428</v>
+      </c>
+      <c r="D29" s="151" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="168" t="s">
         <v>431</v>
       </c>
-      <c r="C29" s="161" t="s">
-        <v>430</v>
-      </c>
-      <c r="D29" s="161" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="159" t="s">
-        <v>433</v>
-      </c>
-      <c r="B33" s="159"/>
+      <c r="B33" s="168"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="108" t="s">
         <v>357</v>
       </c>
       <c r="B34" s="108" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
@@ -9299,7 +9430,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="103" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -9323,98 +9454,98 @@
     </row>
     <row r="42" spans="1:4" ht="248.4" x14ac:dyDescent="0.45">
       <c r="A42" s="107" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B42" s="89" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C42" s="89" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D42" s="89" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
       <c r="A43" s="107" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B43" s="89" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C43" s="89" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D43" s="89" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
       <c r="A44" s="107" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B44" s="89" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C44" s="89" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D44" s="89" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A45" s="107" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B45" s="89" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C45" s="89" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D45" s="89" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A46" s="107" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B46" s="89" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C46" s="89" t="s">
-        <v>449</v>
-      </c>
-      <c r="D46" s="166" t="s">
-        <v>423</v>
+        <v>447</v>
+      </c>
+      <c r="D46" s="156" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A47" s="106" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B47" s="89" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C47" s="89" t="s">
-        <v>452</v>
-      </c>
-      <c r="D47" s="167"/>
+        <v>450</v>
+      </c>
+      <c r="D47" s="157"/>
     </row>
     <row r="48" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
       <c r="A48" s="107" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B48" s="89" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C48" s="89" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D48" s="89" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -9445,10 +9576,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="151"/>
+      <c r="B1" s="159"/>
     </row>
     <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
@@ -9481,17 +9612,17 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="159" t="s">
-        <v>395</v>
-      </c>
-      <c r="B8" s="159"/>
+      <c r="A8" s="168" t="s">
+        <v>393</v>
+      </c>
+      <c r="B8" s="168"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="108" t="s">
         <v>357</v>
       </c>
       <c r="B9" s="108" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -9537,44 +9668,44 @@
     </row>
     <row r="16" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
       <c r="A16" s="105" t="s">
-        <v>400</v>
-      </c>
-      <c r="B16" s="161" t="s">
-        <v>399</v>
-      </c>
-      <c r="C16" s="161" t="s">
         <v>398</v>
       </c>
-      <c r="D16" s="160" t="s">
+      <c r="B16" s="151" t="s">
         <v>397</v>
+      </c>
+      <c r="C16" s="151" t="s">
+        <v>396</v>
+      </c>
+      <c r="D16" s="150" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
       <c r="A17" s="105" t="s">
-        <v>404</v>
-      </c>
-      <c r="B17" s="161" t="s">
+        <v>402</v>
+      </c>
+      <c r="B17" s="151" t="s">
+        <v>401</v>
+      </c>
+      <c r="C17" s="151" t="s">
+        <v>400</v>
+      </c>
+      <c r="D17" s="150" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="167" t="s">
         <v>403</v>
       </c>
-      <c r="C17" s="161" t="s">
-        <v>402</v>
-      </c>
-      <c r="D17" s="160" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="168" t="s">
-        <v>405</v>
-      </c>
-      <c r="B21" s="168"/>
+      <c r="B21" s="167"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="108" t="s">
         <v>357</v>
       </c>
       <c r="B22" s="108" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -9596,7 +9727,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="103" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -9620,106 +9751,106 @@
     </row>
     <row r="30" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.45">
       <c r="A30" s="105" t="s">
-        <v>410</v>
-      </c>
-      <c r="B30" s="161" t="s">
-        <v>409</v>
-      </c>
-      <c r="C30" s="161" t="s">
         <v>408</v>
       </c>
-      <c r="D30" s="161" t="s">
+      <c r="B30" s="151" t="s">
         <v>407</v>
+      </c>
+      <c r="C30" s="151" t="s">
+        <v>406</v>
+      </c>
+      <c r="D30" s="151" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A31" s="105" t="s">
-        <v>414</v>
-      </c>
-      <c r="B31" s="161" t="s">
-        <v>413</v>
-      </c>
-      <c r="C31" s="161" t="s">
         <v>412</v>
       </c>
-      <c r="D31" s="161" t="s">
+      <c r="B31" s="151" t="s">
         <v>411</v>
+      </c>
+      <c r="C31" s="151" t="s">
+        <v>410</v>
+      </c>
+      <c r="D31" s="151" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
       <c r="A32" s="105" t="s">
-        <v>418</v>
-      </c>
-      <c r="B32" s="161" t="s">
-        <v>417</v>
-      </c>
-      <c r="C32" s="162" t="s">
         <v>416</v>
       </c>
-      <c r="D32" s="161" t="s">
+      <c r="B32" s="151" t="s">
         <v>415</v>
+      </c>
+      <c r="C32" s="152" t="s">
+        <v>414</v>
+      </c>
+      <c r="D32" s="151" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A33" s="105" t="s">
-        <v>422</v>
-      </c>
-      <c r="B33" s="161" t="s">
-        <v>421</v>
-      </c>
-      <c r="C33" s="161" t="s">
         <v>420</v>
       </c>
-      <c r="D33" s="161" t="s">
+      <c r="B33" s="151" t="s">
         <v>419</v>
+      </c>
+      <c r="C33" s="151" t="s">
+        <v>418</v>
+      </c>
+      <c r="D33" s="151" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="358.8" x14ac:dyDescent="0.45">
       <c r="A34" s="104" t="s">
-        <v>426</v>
-      </c>
-      <c r="B34" s="161" t="s">
-        <v>425</v>
-      </c>
-      <c r="C34" s="161" t="s">
         <v>424</v>
       </c>
-      <c r="D34" s="161" t="s">
+      <c r="B34" s="151" t="s">
         <v>423</v>
+      </c>
+      <c r="C34" s="151" t="s">
+        <v>422</v>
+      </c>
+      <c r="D34" s="151" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="82.8" x14ac:dyDescent="0.45">
       <c r="A35" s="104" t="s">
-        <v>429</v>
-      </c>
-      <c r="B35" s="161" t="s">
-        <v>428</v>
-      </c>
-      <c r="C35" s="161" t="s">
         <v>427</v>
       </c>
-      <c r="D35" s="161" t="s">
-        <v>401</v>
+      <c r="B35" s="151" t="s">
+        <v>426</v>
+      </c>
+      <c r="C35" s="151" t="s">
+        <v>425</v>
+      </c>
+      <c r="D35" s="151" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
       <c r="A36" s="104" t="s">
-        <v>432</v>
-      </c>
-      <c r="B36" s="161" t="s">
-        <v>431</v>
-      </c>
-      <c r="C36" s="161" t="s">
         <v>430</v>
       </c>
-      <c r="D36" s="161" t="s">
-        <v>401</v>
+      <c r="B36" s="151" t="s">
+        <v>429</v>
+      </c>
+      <c r="C36" s="151" t="s">
+        <v>428</v>
+      </c>
+      <c r="D36" s="151" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="38" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="169" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B38" s="170"/>
     </row>
@@ -9728,7 +9859,7 @@
         <v>357</v>
       </c>
       <c r="B39" s="108" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C39" s="108"/>
     </row>
@@ -9753,7 +9884,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="103" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C42" s="66"/>
     </row>
@@ -9778,98 +9909,98 @@
     </row>
     <row r="46" spans="1:4" ht="165.6" x14ac:dyDescent="0.45">
       <c r="A46" s="105" t="s">
-        <v>438</v>
-      </c>
-      <c r="B46" s="163" t="s">
-        <v>437</v>
-      </c>
-      <c r="C46" s="163" t="s">
         <v>436</v>
       </c>
-      <c r="D46" s="163" t="s">
+      <c r="B46" s="153" t="s">
         <v>435</v>
+      </c>
+      <c r="C46" s="153" t="s">
+        <v>434</v>
+      </c>
+      <c r="D46" s="153" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A47" s="105" t="s">
-        <v>442</v>
-      </c>
-      <c r="B47" s="163" t="s">
-        <v>441</v>
-      </c>
-      <c r="C47" s="163" t="s">
         <v>440</v>
       </c>
-      <c r="D47" s="163" t="s">
+      <c r="B47" s="153" t="s">
         <v>439</v>
+      </c>
+      <c r="C47" s="153" t="s">
+        <v>438</v>
+      </c>
+      <c r="D47" s="153" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A48" s="105" t="s">
-        <v>445</v>
-      </c>
-      <c r="B48" s="163" t="s">
-        <v>444</v>
-      </c>
-      <c r="C48" s="163" t="s">
         <v>443</v>
       </c>
-      <c r="D48" s="163" t="s">
-        <v>439</v>
+      <c r="B48" s="153" t="s">
+        <v>442</v>
+      </c>
+      <c r="C48" s="153" t="s">
+        <v>441</v>
+      </c>
+      <c r="D48" s="153" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="96.6" x14ac:dyDescent="0.45">
       <c r="A49" s="105" t="s">
-        <v>448</v>
-      </c>
-      <c r="B49" s="163" t="s">
-        <v>447</v>
-      </c>
-      <c r="C49" s="163" t="s">
         <v>446</v>
       </c>
-      <c r="D49" s="163" t="s">
-        <v>439</v>
+      <c r="B49" s="153" t="s">
+        <v>445</v>
+      </c>
+      <c r="C49" s="153" t="s">
+        <v>444</v>
+      </c>
+      <c r="D49" s="153" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="96.6" x14ac:dyDescent="0.45">
       <c r="A50" s="105" t="s">
-        <v>451</v>
-      </c>
-      <c r="B50" s="163" t="s">
-        <v>450</v>
-      </c>
-      <c r="C50" s="163" t="s">
         <v>449</v>
       </c>
-      <c r="D50" s="164" t="s">
-        <v>423</v>
+      <c r="B50" s="153" t="s">
+        <v>448</v>
+      </c>
+      <c r="C50" s="153" t="s">
+        <v>447</v>
+      </c>
+      <c r="D50" s="154" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="96.6" x14ac:dyDescent="0.45">
       <c r="A51" s="104" t="s">
-        <v>454</v>
-      </c>
-      <c r="B51" s="163" t="s">
-        <v>453</v>
-      </c>
-      <c r="C51" s="163" t="s">
         <v>452</v>
       </c>
-      <c r="D51" s="165"/>
+      <c r="B51" s="153" t="s">
+        <v>451</v>
+      </c>
+      <c r="C51" s="153" t="s">
+        <v>450</v>
+      </c>
+      <c r="D51" s="155"/>
     </row>
     <row r="52" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
       <c r="A52" s="105" t="s">
-        <v>432</v>
-      </c>
-      <c r="B52" s="163" t="s">
-        <v>431</v>
-      </c>
-      <c r="C52" s="163" t="s">
         <v>430</v>
       </c>
-      <c r="D52" s="163" t="s">
-        <v>401</v>
+      <c r="B52" s="153" t="s">
+        <v>429</v>
+      </c>
+      <c r="C52" s="153" t="s">
+        <v>428</v>
+      </c>
+      <c r="D52" s="153" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment 1/G1_Acceptance.Ass.1.xlsx
+++ b/Assignment 1/G1_Acceptance.Ass.1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26905"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asaf/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25602" windowHeight="16002" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Names | Group 1" sheetId="8" r:id="rId1"/>
@@ -19,20 +24,20 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="601">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -992,7 +997,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1002,7 +1007,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1013,7 +1018,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1023,7 +1028,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1032,7 +1037,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1056,7 +1061,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1066,7 +1071,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1086,7 +1091,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1096,7 +1101,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1114,7 +1119,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1124,7 +1129,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1143,7 +1148,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1154,7 +1159,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1165,7 +1170,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1176,7 +1181,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1187,7 +1192,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1198,7 +1203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1209,7 +1214,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1219,7 +1224,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1235,7 +1240,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1246,7 +1251,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1257,7 +1262,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1268,7 +1273,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1279,7 +1284,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1290,7 +1295,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1301,7 +1306,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1311,7 +1316,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1332,7 +1337,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1343,7 +1348,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1354,7 +1359,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1365,7 +1370,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1376,7 +1381,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1386,7 +1391,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1402,7 +1407,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1412,7 +1417,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1428,7 +1433,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1438,7 +1443,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1454,7 +1459,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1464,7 +1469,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1476,7 +1481,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1486,7 +1491,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1502,7 +1507,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1522,7 +1527,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1532,7 +1537,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1555,7 +1560,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1565,7 +1570,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1584,7 +1589,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1594,7 +1599,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1626,7 +1631,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1637,7 +1642,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1648,7 +1653,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1659,7 +1664,7 @@
         <b/>
         <sz val="11"/>
         <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1670,7 +1675,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1681,7 +1686,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1692,7 +1697,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1702,7 +1707,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1719,7 +1724,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1730,7 +1735,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1741,7 +1746,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1752,7 +1757,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1763,7 +1768,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1773,7 +1778,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1790,7 +1795,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1801,7 +1806,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1812,7 +1817,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1823,7 +1828,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1834,7 +1839,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1844,7 +1849,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1861,7 +1866,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1872,7 +1877,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1883,7 +1888,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1894,7 +1899,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1904,7 +1909,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1914,7 +1919,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1923,7 +1928,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1940,7 +1945,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1951,7 +1956,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1962,7 +1967,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1973,7 +1978,7 @@
         <b/>
         <sz val="11"/>
         <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1984,7 +1989,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1994,7 +1999,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2004,7 +2009,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2013,7 +2018,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2030,7 +2035,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2041,7 +2046,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2052,7 +2057,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2063,7 +2068,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2074,7 +2079,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2084,7 +2089,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2101,7 +2106,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2112,7 +2117,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2123,7 +2128,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2134,7 +2139,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2145,7 +2150,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2155,7 +2160,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2199,7 +2204,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2210,7 +2215,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2221,7 +2226,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2232,7 +2237,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2242,7 +2247,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2252,7 +2257,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2261,7 +2266,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2277,7 +2282,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2287,7 +2292,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2304,7 +2309,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2314,7 +2319,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2331,7 +2336,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2341,7 +2346,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2358,7 +2363,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2368,7 +2373,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2465,28 +2470,7 @@
     <t>Reference in DB</t>
   </si>
   <si>
-    <t>Open "Insert Reference Details" Window
-Type Patient ID: 302632195
-Type Specialist ID: 8888
-Type Date : 1.7.16
-Click OK button</t>
-  </si>
-  <si>
-    <t>System checks that all required 
-fields are filled. System checks for 
-Reference with Patient ID , Specialist ID , Date that the user inserted.
-Reference not in DB, System print massage "invalid Reference details"
-System ask to insert Reference 
-Details again</t>
-  </si>
-  <si>
-    <t>Reference not in DB</t>
-  </si>
-  <si>
     <t>Missing Required Fields</t>
-  </si>
-  <si>
-    <t>Open "Insert Reference Details" Window</t>
   </si>
   <si>
     <t>Acceptance Testing for Use Case: View Reference Details</t>
@@ -2641,17 +2625,6 @@
   </si>
   <si>
     <t>View Specific period</t>
-  </si>
-  <si>
-    <t>System compute
-the months 
-for the report.
-System take the month 
-from the second date 
-and sub with the month
-from the first date.
-System display successfully 
-the report.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2671,11 +2644,6 @@
     <t>SpecificSuccessful</t>
   </si>
   <si>
-    <t>System check if the month bigger 
-then 12 or less then 0 for each date, days can not be negative 
-and bigger then 31.</t>
-  </si>
-  <si>
     <t>System throws out a warning 
 message "Please, insert correct dates!".
 A system cleans all fields of "specific period report" window</t>
@@ -2693,10 +2661,6 @@
     <t>WrongDate</t>
   </si>
   <si>
-    <t>System display the report about 
-the single month.</t>
-  </si>
-  <si>
     <t>System Present Monthly report details for each week :Number of patients,Waiting time for service ,Waiting time for treatment, Average,Minimum,Maximum,Standard deviation , Number of costumers that left , Number of costumers that did not arrive and did not call to cancel appointment.</t>
   </si>
   <si>
@@ -2712,10 +2676,6 @@
     <t>SameDate</t>
   </si>
   <si>
-    <t>System check the varibale type for 
-each date.</t>
-  </si>
-  <si>
     <t>System throws out a warning 
 message "Please, insert correct Variables!".
 A system cleans all fields of 
@@ -2742,6 +2702,620 @@
 A system cleans all fields of "specific period report" window</t>
   </si>
   <si>
+    <t>EmptyDate</t>
+  </si>
+  <si>
+    <t>System close the "specific period report" window and 
+return to "kind of reports" 
+windows.</t>
+  </si>
+  <si>
+    <t>1.Open " kind of reports" window.
+2.Click "View 
+specific period report"
+3.Open "specific period report" window.
+2.Click cancel</t>
+  </si>
+  <si>
+    <t>CancelSpecialView</t>
+  </si>
+  <si>
+    <t>System close the "Kind of reports" window and 
+return to "View reports" 
+windows.</t>
+  </si>
+  <si>
+    <t>1.Open " kind of reports" window.
+2.Click Cancel</t>
+  </si>
+  <si>
+    <t>CancelKindOfReport</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: View Last months</t>
+  </si>
+  <si>
+    <t>View Last months</t>
+  </si>
+  <si>
+    <t>System Present Monthly report details for  the N last months : Number of patients, Waiting time for service ,Waiting time for treatment,Number of costumers that left , Number of costumers that did not arrive and did not call to cancel appointment .  In addition the System will display the  Average,Minimum,Maximum,Standard deviation of the first details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.Open " kind of reports" window.
+2.Click "View 
+last months report"
+3.Open "last months report" window.
+4.Enter number: 4
+5.Click ok. </t>
+  </si>
+  <si>
+    <t>Nsuccessful</t>
+  </si>
+  <si>
+    <t>System throws out a warning 
+message "Please, insert correct numer 
+between 1 -11!".
+A system cleans all fields of  
+"last months report" window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.Open " kind of reports" window.
+2.Click "View 
+last months report"
+3.Open "last months report" window.
+4.Enter number: 0
+5.Click ok. </t>
+  </si>
+  <si>
+    <t>NLoewr</t>
+  </si>
+  <si>
+    <t>System throws out a warning 
+message "Please, insert correct numer 
+between 1 -11!".
+A system cleans all fields of " last months report" window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.Open " kind of reports" window.
+2.Click "View 
+last months report"
+3.Open "last months report" window.
+4.Enter number: 14
+5.Click ok. </t>
+  </si>
+  <si>
+    <t>Nhigher</t>
+  </si>
+  <si>
+    <t>System throws out a warning 
+message "Please, insert correct variable between 1 -11!".
+A system cleans all fields of " last months report" window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open " kind of reports" window.
+2.Click "View 
+last months report"
+3.Open "last months report" window.
+4.Enter number: a
+5.Click ok. </t>
+  </si>
+  <si>
+    <t>NwrongVariable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System throws out a warning 
+message "Please,fill all the necessary fields!".
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open " kind of reports" window.
+2.Click "View 
+last months report"
+3.Open "last months report" window.
+4.Enter number: 
+5.Click ok. </t>
+  </si>
+  <si>
+    <t>EmtyN</t>
+  </si>
+  <si>
+    <t>System close the "last months report" window and return to "kind of reports" 
+windows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open " kind of reports" window.
+2.Click "View 
+last months report"
+3.Open "last months report" window.
+4.Enter number: 6
+5.Click Cancel. </t>
+  </si>
+  <si>
+    <t>CancelNview</t>
+  </si>
+  <si>
+    <t>Yakir Karandian</t>
+  </si>
+  <si>
+    <t>Assaf Tzarfati</t>
+  </si>
+  <si>
+    <t>shayscal90@gmail.com</t>
+  </si>
+  <si>
+    <t>yakir1114@gmail.com</t>
+  </si>
+  <si>
+    <t>rizraz2001@gmail.com</t>
+  </si>
+  <si>
+    <t>asaff19899@gmail.com</t>
+  </si>
+  <si>
+    <t>Group Number 1 / 4.4.16</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Record Appointment</t>
+  </si>
+  <si>
+    <t>Record Appointment</t>
+  </si>
+  <si>
+    <t>RecordAppointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Record Appointment" window.
+2. type: complainant  for Headache.
+3. Click save button.
+                                           </t>
+  </si>
+  <si>
+    <t>successfully saved in system</t>
+  </si>
+  <si>
+    <t>EmptyTextBox</t>
+  </si>
+  <si>
+    <t>1. Open "Record Appointment" window.
+2. type:
+3. Click save button.</t>
+  </si>
+  <si>
+    <t>System check the record filed isn't empty. System display error, cannot leave textbox empty. System return to Record Appointment windows.</t>
+  </si>
+  <si>
+    <t>in case the user clicks save without filling the textbox.</t>
+  </si>
+  <si>
+    <t>1. Open "Record Appointment" window.</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: View examination results</t>
+  </si>
+  <si>
+    <t>View examination results</t>
+  </si>
+  <si>
+    <t>ExaminationResults</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "View examination results" window.
+2. Choose: 3001 
+3. Click ok button.
+                                           </t>
+  </si>
+  <si>
+    <t>System checks available examination results for this client. System check if the choosen reference has result. System display examination results.</t>
+  </si>
+  <si>
+    <t>display examination results</t>
+  </si>
+  <si>
+    <t>NotSelectedReference</t>
+  </si>
+  <si>
+    <t>1. Open "View examination results" window.
+2. Choose: 
+3. Click ok button.</t>
+  </si>
+  <si>
+    <t>system check for valid choose. 
+Validation failed. System displays error message "must choose reference before continue". Return to View examination results screen.</t>
+  </si>
+  <si>
+    <t>in case the user clicks ok without choosing a reference</t>
+  </si>
+  <si>
+    <t>1. Open "View examination results" window.</t>
+  </si>
+  <si>
+    <t>ResultNotReady</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "View examination results" window.
+2. Choose: 3004 
+3. Click ok button.
+                                           </t>
+  </si>
+  <si>
+    <t>System checks available examination results for this client. System displays error message "Lab worker didn't provide the results yet". Return to View examination results screen.</t>
+  </si>
+  <si>
+    <t>Lab worker didn't provide the results yet.</t>
+  </si>
+  <si>
+    <t>EmptyLabExaminations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "View examination results" window.
+2. Click ok button.
+                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">system check for valid result. 
+Validation failed. System displays error message " there are no lab examinations". </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> there are no lab examinations.</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: End medical treatment</t>
+  </si>
+  <si>
+    <t>End medical treatment</t>
+  </si>
+  <si>
+    <t>EndProcess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "End medical treatment" window.
+2. type price: 2000$ 
+3. Click enter button.
+4. Click ok button.
+                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">System ask for the cost of the treatment. System display the record of the appointment and the cost. System 2. SYSTEM sends a report to the doctor who create the reference,  a bill to the client's clinic, save report at client's medical file.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">close treatment </t>
+  </si>
+  <si>
+    <t>1. Open "End medical treatment" window.
+2. type price: 
+3. Click enter button.</t>
+  </si>
+  <si>
+    <t>System ask for the cost of the treatment.
+system check for valid choose. 
+Validation failed. System displays error message "must insert price before continue". Return to End medical treatment screen.</t>
+  </si>
+  <si>
+    <t>in case the user clicks enter without insert a price</t>
+  </si>
+  <si>
+    <t>1. Open "End medical treatment" window.</t>
+  </si>
+  <si>
+    <t>System ask for the cost of the treatment.
+System checks if 3 min passed,
+System throws out a warning "Timed Out". System log out.</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "End medical treatment" window.
+2. type price: 300$ 
+3. Click enter button.
+4. Click cancel button.
+                                           </t>
+  </si>
+  <si>
+    <t>System ask for the cost of the treatment.
+System display the record of the appointment and the cost.
+System cancel the process and return to
+End medical treatment screen and display " process canceled".</t>
+  </si>
+  <si>
+    <t>cancel Process</t>
+  </si>
+  <si>
+    <t>ReferenceFound</t>
+  </si>
+  <si>
+    <t>ReferenceNotInDB</t>
+  </si>
+  <si>
+    <t>AddExaminationResult</t>
+  </si>
+  <si>
+    <t>SuccessPictureAttached</t>
+  </si>
+  <si>
+    <t>SuccessPictureNotAttached</t>
+  </si>
+  <si>
+    <t>MissingExaminationFields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System checks that all required fields are filled. System checks for Reference with Patient ID , Specialist ID , Date that the user inserted.
+Reference Found, System Open "Show details Window". 
+ </t>
+  </si>
+  <si>
+    <t>MissingRefDate</t>
+  </si>
+  <si>
+    <t>MissingRefID</t>
+  </si>
+  <si>
+    <t>MissingRefSpecialist</t>
+  </si>
+  <si>
+    <t>MissingIDAndDate</t>
+  </si>
+  <si>
+    <t>MissingIDAndSpecialist</t>
+  </si>
+  <si>
+    <t>MissingAllFields</t>
+  </si>
+  <si>
+    <t>MissingDateAndSpecialist</t>
+  </si>
+  <si>
+    <t>1. Open "Create  lab reference" window.
+2. Insert examination code: 2003
+3. Urgency: none
+4. comment: after period.
+5. Click ok button.</t>
+  </si>
+  <si>
+    <t>System checks that all required fields are filled. 
+System check for valid examination code.
+System display "created successfully".</t>
+  </si>
+  <si>
+    <t>1. Open "Create  lab reference" window.
+2. Insert examination code: 2003
+3. Urgency: none
+4. comment:
+5. Click ok button.</t>
+  </si>
+  <si>
+    <t>1. Open "Create  lab reference" window.
+2. Insert examination code: 2003
+3. Urgency: 
+4. comment: after period.
+5. Click ok button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Create  lab reference" window.
+2. Insert examination code: 
+3. Urgency: none
+4. comment: after period.
+5. Click ok button.
+</t>
+  </si>
+  <si>
+    <t>System checks that all required fields are filled. System reports about "Missing examination code".
+System asks the Specialist to insert examination code.</t>
+  </si>
+  <si>
+    <t>invalidExaminationCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Create  lab reference" window.
+2. Insert examination code: 12
+3. Urgency: none
+4. comment: after period.
+5. Click ok button.
+</t>
+  </si>
+  <si>
+    <t>System checks that all required fields are filled. System reports about "invalid examination code".
+System asks the Specialist to insert valid examination code.</t>
+  </si>
+  <si>
+    <t>Invalid examination code</t>
+  </si>
+  <si>
+    <t>System check the record filed isn't empty. System save text and  appointment details System display "Saved successfully".</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Transfer details</t>
+  </si>
+  <si>
+    <t>Transfer details</t>
+  </si>
+  <si>
+    <t>TransferDetails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Transfer details" window.
+2. choose: 1
+3. Click ok button.
+                                           </t>
+  </si>
+  <si>
+    <t>System ask to choose option.
+ system check for valid choose.
+System transfer the whole file and display
+"transfer Succeeded".</t>
+  </si>
+  <si>
+    <t>transfer Succeeded.</t>
+  </si>
+  <si>
+    <t>WrongChoice</t>
+  </si>
+  <si>
+    <t>1. Open "Transfer details" window.
+2. choose: 4
+3. Click ok button.</t>
+  </si>
+  <si>
+    <t>System ask to choose option.
+system check for valid choose. 
+Validation failed. System displays error message "must number between 1-2 before continue". Return to Transfer details screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in case the user clicks wrong choice </t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Report missing appointment</t>
+  </si>
+  <si>
+    <t>Report missing appointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReportMissing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Report missing appointment" window.
+2. choose: Yes
+3. Click ok button.
+                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">System ask to choose option.
+ System check for valid choose.
+System report on missing appointment.
+</t>
+  </si>
+  <si>
+    <t>client didn't came</t>
+  </si>
+  <si>
+    <t>ReportByMistake</t>
+  </si>
+  <si>
+    <t>1. Open "Report missing appointment" window.
+2. choose: No
+3. Click ok button.</t>
+  </si>
+  <si>
+    <t>System ask to choose option.
+System check for valid choose.
+System cancel report on missing appointment.</t>
+  </si>
+  <si>
+    <t>in case the user clicks wrong option</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Transfer specific details</t>
+  </si>
+  <si>
+    <t>Transfer specific details</t>
+  </si>
+  <si>
+    <t>FileTransfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                               </t>
+  </si>
+  <si>
+    <t>System display transfer process.
+System notify "transfer compleat".</t>
+  </si>
+  <si>
+    <t>transfer Successed</t>
+  </si>
+  <si>
+    <t>TransferError</t>
+  </si>
+  <si>
+    <t>ystem display transfer process.
+System notify "transfer error".</t>
+  </si>
+  <si>
+    <t>transfer failed</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Transfer whole medical file</t>
+  </si>
+  <si>
+    <t>Transfer whole medical file</t>
+  </si>
+  <si>
+    <t>Data Table:  Examination type</t>
+  </si>
+  <si>
+    <t>Examination code</t>
+  </si>
+  <si>
+    <t>Examination name</t>
+  </si>
+  <si>
+    <t>Electrocardiography</t>
+  </si>
+  <si>
+    <t>physiotherapy</t>
+  </si>
+  <si>
+    <t>Papilloma</t>
+  </si>
+  <si>
+    <t>sinusitis</t>
+  </si>
+  <si>
+    <t>Hearing test</t>
+  </si>
+  <si>
+    <t>orthodontics</t>
+  </si>
+  <si>
+    <t>psoriasis</t>
+  </si>
+  <si>
+    <t>Tova</t>
+  </si>
+  <si>
+    <t>Clinic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+In case the General Manager want to view specific report and System display successfully 
+the report.</t>
+  </si>
+  <si>
+    <t>In case the General Manager want to view last month report and System display successfully 
+the report.</t>
+  </si>
+  <si>
+    <t>General manager insert lower number then 1</t>
+  </si>
+  <si>
+    <t>General manager insert higher number then 11</t>
+  </si>
+  <si>
+    <t>General manager insert wrong variable type</t>
+  </si>
+  <si>
+    <t>System check all the mandatory fields.
+Requested field: Number is empty</t>
+  </si>
+  <si>
+    <t>In case General Manager press cancel on " kind of reports" window.</t>
+  </si>
+  <si>
+    <t>In case General Manager press  cancel on  "Spicific period report" window.</t>
+  </si>
+  <si>
+    <t>In case General manager insert the same date in both dates options.</t>
+  </si>
+  <si>
+    <t>General Manager insert wrong date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when the General manager insert wrong Variable type </t>
+  </si>
+  <si>
     <t xml:space="preserve">1.Open " kind of reports" window.
 2.Click "View 
 specific period report"
@@ -2749,7 +3323,7 @@
 4.Type First date: 
 5.Type Second date: 
 6.Click ok. 
-___________________________
+_______________________
 1.Open " kind of reports" window.
 2.Click "View 
 specific period report"
@@ -2757,7 +3331,7 @@
 4.Type First date: 13.5.13
 5.Type Second date: 
 6.Click ok. 
-___________________________
+_______________________
 1.Open " kind of reports" window.
 2.Click "View 
 specific period report"
@@ -2767,710 +3341,122 @@
 6.Click ok. </t>
   </si>
   <si>
-    <t>EmptyDate</t>
-  </si>
-  <si>
-    <t>System close the "specific period report" window and 
-return to "kind of reports" 
-windows.</t>
-  </si>
-  <si>
-    <t>1.Open " kind of reports" window.
-2.Click "View 
-specific period report"
-3.Open "specific period report" window.
-2.Click cancel</t>
-  </si>
-  <si>
-    <t>CancelSpecialView</t>
-  </si>
-  <si>
-    <t>System close the "Kind of reports" window and 
-return to "View reports" 
-windows.</t>
-  </si>
-  <si>
-    <t>1.Open " kind of reports" window.
-2.Click Cancel</t>
-  </si>
-  <si>
-    <t>CancelKindOfReport</t>
-  </si>
-  <si>
-    <t>Acceptance Testing for Use Case: View Last months</t>
-  </si>
-  <si>
-    <t>View Last months</t>
-  </si>
-  <si>
-    <t>system check if the number is 1 to 
-11 integer.
-System compute the N last 
-months according the current month.</t>
-  </si>
-  <si>
-    <t>System Present Monthly report details for  the N last months : Number of patients, Waiting time for service ,Waiting time for treatment,Number of costumers that left , Number of costumers that did not arrive and did not call to cancel appointment .  In addition the System will display the  Average,Minimum,Maximum,Standard deviation of the first details.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1.Open " kind of reports" window.
-2.Click "View 
-last months report"
-3.Open "last months report" window.
-4.Enter number: 4
-5.Click ok. </t>
-  </si>
-  <si>
-    <t>Nsuccessful</t>
-  </si>
-  <si>
-    <t>system check if the number is 1 to 
-11 integer.</t>
-  </si>
-  <si>
-    <t>System throws out a warning 
-message "Please, insert correct numer 
-between 1 -11!".
-A system cleans all fields of  
-"last months report" window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1.Open " kind of reports" window.
-2.Click "View 
-last months report"
-3.Open "last months report" window.
-4.Enter number: 0
-5.Click ok. </t>
-  </si>
-  <si>
-    <t>NLoewr</t>
-  </si>
-  <si>
-    <t>System throws out a warning 
-message "Please, insert correct numer 
-between 1 -11!".
-A system cleans all fields of " last months report" window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1.Open " kind of reports" window.
-2.Click "View 
-last months report"
-3.Open "last months report" window.
-4.Enter number: 14
-5.Click ok. </t>
-  </si>
-  <si>
-    <t>Nhigher</t>
-  </si>
-  <si>
-    <t>System throws out a warning 
-message "Please, insert correct variable between 1 -11!".
-A system cleans all fields of " last months report" window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Open " kind of reports" window.
-2.Click "View 
-last months report"
-3.Open "last months report" window.
-4.Enter number: a
-5.Click ok. </t>
-  </si>
-  <si>
-    <t>NwrongVariable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System throws out a warning 
-message "Please,fill all the necessary fields!".
+    <t>In case General Manager
+ press cancel on
+ " last months report" window.</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case:View branch report</t>
+  </si>
+  <si>
+    <t>View branch report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ViewReportsKind
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1.Open " kind of reports" window.
-2.Click "View 
-last months report"
-3.Open "last months report" window.
-4.Enter number: 
-5.Click ok. </t>
-  </si>
-  <si>
-    <t>EmtyN</t>
-  </si>
-  <si>
-    <t>System close the "last months report" window and return to "kind of reports" 
-windows.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Open " kind of reports" window.
-2.Click "View 
-last months report"
-3.Open "last months report" window.
-4.Enter number: 6
-5.Click Cancel. </t>
-  </si>
-  <si>
-    <t>CancelNview</t>
-  </si>
-  <si>
-    <t>Yakir Karandian</t>
-  </si>
-  <si>
-    <t>Assaf Tzarfati</t>
-  </si>
-  <si>
-    <t>shayscal90@gmail.com</t>
-  </si>
-  <si>
-    <t>yakir1114@gmail.com</t>
-  </si>
-  <si>
-    <t>rizraz2001@gmail.com</t>
-  </si>
-  <si>
-    <t>asaff19899@gmail.com</t>
-  </si>
-  <si>
-    <t>Group Number 1 / 4.4.16</t>
-  </si>
-  <si>
-    <t>Acceptance Testing for Use Case: Record Appointment</t>
-  </si>
-  <si>
-    <t>Record Appointment</t>
-  </si>
-  <si>
-    <t>RecordAppointment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open "Record Appointment" window.
-2. type: complainant  for Headache.
-3. Click save button.
-                                           </t>
-  </si>
-  <si>
-    <t>successfully saved in system</t>
-  </si>
-  <si>
-    <t>EmptyTextBox</t>
-  </si>
-  <si>
-    <t>1. Open "Record Appointment" window.
-2. type:
-3. Click save button.</t>
-  </si>
-  <si>
-    <t>System check the record filed isn't empty. System display error, cannot leave textbox empty. System return to Record Appointment windows.</t>
-  </si>
-  <si>
-    <t>in case the user clicks save without filling the textbox.</t>
-  </si>
-  <si>
-    <t>1. Open "Record Appointment" window.</t>
-  </si>
-  <si>
-    <t>Acceptance Testing for Use Case: View examination results</t>
-  </si>
-  <si>
-    <t>View examination results</t>
-  </si>
-  <si>
-    <t>ExaminationResults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open "View examination results" window.
-2. Choose: 3001 
-3. Click ok button.
-                                           </t>
-  </si>
-  <si>
-    <t>System checks available examination results for this client. System check if the choosen reference has result. System display examination results.</t>
-  </si>
-  <si>
-    <t>display examination results</t>
-  </si>
-  <si>
-    <t>NotSelectedReference</t>
-  </si>
-  <si>
-    <t>1. Open "View examination results" window.
-2. Choose: 
-3. Click ok button.</t>
-  </si>
-  <si>
-    <t>system check for valid choose. 
-Validation failed. System displays error message "must choose reference before continue". Return to View examination results screen.</t>
-  </si>
-  <si>
-    <t>in case the user clicks ok without choosing a reference</t>
-  </si>
-  <si>
-    <t>1. Open "View examination results" window.</t>
-  </si>
-  <si>
-    <t>ResultNotReady</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open "View examination results" window.
-2. Choose: 3004 
-3. Click ok button.
-                                           </t>
-  </si>
-  <si>
-    <t>System checks available examination results for this client. System displays error message "Lab worker didn't provide the results yet". Return to View examination results screen.</t>
-  </si>
-  <si>
-    <t>Lab worker didn't provide the results yet.</t>
-  </si>
-  <si>
-    <t>EmptyLabExaminations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open "View examination results" window.
-2. Click ok button.
-                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">system check for valid result. 
-Validation failed. System displays error message " there are no lab examinations". </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> there are no lab examinations.</t>
-  </si>
-  <si>
-    <t>Acceptance Testing for Use Case: End medical treatment</t>
-  </si>
-  <si>
-    <t>End medical treatment</t>
-  </si>
-  <si>
-    <t>EndProcess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open "End medical treatment" window.
-2. type price: 2000$ 
-3. Click enter button.
-4. Click ok button.
-                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">System ask for the cost of the treatment. System display the record of the appointment and the cost. System 2. SYSTEM sends a report to the doctor who create the reference,  a bill to the client's clinic, save report at client's medical file.
+    <t>ExitView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open "View reports" window.
+2.Click "View branch reports".
 </t>
   </si>
   <si>
-    <t xml:space="preserve">close treatment </t>
-  </si>
-  <si>
-    <t>1. Open "End medical treatment" window.
-2. type price: 
-3. Click enter button.</t>
-  </si>
-  <si>
-    <t>System ask for the cost of the treatment.
-system check for valid choose. 
-Validation failed. System displays error message "must insert price before continue". Return to End medical treatment screen.</t>
-  </si>
-  <si>
-    <t>in case the user clicks enter without insert a price</t>
-  </si>
-  <si>
-    <t>1. Open "End medical treatment" window.</t>
-  </si>
-  <si>
-    <t>System ask for the cost of the treatment.
-System checks if 3 min passed,
-System throws out a warning "Timed Out". System log out.</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open "End medical treatment" window.
-2. type price: 300$ 
-3. Click enter button.
-4. Click cancel button.
-                                           </t>
-  </si>
-  <si>
-    <t>System ask for the cost of the treatment.
-System display the record of the appointment and the cost.
-System cancel the process and return to
-End medical treatment screen and display " process canceled".</t>
-  </si>
-  <si>
-    <t>cancel Process</t>
-  </si>
-  <si>
-    <t>ReferenceFound</t>
-  </si>
-  <si>
-    <t>ReferenceNotInDB</t>
-  </si>
-  <si>
-    <t>AddExaminationResult</t>
-  </si>
-  <si>
-    <t>SuccessPictureAttached</t>
-  </si>
-  <si>
-    <t>SuccessPictureNotAttached</t>
-  </si>
-  <si>
-    <t>MissingExaminationFields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System checks that all required fields are filled. System checks for Reference with Patient ID , Specialist ID , Date that the user inserted.
-Reference Found, System Open "Show details Window". 
- </t>
-  </si>
-  <si>
-    <t>MissingRefDate</t>
-  </si>
-  <si>
-    <t>MissingRefID</t>
-  </si>
-  <si>
-    <t>MissingRefSpecialist</t>
-  </si>
-  <si>
-    <t>MissingIDAndDate</t>
-  </si>
-  <si>
-    <t>MissingIDAndSpecialist</t>
-  </si>
-  <si>
-    <t>MissingAllFields</t>
-  </si>
-  <si>
-    <t>MissingDateAndSpecialist</t>
-  </si>
-  <si>
-    <t>1. Open "Create  lab reference" window.
-2. Insert examination code: 2003
-3. Urgency: none
-4. comment: after period.
-5. Click ok button.</t>
-  </si>
-  <si>
-    <t>System checks that all required fields are filled. 
-System check for valid examination code.
-System display "created successfully".</t>
-  </si>
-  <si>
-    <t>1. Open "Create  lab reference" window.
-2. Insert examination code: 2003
-3. Urgency: none
-4. comment:
-5. Click ok button.</t>
-  </si>
-  <si>
-    <t>1. Open "Create  lab reference" window.
-2. Insert examination code: 2003
-3. Urgency: 
-4. comment: after period.
-5. Click ok button.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open "Create  lab reference" window.
-2. Insert examination code: 
-3. Urgency: none
-4. comment: after period.
-5. Click ok button.
+    <t xml:space="preserve">1.Open "View reports" window.
+2.Click "Exitl".
 </t>
   </si>
   <si>
-    <t>System checks that all required fields are filled. System reports about "Missing examination code".
-System asks the Specialist to insert examination code.</t>
-  </si>
-  <si>
-    <t>invalidExaminationCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open "Create  lab reference" window.
-2. Insert examination code: 12
-3. Urgency: none
-4. comment: after period.
-5. Click ok button.
+    <t>System open window "kind of reports"</t>
+  </si>
+  <si>
+    <t>System close the window.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System open
+ succecfully the window </t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case:  Weekly report</t>
+  </si>
+  <si>
+    <t>Weekly report</t>
+  </si>
+  <si>
+    <t>WeeklyReport</t>
+  </si>
+  <si>
+    <t>CancelWeeklyReport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open "kind of reports" window.
+2.Click "Weekly repot".
 </t>
   </si>
   <si>
-    <t>System checks that all required fields are filled. System reports about "invalid examination code".
-System asks the Specialist to insert valid examination code.</t>
-  </si>
-  <si>
-    <t>Invalid examination code</t>
-  </si>
-  <si>
-    <t>System check the record filed isn't empty. System save text and  appointment details System display "Saved successfully".</t>
-  </si>
-  <si>
-    <t>Acceptance Testing for Use Case: Transfer details</t>
-  </si>
-  <si>
-    <t>Transfer details</t>
-  </si>
-  <si>
-    <t>TransferDetails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open "Transfer details" window.
-2. choose: 1
-3. Click ok button.
-                                           </t>
-  </si>
-  <si>
-    <t>System ask to choose option.
- system check for valid choose.
-System transfer the whole file and display
-"transfer Succeeded".</t>
-  </si>
-  <si>
-    <t>transfer Succeeded.</t>
-  </si>
-  <si>
-    <t>WrongChoice</t>
-  </si>
-  <si>
-    <t>1. Open "Transfer details" window.
-2. choose: 4
-3. Click ok button.</t>
-  </si>
-  <si>
-    <t>System ask to choose option.
-system check for valid choose. 
-Validation failed. System displays error message "must number between 1-2 before continue". Return to Transfer details screen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in case the user clicks wrong choice </t>
-  </si>
-  <si>
-    <t>Acceptance Testing for Use Case: Report missing appointment</t>
-  </si>
-  <si>
-    <t>Report missing appointment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReportMissing </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open "Report missing appointment" window.
-2. choose: Yes
-3. Click ok button.
-                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">System ask to choose option.
- System check for valid choose.
-System report on missing appointment.
-</t>
-  </si>
-  <si>
-    <t>client didn't came</t>
-  </si>
-  <si>
-    <t>ReportByMistake</t>
-  </si>
-  <si>
-    <t>1. Open "Report missing appointment" window.
-2. choose: No
-3. Click ok button.</t>
-  </si>
-  <si>
-    <t>System ask to choose option.
-System check for valid choose.
-System cancel report on missing appointment.</t>
-  </si>
-  <si>
-    <t>in case the user clicks wrong option</t>
-  </si>
-  <si>
-    <t>Acceptance Testing for Use Case: Transfer specific details</t>
-  </si>
-  <si>
-    <t>Transfer specific details</t>
-  </si>
-  <si>
-    <t>FileTransfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                               </t>
-  </si>
-  <si>
-    <t>System display transfer process.
-System notify "transfer compleat".</t>
-  </si>
-  <si>
-    <t>transfer Successed</t>
-  </si>
-  <si>
-    <t>TransferError</t>
-  </si>
-  <si>
-    <t>ystem display transfer process.
-System notify "transfer error".</t>
-  </si>
-  <si>
-    <t>transfer failed</t>
-  </si>
-  <si>
-    <t>Acceptance Testing for Use Case: Transfer whole medical file</t>
-  </si>
-  <si>
-    <t>Transfer whole medical file</t>
-  </si>
-  <si>
-    <t>Data Table:  Examination type</t>
-  </si>
-  <si>
-    <t>Examination code</t>
-  </si>
-  <si>
-    <t>Examination name</t>
-  </si>
-  <si>
-    <t>Electrocardiography</t>
-  </si>
-  <si>
-    <t>physiotherapy</t>
-  </si>
-  <si>
-    <t>Papilloma</t>
-  </si>
-  <si>
-    <t>sinusitis</t>
-  </si>
-  <si>
-    <t>Hearing test</t>
-  </si>
-  <si>
-    <t>orthodontics</t>
-  </si>
-  <si>
-    <t>psoriasis</t>
-  </si>
-  <si>
-    <t>Tova</t>
-  </si>
-  <si>
-    <t>Clinic</t>
-  </si>
-  <si>
-    <t>Open "Insert Reference Details" Window
-Type Patient ID: 302632195
-Type Specialist ID: 1004
-Type Date : 
-Click OK button</t>
-  </si>
-  <si>
-    <t>Open "Insert Reference Details" Window
-Type Patient ID: 
-Type Specialist ID: 1004
-Type Date : 1.7.16
-Click OK button</t>
-  </si>
-  <si>
-    <t>System checks that all required 
-fields are filled.System reports that the field Type Date is missing.
-System ask to fill the missing field Reference Date,
-and try again.</t>
-  </si>
-  <si>
-    <t>System checks that all required 
-fields are filled.System reports that the field Type ID is missing.
-System ask to fill the missing field Reference ID,
-and try again.</t>
-  </si>
-  <si>
-    <t>Missing Required Field Referemce Date</t>
-  </si>
-  <si>
-    <t>Open "Insert Reference Details" Window
-Type Patient ID: 302632195
-Type Specialist ID: 
-Type Date : 1.7.16
-Click OK button</t>
-  </si>
-  <si>
-    <t>System checks that all required 
-fields are filled.System reports that the field Type Specialist ID is missing.
-System ask to fill the missing field Specialist ID,
-and try again.</t>
-  </si>
-  <si>
-    <t>Open "Insert Reference Details" Window
-Type Patient ID: 
-Type Specialist ID: 1004
-Type Date : 
-Click OK button</t>
-  </si>
-  <si>
-    <t>Open "Insert Reference Details" Window
-Type Patient ID: 
-Type Specialist ID: 
-Type Date : 1.7.16
-Click OK button</t>
-  </si>
-  <si>
-    <t>Open "Insert Reference Details" Window
-Type Patient ID: 302632195
-Type Specialist ID: 
-Type Date : 
-Click OK button</t>
-  </si>
-  <si>
-    <t>Open "Insert Reference Details" Window
-Type Patient ID: 
-Type Specialist ID: 
-Type Date :
-Click OK button</t>
-  </si>
-  <si>
-    <t>Missing Required Field Client's ID</t>
-  </si>
-  <si>
-    <t>Missing Required Field Specialist ID</t>
-  </si>
-  <si>
-    <t>Missing Required Fields Specialist ID And Client's ID</t>
-  </si>
-  <si>
-    <t>Missing Required Fields Specialist ID And Reference Date</t>
-  </si>
-  <si>
-    <t>Missing all required fields.</t>
-  </si>
-  <si>
-    <t>System checks that all required 
-fields are filled.System reports that the fields Type client's ID and reference date are missing.
-System ask to fill the missing field client's ID and reference date
-and try again.</t>
-  </si>
-  <si>
-    <t>System checks that all required 
-fields are filled.System reports that the fields Type specialist ID and reference date are missing.
-System ask to fill the missing field specialist ID and reference date
-and try again.</t>
-  </si>
-  <si>
-    <t>System checks that all required 
-fields are filled.System reports that the fields Type specialist ID and client's ID are missing.
-System ask to fill the missing field specialist ID and client's ID 
-and try again.</t>
-  </si>
-  <si>
-    <t>System checks that all required 
-fields are filled.System reports that the fields Type Specialist ID, reference date and client's ID are missing.
-System ask to fill the missing required fields.</t>
+    <t>1.Open "kind of reports" window.
+2.Click Cancel.</t>
+  </si>
+  <si>
+    <t>System open "Weekly report"
+ window and display the
+ Weekly report details according to the last week.
+System Present Weekly report details for each day:Number of patients,Waiting time for service ,Waiting time for treatment, Average,Minimum,Maximum,Standard deviation.</t>
+  </si>
+  <si>
+    <t>System close the  "kind of reports" window. and return to   "View reports"
+window.</t>
+  </si>
+  <si>
+    <t>In case  Manager want to view weekly report and System display successfully 
+the report.</t>
+  </si>
+  <si>
+    <t>In case Manager press cancel on " kind of reports" window.</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case:  Monthly report</t>
+  </si>
+  <si>
+    <t>Mounthly report</t>
+  </si>
+  <si>
+    <t>monthlyReport</t>
+  </si>
+  <si>
+    <t>CanceMonthlylReport</t>
+  </si>
+  <si>
+    <t>1.Open "kind of reports" window.
+2.Click "Monthly repot".</t>
+  </si>
+  <si>
+    <t>System open "Monthly report"
+ window and  display the
+ Monthly report details accordint to the last Month.
+System Present Monthly report details for each week :Number of patients,Waiting time for service ,Waiting time for treatment, Average,Minimum,Maximum,Standard deviation , Number of costumers that left , Number of costumers that did not arrive and did not call to cancel appointment.</t>
+  </si>
+  <si>
+    <t>System close the  "kind of reports"
+window and return to   "View reports"
+window.</t>
+  </si>
+  <si>
+    <t>In case  Manager want to view monthly report and System display successfully 
+the report.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3478,7 +3464,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3487,7 +3473,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3495,7 +3481,7 @@
       <b/>
       <u/>
       <sz val="14"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3503,20 +3489,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3524,7 +3510,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3533,7 +3519,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3541,7 +3527,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF002060"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3549,7 +3535,7 @@
       <b/>
       <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3557,7 +3543,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3565,7 +3551,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3574,14 +3560,14 @@
       <u/>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3589,7 +3575,7 @@
       <b/>
       <u/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3636,7 +3622,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -3925,17 +3911,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -3961,12 +3936,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4226,28 +4219,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -4261,14 +4233,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
@@ -4281,23 +4247,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4382,20 +4339,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4421,20 +4384,42 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4785,21 +4770,21 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="111" customFormat="1" ht="22.2" x14ac:dyDescent="0.7">
-      <c r="A2" s="112" t="s">
-        <v>459</v>
-      </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="112"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" s="102" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="103" t="s">
+        <v>448</v>
+      </c>
+      <c r="B2" s="104"/>
+      <c r="C2" s="103"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
@@ -4807,21 +4792,21 @@
         <v>302632195</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B4" s="14">
         <v>312143969</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
@@ -4829,18 +4814,18 @@
         <v>305003659</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B6" s="14">
         <v>200940997</v>
       </c>
-      <c r="C6" s="110" t="s">
-        <v>458</v>
+      <c r="C6" s="101" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -4863,24 +4848,24 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.47265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.47265625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.47265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>111</v>
       </c>
@@ -4909,7 +4894,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>113</v>
       </c>
@@ -4928,7 +4913,7 @@
       <c r="F4" s="18">
         <v>1001</v>
       </c>
-      <c r="G4" s="148" t="s">
+      <c r="G4" s="136" t="s">
         <v>131</v>
       </c>
       <c r="H4" s="18">
@@ -4938,7 +4923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
@@ -4957,7 +4942,7 @@
       <c r="F5" s="14">
         <v>1002</v>
       </c>
-      <c r="G5" s="149" t="s">
+      <c r="G5" s="137" t="s">
         <v>132</v>
       </c>
       <c r="H5" s="14">
@@ -4967,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>117</v>
       </c>
@@ -4986,7 +4971,7 @@
       <c r="F6" s="14">
         <v>1003</v>
       </c>
-      <c r="G6" s="149" t="s">
+      <c r="G6" s="137" t="s">
         <v>133</v>
       </c>
       <c r="H6" s="14">
@@ -4996,7 +4981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>118</v>
       </c>
@@ -5015,7 +5000,7 @@
       <c r="F7" s="14">
         <v>1004</v>
       </c>
-      <c r="G7" s="149" t="s">
+      <c r="G7" s="137" t="s">
         <v>135</v>
       </c>
       <c r="H7" s="14">
@@ -5025,7 +5010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>119</v>
       </c>
@@ -5044,7 +5029,7 @@
       <c r="F8" s="14">
         <v>1005</v>
       </c>
-      <c r="G8" s="149" t="s">
+      <c r="G8" s="137" t="s">
         <v>136</v>
       </c>
       <c r="H8" s="14">
@@ -5054,7 +5039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>121</v>
       </c>
@@ -5073,7 +5058,7 @@
       <c r="F9" s="14">
         <v>1006</v>
       </c>
-      <c r="G9" s="149" t="s">
+      <c r="G9" s="137" t="s">
         <v>137</v>
       </c>
       <c r="H9" s="14">
@@ -5083,7 +5068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>125</v>
       </c>
@@ -5102,7 +5087,7 @@
       <c r="F10" s="14">
         <v>1007</v>
       </c>
-      <c r="G10" s="149" t="s">
+      <c r="G10" s="137" t="s">
         <v>134</v>
       </c>
       <c r="H10" s="14">
@@ -5112,7 +5097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>164</v>
       </c>
@@ -5131,7 +5116,7 @@
       <c r="F11" s="14">
         <v>1008</v>
       </c>
-      <c r="G11" s="149" t="s">
+      <c r="G11" s="137" t="s">
         <v>159</v>
       </c>
       <c r="H11" s="14">
@@ -5141,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>166</v>
       </c>
@@ -5160,7 +5145,7 @@
       <c r="F12" s="14">
         <v>1009</v>
       </c>
-      <c r="G12" s="149" t="s">
+      <c r="G12" s="137" t="s">
         <v>160</v>
       </c>
       <c r="H12" s="14">
@@ -5170,7 +5155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>167</v>
       </c>
@@ -5189,7 +5174,7 @@
       <c r="F13" s="14">
         <v>1010</v>
       </c>
-      <c r="G13" s="149" t="s">
+      <c r="G13" s="137" t="s">
         <v>161</v>
       </c>
       <c r="H13" s="14">
@@ -5199,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>169</v>
       </c>
@@ -5218,7 +5203,7 @@
       <c r="F14" s="14">
         <v>1011</v>
       </c>
-      <c r="G14" s="149" t="s">
+      <c r="G14" s="137" t="s">
         <v>162</v>
       </c>
       <c r="H14" s="14">
@@ -5228,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>171</v>
       </c>
@@ -5247,7 +5232,7 @@
       <c r="F15" s="14">
         <v>1012</v>
       </c>
-      <c r="G15" s="149" t="s">
+      <c r="G15" s="137" t="s">
         <v>163</v>
       </c>
       <c r="H15" s="14">
@@ -5257,12 +5242,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>7</v>
       </c>
@@ -5276,7 +5261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>302632195</v>
       </c>
@@ -5286,11 +5271,11 @@
       <c r="C20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="136" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>200940997</v>
       </c>
@@ -5300,11 +5285,11 @@
       <c r="C21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="149" t="s">
+      <c r="D21" s="137" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>312143969</v>
       </c>
@@ -5314,11 +5299,11 @@
       <c r="C22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="149" t="s">
+      <c r="D22" s="137" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>305003659</v>
       </c>
@@ -5328,16 +5313,16 @@
       <c r="C23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="149" t="s">
+      <c r="D23" s="137" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>128</v>
       </c>
@@ -5348,7 +5333,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>1002</v>
       </c>
@@ -5359,7 +5344,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>1004</v>
       </c>
@@ -5370,7 +5355,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>1003</v>
       </c>
@@ -5381,7 +5366,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <v>1001</v>
       </c>
@@ -5392,90 +5377,90 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="36"/>
       <c r="B31" s="37"/>
       <c r="C31" s="38"/>
     </row>
-    <row r="32" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
         <v>237</v>
       </c>
       <c r="B33" s="43"/>
       <c r="C33" s="40"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B34" s="37"/>
       <c r="C34" s="41"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B35" s="37"/>
       <c r="C35" s="41"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B36" s="37"/>
       <c r="C36" s="41"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B37" s="37"/>
       <c r="C37" s="41"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>84</v>
       </c>
       <c r="B38" s="37"/>
       <c r="C38" s="41"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B39" s="37"/>
       <c r="C39" s="41"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B40" s="37"/>
       <c r="C40" s="41"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B41" s="37"/>
       <c r="C41" s="41"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="38"/>
       <c r="B42" s="37"/>
       <c r="C42" s="41"/>
     </row>
-    <row r="43" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="42" t="s">
         <v>89</v>
       </c>
@@ -5484,7 +5469,7 @@
       </c>
       <c r="C44" s="40"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>11</v>
       </c>
@@ -5493,7 +5478,7 @@
       </c>
       <c r="C45" s="41"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>22</v>
       </c>
@@ -5502,7 +5487,7 @@
       </c>
       <c r="C46" s="41"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>33</v>
       </c>
@@ -5511,7 +5496,7 @@
       </c>
       <c r="C47" s="41"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>44</v>
       </c>
@@ -5520,17 +5505,17 @@
       </c>
       <c r="C48" s="41"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="36"/>
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
     </row>
-    <row r="51" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>7</v>
       </c>
@@ -5541,7 +5526,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>302632195</v>
       </c>
@@ -5552,7 +5537,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>302632195</v>
       </c>
@@ -5563,7 +5548,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>302632195</v>
       </c>
@@ -5574,7 +5559,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>200940997</v>
       </c>
@@ -5585,7 +5570,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>200940997</v>
       </c>
@@ -5596,7 +5581,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>305003659</v>
       </c>
@@ -5607,7 +5592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>312143969</v>
       </c>
@@ -5618,7 +5603,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>305003659</v>
       </c>
@@ -5629,7 +5614,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>312143969</v>
       </c>
@@ -5640,12 +5625,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
         <v>73</v>
       </c>
@@ -5659,7 +5644,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="18">
         <v>1001</v>
       </c>
@@ -5673,7 +5658,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="18">
         <v>1001</v>
       </c>
@@ -5687,7 +5672,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="14">
         <v>1002</v>
       </c>
@@ -5701,7 +5686,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="18">
         <v>1001</v>
       </c>
@@ -5715,7 +5700,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="14">
         <v>1002</v>
       </c>
@@ -5729,7 +5714,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="14">
         <v>1004</v>
       </c>
@@ -5743,7 +5728,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="14">
         <v>1002</v>
       </c>
@@ -5757,7 +5742,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="14">
         <v>1004</v>
       </c>
@@ -5771,7 +5756,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="18">
         <v>1001</v>
       </c>
@@ -5785,7 +5770,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="18">
         <v>1001</v>
       </c>
@@ -5799,7 +5784,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="14">
         <v>1002</v>
       </c>
@@ -5813,7 +5798,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="18">
         <v>1001</v>
       </c>
@@ -5827,7 +5812,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="14">
         <v>1002</v>
       </c>
@@ -5841,7 +5826,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="14">
         <v>1004</v>
       </c>
@@ -5855,7 +5840,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="14">
         <v>1002</v>
       </c>
@@ -5869,7 +5854,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="14">
         <v>1004</v>
       </c>
@@ -5883,12 +5868,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
         <v>108</v>
       </c>
@@ -5902,7 +5887,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
         <v>302632195</v>
       </c>
@@ -5916,7 +5901,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="16">
         <v>302632195</v>
       </c>
@@ -5930,7 +5915,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>305003659</v>
       </c>
@@ -5944,7 +5929,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>305003659</v>
       </c>
@@ -5958,7 +5943,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>305003659</v>
       </c>
@@ -5972,7 +5957,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>312143969</v>
       </c>
@@ -5986,7 +5971,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>312143969</v>
       </c>
@@ -6000,12 +5985,12 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="63" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="64" t="s">
         <v>108</v>
       </c>
@@ -6025,7 +6010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="14">
         <v>302632195</v>
       </c>
@@ -6045,7 +6030,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="14">
         <v>305003659</v>
       </c>
@@ -6065,7 +6050,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="14">
         <v>200940997</v>
       </c>
@@ -6085,7 +6070,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="67"/>
       <c r="B98" s="67"/>
       <c r="C98" s="67"/>
@@ -6093,12 +6078,12 @@
       <c r="E98" s="67"/>
       <c r="F98" s="67"/>
     </row>
-    <row r="100" spans="1:6" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="63" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="65" t="s">
         <v>240</v>
       </c>
@@ -6109,7 +6094,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="14">
         <v>90000</v>
       </c>
@@ -6120,7 +6105,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="14">
         <v>90001</v>
       </c>
@@ -6131,7 +6116,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="14">
         <v>90002</v>
       </c>
@@ -6142,81 +6127,81 @@
         <v>249</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="44" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="B108" s="44" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="50">
         <v>2001</v>
       </c>
-      <c r="B109" s="145" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B109" s="133" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="48">
         <v>2002</v>
       </c>
-      <c r="B110" s="146" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B110" s="134" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="48">
         <v>2003</v>
       </c>
-      <c r="B111" s="146" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B111" s="134" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="48">
         <v>2004</v>
       </c>
-      <c r="B112" s="146" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B112" s="134" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="48">
         <v>2005</v>
       </c>
-      <c r="B113" s="146" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B113" s="134" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="48">
         <v>2006</v>
       </c>
-      <c r="B114" s="146" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B114" s="134" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="48">
         <v>2007</v>
       </c>
-      <c r="B115" s="146" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B115" s="134" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="48">
         <v>2008</v>
       </c>
-      <c r="B116" s="147" t="s">
-        <v>570</v>
+      <c r="B116" s="135" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -6247,25 +6232,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.33203125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="158" t="s">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="159"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="B1" s="153"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -6273,7 +6258,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
@@ -6281,13 +6266,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="22"/>
     </row>
-    <row r="5" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
@@ -6295,7 +6280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
@@ -6303,7 +6288,7 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
     </row>
-    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>14</v>
       </c>
@@ -6317,7 +6302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -6331,7 +6316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -6345,7 +6330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -6359,7 +6344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -6373,7 +6358,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -6387,14 +6372,14 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="158" t="s">
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="159"/>
-    </row>
-    <row r="18" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="B17" s="153"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>0</v>
       </c>
@@ -6402,7 +6387,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>1</v>
       </c>
@@ -6410,13 +6395,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="22"/>
     </row>
-    <row r="21" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>3</v>
       </c>
@@ -6424,7 +6409,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>13</v>
       </c>
@@ -6432,7 +6417,7 @@
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
     </row>
-    <row r="24" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>14</v>
       </c>
@@ -6446,7 +6431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
@@ -6460,7 +6445,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>49</v>
       </c>
@@ -6474,7 +6459,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
         <v>279</v>
       </c>
@@ -6488,7 +6473,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
         <v>281</v>
       </c>
@@ -6502,7 +6487,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
@@ -6516,7 +6501,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>51</v>
       </c>
@@ -6530,7 +6515,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>52</v>
       </c>
@@ -6544,7 +6529,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>23</v>
       </c>
@@ -6558,25 +6543,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="68"/>
       <c r="B33" s="69"/>
       <c r="C33" s="70"/>
       <c r="D33" s="71"/>
     </row>
-    <row r="34" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="68"/>
       <c r="B34" s="69"/>
       <c r="C34" s="70"/>
       <c r="D34" s="71"/>
     </row>
-    <row r="35" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="158" t="s">
+    <row r="35" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="159"/>
-    </row>
-    <row r="36" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="B35" s="153"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
         <v>0</v>
       </c>
@@ -6584,7 +6569,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="26" t="s">
         <v>1</v>
       </c>
@@ -6592,15 +6577,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="26" t="s">
         <v>3</v>
       </c>
@@ -6608,7 +6593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
         <v>13</v>
       </c>
@@ -6616,7 +6601,7 @@
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
     </row>
-    <row r="43" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>14</v>
       </c>
@@ -6630,7 +6615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>266</v>
       </c>
@@ -6644,7 +6629,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>267</v>
       </c>
@@ -6658,7 +6643,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="57" t="s">
         <v>328</v>
       </c>
@@ -6672,7 +6657,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="57" t="s">
         <v>268</v>
       </c>
@@ -6686,7 +6671,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>23</v>
       </c>
@@ -6700,25 +6685,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="68"/>
       <c r="B49" s="69"/>
       <c r="C49" s="70"/>
       <c r="D49" s="71"/>
     </row>
-    <row r="50" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="68"/>
       <c r="B50" s="69"/>
       <c r="C50" s="70"/>
       <c r="D50" s="71"/>
     </row>
-    <row r="51" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="158" t="s">
+    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="152" t="s">
         <v>259</v>
       </c>
-      <c r="B51" s="159"/>
-    </row>
-    <row r="52" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="B51" s="153"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
         <v>0</v>
       </c>
@@ -6726,7 +6711,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="26" t="s">
         <v>1</v>
       </c>
@@ -6734,13 +6719,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B54" s="22"/>
     </row>
-    <row r="55" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="26" t="s">
         <v>3</v>
       </c>
@@ -6748,11 +6733,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="73"/>
       <c r="B56" s="74"/>
     </row>
-    <row r="58" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
         <v>13</v>
       </c>
@@ -6760,7 +6745,7 @@
       <c r="C58" s="38"/>
       <c r="D58" s="39"/>
     </row>
-    <row r="59" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>14</v>
       </c>
@@ -6774,7 +6759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>182</v>
       </c>
@@ -6788,7 +6773,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>183</v>
       </c>
@@ -6802,7 +6787,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>185</v>
       </c>
@@ -6816,7 +6801,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>23</v>
       </c>
@@ -6830,14 +6815,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="66" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="158" t="s">
+    <row r="65" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="152" t="s">
         <v>190</v>
       </c>
-      <c r="B66" s="159"/>
-    </row>
-    <row r="67" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="B66" s="153"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="25" t="s">
         <v>0</v>
       </c>
@@ -6845,7 +6830,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="26" t="s">
         <v>1</v>
       </c>
@@ -6853,13 +6838,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="22"/>
     </row>
-    <row r="70" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="26" t="s">
         <v>3</v>
       </c>
@@ -6867,12 +6852,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
         <v>14</v>
       </c>
@@ -6886,7 +6871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>192</v>
       </c>
@@ -6900,7 +6885,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="96.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:4" ht="106" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>193</v>
       </c>
@@ -6914,7 +6899,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>200</v>
       </c>
@@ -6928,7 +6913,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>23</v>
       </c>
@@ -6942,14 +6927,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="80" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A80" s="158" t="s">
+    <row r="79" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="B80" s="159"/>
-    </row>
-    <row r="81" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="B80" s="153"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="25" t="s">
         <v>0</v>
       </c>
@@ -6957,7 +6942,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="26" t="s">
         <v>1</v>
       </c>
@@ -6965,13 +6950,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B83" s="22"/>
     </row>
-    <row r="84" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="26" t="s">
         <v>3</v>
       </c>
@@ -6979,12 +6964,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>14</v>
       </c>
@@ -6998,7 +6983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>210</v>
       </c>
@@ -7012,7 +6997,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="165.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:4" ht="166" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>212</v>
       </c>
@@ -7026,7 +7011,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="57" t="s">
         <v>214</v>
       </c>
@@ -7040,7 +7025,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>23</v>
       </c>
@@ -7054,14 +7039,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="94" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="158" t="s">
+    <row r="93" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="152" t="s">
         <v>198</v>
       </c>
-      <c r="B94" s="159"/>
-    </row>
-    <row r="95" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="B94" s="153"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="25" t="s">
         <v>0</v>
       </c>
@@ -7069,7 +7054,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="26" t="s">
         <v>1</v>
       </c>
@@ -7077,13 +7062,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B97" s="22"/>
     </row>
-    <row r="98" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="26" t="s">
         <v>3</v>
       </c>
@@ -7091,12 +7076,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="30" t="s">
         <v>14</v>
       </c>
@@ -7110,7 +7095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>217</v>
       </c>
@@ -7124,7 +7109,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="110.7" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:4" ht="106" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>229</v>
       </c>
@@ -7138,7 +7123,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>224</v>
       </c>
@@ -7152,7 +7137,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>23</v>
       </c>
@@ -7185,11 +7170,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
@@ -7197,13 +7182,13 @@
     <col min="4" max="4" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="158" t="s">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="152" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="159"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="B1" s="153"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -7211,7 +7196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
@@ -7219,27 +7204,27 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="77"/>
     </row>
-    <row r="5" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="78"/>
     </row>
-    <row r="6" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="75"/>
     </row>
-    <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
         <v>14</v>
       </c>
@@ -7253,7 +7238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="56.1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="80" t="s">
         <v>288</v>
       </c>
@@ -7267,7 +7252,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="83.7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A10" s="80" t="s">
         <v>291</v>
       </c>
@@ -7281,7 +7266,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" s="80" t="s">
         <v>293</v>
       </c>
@@ -7295,8 +7280,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
-      <c r="A12" s="162" t="s">
+    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A12" s="156" t="s">
         <v>296</v>
       </c>
       <c r="B12" s="82" t="s">
@@ -7305,32 +7290,32 @@
       <c r="C12" s="84" t="s">
         <v>333</v>
       </c>
-      <c r="D12" s="161" t="s">
+      <c r="D12" s="155" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="163"/>
+    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A13" s="157"/>
       <c r="B13" s="82" t="s">
         <v>297</v>
       </c>
       <c r="C13" s="82" t="s">
         <v>334</v>
       </c>
-      <c r="D13" s="161"/>
-    </row>
-    <row r="14" spans="1:4" ht="139.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="163"/>
+      <c r="D13" s="155"/>
+    </row>
+    <row r="14" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+      <c r="A14" s="157"/>
       <c r="B14" s="84" t="s">
         <v>298</v>
       </c>
       <c r="C14" s="82" t="s">
         <v>336</v>
       </c>
-      <c r="D14" s="161"/>
-    </row>
-    <row r="15" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="160" t="s">
+      <c r="D14" s="155"/>
+    </row>
+    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A15" s="154" t="s">
         <v>337</v>
       </c>
       <c r="B15" s="82" t="s">
@@ -7339,41 +7324,41 @@
       <c r="C15" s="84" t="s">
         <v>333</v>
       </c>
-      <c r="D15" s="161" t="s">
+      <c r="D15" s="155" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="97.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="160"/>
+    <row r="16" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+      <c r="A16" s="154"/>
       <c r="B16" s="82" t="s">
         <v>300</v>
       </c>
       <c r="C16" s="82" t="s">
         <v>335</v>
       </c>
-      <c r="D16" s="161"/>
-    </row>
-    <row r="17" spans="1:4" ht="27.9" x14ac:dyDescent="0.45">
-      <c r="A17" s="160"/>
+      <c r="D16" s="155"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="154"/>
       <c r="B17" s="82" t="s">
         <v>301</v>
       </c>
       <c r="C17" s="85" t="s">
         <v>302</v>
       </c>
-      <c r="D17" s="161"/>
-    </row>
-    <row r="18" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="160"/>
+      <c r="D17" s="155"/>
+    </row>
+    <row r="18" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="154"/>
       <c r="B18" s="82" t="s">
         <v>303</v>
       </c>
       <c r="C18" s="85" t="s">
         <v>304</v>
       </c>
-      <c r="D18" s="161"/>
-    </row>
-    <row r="19" spans="1:4" ht="56.1" x14ac:dyDescent="0.45">
+      <c r="D18" s="155"/>
+    </row>
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="81" t="s">
         <v>305</v>
       </c>
@@ -7387,7 +7372,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="56.1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="80" t="s">
         <v>308</v>
       </c>
@@ -7399,7 +7384,7 @@
       </c>
       <c r="D20" s="86"/>
     </row>
-    <row r="21" spans="1:4" ht="56.1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A21" s="80" t="s">
         <v>310</v>
       </c>
@@ -7413,7 +7398,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A22" s="80" t="s">
         <v>312</v>
       </c>
@@ -7444,25 +7429,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.47265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.33203125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="158" t="s">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="159"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="B1" s="153"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -7470,7 +7455,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
@@ -7478,13 +7463,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="22"/>
     </row>
-    <row r="5" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
@@ -7492,7 +7477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
@@ -7500,7 +7485,7 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
     </row>
-    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>14</v>
       </c>
@@ -7514,7 +7499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -7528,7 +7513,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -7542,7 +7527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -7556,7 +7541,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -7570,7 +7555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -7584,68 +7569,68 @@
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="164" t="s">
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="158" t="s">
         <v>341</v>
       </c>
-      <c r="B17" s="165"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-    </row>
-    <row r="18" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A18" s="125" t="s">
+      <c r="B17" s="159"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="126" t="s">
+      <c r="B18" s="114" t="s">
         <v>342</v>
       </c>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A19" s="127" t="s">
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="128" t="s">
+      <c r="B19" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A20" s="127" t="s">
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="128"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-    </row>
-    <row r="21" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A21" s="127" t="s">
+      <c r="B20" s="116"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="129" t="s">
+      <c r="B21" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="124"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-    </row>
-    <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A23" s="130" t="s">
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="112"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+    </row>
+    <row r="23" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="118" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="131"/>
-    </row>
-    <row r="24" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D23" s="119"/>
+    </row>
+    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>14</v>
       </c>
@@ -7659,77 +7644,77 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="69" x14ac:dyDescent="0.45">
-      <c r="A25" s="132" t="s">
+    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A25" s="120" t="s">
         <v>343</v>
       </c>
-      <c r="B25" s="133" t="s">
-        <v>518</v>
-      </c>
-      <c r="C25" s="133" t="s">
-        <v>519</v>
-      </c>
-      <c r="D25" s="134" t="s">
+      <c r="B25" s="121" t="s">
+        <v>507</v>
+      </c>
+      <c r="C25" s="121" t="s">
+        <v>508</v>
+      </c>
+      <c r="D25" s="122" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="69" x14ac:dyDescent="0.45">
-      <c r="A26" s="132" t="s">
+    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A26" s="120" t="s">
         <v>343</v>
       </c>
-      <c r="B26" s="133" t="s">
-        <v>520</v>
-      </c>
-      <c r="C26" s="133" t="s">
-        <v>519</v>
-      </c>
-      <c r="D26" s="134" t="s">
+      <c r="B26" s="121" t="s">
+        <v>509</v>
+      </c>
+      <c r="C26" s="121" t="s">
+        <v>508</v>
+      </c>
+      <c r="D26" s="122" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="69" x14ac:dyDescent="0.45">
-      <c r="A27" s="132" t="s">
+    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A27" s="120" t="s">
         <v>343</v>
       </c>
-      <c r="B27" s="133" t="s">
-        <v>521</v>
-      </c>
-      <c r="C27" s="133" t="s">
-        <v>519</v>
-      </c>
-      <c r="D27" s="134" t="s">
+      <c r="B27" s="121" t="s">
+        <v>510</v>
+      </c>
+      <c r="C27" s="121" t="s">
+        <v>508</v>
+      </c>
+      <c r="D27" s="122" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="82.8" x14ac:dyDescent="0.45">
-      <c r="A28" s="135" t="s">
+    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A28" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="136" t="s">
-        <v>522</v>
-      </c>
-      <c r="C28" s="136" t="s">
-        <v>523</v>
-      </c>
-      <c r="D28" s="137" t="s">
+      <c r="B28" s="124" t="s">
+        <v>511</v>
+      </c>
+      <c r="C28" s="124" t="s">
+        <v>512</v>
+      </c>
+      <c r="D28" s="125" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="135" t="s">
-        <v>524</v>
-      </c>
-      <c r="B29" s="136" t="s">
-        <v>525</v>
-      </c>
-      <c r="C29" s="136" t="s">
-        <v>526</v>
-      </c>
-      <c r="D29" s="137" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="123" t="s">
+        <v>513</v>
+      </c>
+      <c r="B29" s="124" t="s">
+        <v>514</v>
+      </c>
+      <c r="C29" s="124" t="s">
+        <v>515</v>
+      </c>
+      <c r="D29" s="125" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>23</v>
       </c>
@@ -7743,14 +7728,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="33" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="158" t="s">
+    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="152" t="s">
         <v>345</v>
       </c>
-      <c r="B33" s="159"/>
-    </row>
-    <row r="34" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="B33" s="153"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
         <v>0</v>
       </c>
@@ -7758,7 +7743,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
         <v>1</v>
       </c>
@@ -7766,13 +7751,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="22"/>
     </row>
-    <row r="37" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="26" t="s">
         <v>3</v>
       </c>
@@ -7780,7 +7765,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>13</v>
       </c>
@@ -7788,7 +7773,7 @@
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
     </row>
-    <row r="39" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>14</v>
       </c>
@@ -7802,7 +7787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>347</v>
       </c>
@@ -7816,7 +7801,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>351</v>
       </c>
@@ -7830,7 +7815,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>23</v>
       </c>
@@ -7844,22 +7829,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="45" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="158" t="s">
-        <v>460</v>
-      </c>
-      <c r="B45" s="159"/>
-    </row>
-    <row r="46" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="152" t="s">
+        <v>449</v>
+      </c>
+      <c r="B45" s="153"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="26" t="s">
         <v>1</v>
       </c>
@@ -7867,13 +7852,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="22"/>
     </row>
-    <row r="49" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="26" t="s">
         <v>3</v>
       </c>
@@ -7881,15 +7866,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="73"/>
       <c r="B50" s="74"/>
     </row>
-    <row r="51" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="73"/>
       <c r="B51" s="74"/>
     </row>
-    <row r="52" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>13</v>
       </c>
@@ -7897,7 +7882,7 @@
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
     </row>
-    <row r="53" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>14</v>
       </c>
@@ -7911,40 +7896,40 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>27</v>
@@ -7953,22 +7938,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="59" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="158" t="s">
-        <v>470</v>
-      </c>
-      <c r="B59" s="159"/>
-    </row>
-    <row r="60" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="152" t="s">
+        <v>459</v>
+      </c>
+      <c r="B59" s="153"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="26" t="s">
         <v>1</v>
       </c>
@@ -7976,13 +7961,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B62" s="22"/>
     </row>
-    <row r="63" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="26" t="s">
         <v>3</v>
       </c>
@@ -7990,15 +7975,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="73"/>
       <c r="B64" s="74"/>
     </row>
-    <row r="65" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="73"/>
       <c r="B65" s="74"/>
     </row>
-    <row r="66" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="20" t="s">
         <v>13</v>
       </c>
@@ -8006,7 +7991,7 @@
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
     </row>
-    <row r="67" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
         <v>14</v>
       </c>
@@ -8020,40 +8005,40 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>27</v>
@@ -8062,50 +8047,50 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="115" t="s">
-        <v>481</v>
+    <row r="71" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="106" t="s">
+        <v>470</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="D71" s="34" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="116" t="s">
-        <v>485</v>
-      </c>
-      <c r="B72" s="117" t="s">
-        <v>486</v>
-      </c>
-      <c r="C72" s="117" t="s">
-        <v>487</v>
-      </c>
-      <c r="D72" s="118" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="75" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="158" t="s">
-        <v>489</v>
-      </c>
-      <c r="B75" s="159"/>
-    </row>
-    <row r="76" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="107" t="s">
+        <v>474</v>
+      </c>
+      <c r="B72" s="108" t="s">
+        <v>475</v>
+      </c>
+      <c r="C72" s="108" t="s">
+        <v>476</v>
+      </c>
+      <c r="D72" s="109" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="152" t="s">
+        <v>478</v>
+      </c>
+      <c r="B75" s="153"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="26" t="s">
         <v>1</v>
       </c>
@@ -8113,15 +8098,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="26" t="s">
         <v>3</v>
       </c>
@@ -8129,15 +8114,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="73"/>
       <c r="B80" s="74"/>
     </row>
-    <row r="81" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="73"/>
       <c r="B81" s="74"/>
     </row>
-    <row r="82" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="20" t="s">
         <v>13</v>
       </c>
@@ -8145,7 +8130,7 @@
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
     </row>
-    <row r="83" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
         <v>14</v>
       </c>
@@ -8159,78 +8144,78 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="110.7" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:4" ht="106" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="96.9" thickBot="1" x14ac:dyDescent="0.5">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="110.7" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A87" s="115" t="s">
-        <v>500</v>
+    <row r="87" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="106" t="s">
+        <v>489</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="D87" s="34" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="90" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A90" s="158" t="s">
-        <v>529</v>
-      </c>
-      <c r="B90" s="159"/>
-    </row>
-    <row r="91" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="152" t="s">
+        <v>518</v>
+      </c>
+      <c r="B90" s="153"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="26" t="s">
         <v>1</v>
       </c>
@@ -8238,13 +8223,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B93" s="22"/>
     </row>
-    <row r="94" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="26" t="s">
         <v>3</v>
       </c>
@@ -8252,15 +8237,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="73"/>
       <c r="B95" s="74"/>
     </row>
-    <row r="96" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="73"/>
       <c r="B96" s="74"/>
     </row>
-    <row r="97" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="20" t="s">
         <v>13</v>
       </c>
@@ -8268,7 +8253,7 @@
       <c r="C97" s="19"/>
       <c r="D97" s="19"/>
     </row>
-    <row r="98" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
         <v>14</v>
       </c>
@@ -8282,64 +8267,64 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="104" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A104" s="158" t="s">
-        <v>539</v>
-      </c>
-      <c r="B104" s="159"/>
-    </row>
-    <row r="105" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="152" t="s">
+        <v>528</v>
+      </c>
+      <c r="B104" s="153"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="26" t="s">
         <v>1</v>
       </c>
@@ -8347,13 +8332,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B107" s="22"/>
     </row>
-    <row r="108" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="26" t="s">
         <v>3</v>
       </c>
@@ -8361,11 +8346,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="144" customFormat="1" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A109" s="143"/>
+    <row r="109" spans="1:4" s="132" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="131"/>
       <c r="B109" s="74"/>
     </row>
-    <row r="111" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
         <v>13</v>
       </c>
@@ -8373,7 +8358,7 @@
       <c r="C111" s="19"/>
       <c r="D111" s="19"/>
     </row>
-    <row r="112" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
         <v>14</v>
       </c>
@@ -8387,64 +8372,64 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="D115" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="118" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A118" s="158" t="s">
-        <v>549</v>
-      </c>
-      <c r="B118" s="159"/>
-    </row>
-    <row r="119" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="152" t="s">
+        <v>538</v>
+      </c>
+      <c r="B118" s="153"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="26" t="s">
         <v>1</v>
       </c>
@@ -8452,23 +8437,23 @@
         <v>114</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
         <v>13</v>
       </c>
@@ -8476,7 +8461,7 @@
       <c r="C125" s="19"/>
       <c r="D125" s="19"/>
     </row>
-    <row r="126" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
         <v>14</v>
       </c>
@@ -8490,48 +8475,48 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A127" s="138" t="s">
-        <v>551</v>
-      </c>
-      <c r="B127" s="139" t="s">
-        <v>552</v>
-      </c>
-      <c r="C127" s="139" t="s">
-        <v>553</v>
-      </c>
-      <c r="D127" s="140" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A128" s="114" t="s">
-        <v>555</v>
-      </c>
-      <c r="B128" s="141"/>
-      <c r="C128" s="141" t="s">
-        <v>556</v>
-      </c>
-      <c r="D128" s="142" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="131" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A131" s="158" t="s">
-        <v>558</v>
-      </c>
-      <c r="B131" s="159"/>
-    </row>
-    <row r="132" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A127" s="126" t="s">
+        <v>540</v>
+      </c>
+      <c r="B127" s="127" t="s">
+        <v>541</v>
+      </c>
+      <c r="C127" s="127" t="s">
+        <v>542</v>
+      </c>
+      <c r="D127" s="128" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A128" s="105" t="s">
+        <v>544</v>
+      </c>
+      <c r="B128" s="129"/>
+      <c r="C128" s="129" t="s">
+        <v>545</v>
+      </c>
+      <c r="D128" s="130" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="152" t="s">
+        <v>547</v>
+      </c>
+      <c r="B131" s="153"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="26" t="s">
         <v>1</v>
       </c>
@@ -8539,23 +8524,23 @@
         <v>114</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B134" s="22" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="20" t="s">
         <v>13</v>
       </c>
@@ -8563,7 +8548,7 @@
       <c r="C137" s="19"/>
       <c r="D137" s="19"/>
     </row>
-    <row r="138" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="30" t="s">
         <v>14</v>
       </c>
@@ -8577,30 +8562,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A139" s="138" t="s">
-        <v>551</v>
-      </c>
-      <c r="B139" s="139" t="s">
-        <v>552</v>
-      </c>
-      <c r="C139" s="139" t="s">
-        <v>553</v>
-      </c>
-      <c r="D139" s="140" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A140" s="114" t="s">
-        <v>555</v>
-      </c>
-      <c r="B140" s="141"/>
-      <c r="C140" s="141" t="s">
-        <v>556</v>
-      </c>
-      <c r="D140" s="142" t="s">
-        <v>557</v>
+    <row r="139" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A139" s="126" t="s">
+        <v>540</v>
+      </c>
+      <c r="B139" s="127" t="s">
+        <v>541</v>
+      </c>
+      <c r="C139" s="127" t="s">
+        <v>542</v>
+      </c>
+      <c r="D139" s="128" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A140" s="105" t="s">
+        <v>544</v>
+      </c>
+      <c r="B140" s="129"/>
+      <c r="C140" s="129" t="s">
+        <v>545</v>
+      </c>
+      <c r="D140" s="130" t="s">
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -8625,55 +8610,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="50" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.80859375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A1" s="166" t="s">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="168" t="s">
         <v>356</v>
       </c>
-      <c r="B1" s="166"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A2" s="94" t="s">
+      <c r="B1" s="169"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="167" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="99" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A3" s="94" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="93" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="66" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A4" s="94" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="93" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="66"/>
     </row>
-    <row r="5" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A5" s="94" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="96" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
@@ -8681,197 +8666,198 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
     </row>
-    <row r="9" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A9" s="95" t="s">
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
-      <c r="A10" s="93" t="s">
+    <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A10" s="126" t="s">
+        <v>493</v>
+      </c>
+      <c r="B10" s="128" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" s="130" t="s">
+        <v>499</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A11" s="143" t="s">
+        <v>494</v>
+      </c>
+      <c r="B11" s="128" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" s="130" t="s">
+        <v>499</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A12" s="143" t="s">
+        <v>500</v>
+      </c>
+      <c r="B12" s="128" t="s">
+        <v>359</v>
+      </c>
+      <c r="C12" s="130" t="s">
+        <v>499</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A13" s="143" t="s">
+        <v>501</v>
+      </c>
+      <c r="B13" s="128" t="s">
+        <v>359</v>
+      </c>
+      <c r="C13" s="130" t="s">
+        <v>499</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A14" s="143" t="s">
+        <v>502</v>
+      </c>
+      <c r="B14" s="128" t="s">
+        <v>359</v>
+      </c>
+      <c r="C14" s="130" t="s">
+        <v>499</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A15" s="143" t="s">
+        <v>503</v>
+      </c>
+      <c r="B15" s="128" t="s">
+        <v>359</v>
+      </c>
+      <c r="C15" s="130" t="s">
+        <v>499</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A16" s="143" t="s">
         <v>504</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B16" s="128" t="s">
         <v>359</v>
       </c>
-      <c r="C10" s="84" t="s">
-        <v>510</v>
-      </c>
-      <c r="D10" s="86" t="s">
+      <c r="C16" s="130" t="s">
+        <v>499</v>
+      </c>
+      <c r="D16" s="50" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="179.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="93" t="s">
+    <row r="17" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A17" s="143" t="s">
+        <v>506</v>
+      </c>
+      <c r="B17" s="128" t="s">
+        <v>359</v>
+      </c>
+      <c r="C17" s="130" t="s">
+        <v>499</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A18" s="143" t="s">
         <v>505</v>
       </c>
-      <c r="B11" s="84" t="s">
-        <v>361</v>
-      </c>
-      <c r="C11" s="99" t="s">
+      <c r="B18" s="128" t="s">
+        <v>359</v>
+      </c>
+      <c r="C18" s="130" t="s">
+        <v>499</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A19" s="143" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="128" t="s">
+        <v>359</v>
+      </c>
+      <c r="C19" s="130" t="s">
+        <v>499</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="168" t="s">
         <v>362</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="B22" s="169"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="167" t="s">
+        <v>357</v>
+      </c>
+      <c r="B23" s="99" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
-      <c r="A12" s="93" t="s">
-        <v>511</v>
-      </c>
-      <c r="B12" s="84" t="s">
-        <v>572</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>574</v>
-      </c>
-      <c r="D12" s="86" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="114" t="s">
-        <v>512</v>
-      </c>
-      <c r="B13" s="84" t="s">
-        <v>573</v>
-      </c>
-      <c r="C13" s="84" t="s">
-        <v>575</v>
-      </c>
-      <c r="D13" s="86" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
-      <c r="A14" s="114" t="s">
-        <v>513</v>
-      </c>
-      <c r="B14" s="84" t="s">
-        <v>577</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>578</v>
-      </c>
-      <c r="D14" s="86" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="138" x14ac:dyDescent="0.45">
-      <c r="A15" s="114" t="s">
-        <v>514</v>
-      </c>
-      <c r="B15" s="84" t="s">
-        <v>579</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>588</v>
-      </c>
-      <c r="D15" s="86" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
-      <c r="A16" s="114" t="s">
-        <v>515</v>
-      </c>
-      <c r="B16" s="84" t="s">
-        <v>580</v>
-      </c>
-      <c r="C16" s="84" t="s">
-        <v>590</v>
-      </c>
-      <c r="D16" s="86" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="138" x14ac:dyDescent="0.45">
-      <c r="A17" s="114" t="s">
-        <v>517</v>
-      </c>
-      <c r="B17" s="84" t="s">
-        <v>581</v>
-      </c>
-      <c r="C17" s="84" t="s">
-        <v>589</v>
-      </c>
-      <c r="D17" s="86" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
-      <c r="A18" s="114" t="s">
-        <v>516</v>
-      </c>
-      <c r="B18" s="84" t="s">
-        <v>582</v>
-      </c>
-      <c r="C18" s="84" t="s">
-        <v>591</v>
-      </c>
-      <c r="D18" s="86" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
-      <c r="A19" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="87" t="s">
-        <v>365</v>
-      </c>
-      <c r="C19" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="86" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A22" s="166" t="s">
-        <v>366</v>
-      </c>
-      <c r="B22" s="166"/>
-    </row>
-    <row r="23" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A23" s="94" t="s">
-        <v>357</v>
-      </c>
-      <c r="B23" s="66" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A24" s="94" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="93" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="66" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A25" s="94" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="93" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="66"/>
     </row>
-    <row r="26" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A26" s="94" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="96" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>13</v>
       </c>
@@ -8879,85 +8865,86 @@
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
     </row>
-    <row r="30" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A30" s="95" t="s">
+    <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="96" t="s">
+      <c r="B30" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="97" t="s">
+      <c r="C30" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="98" t="s">
+      <c r="D30" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="41.4" x14ac:dyDescent="0.45">
-      <c r="A31" s="93" t="s">
-        <v>506</v>
-      </c>
-      <c r="B31" s="120" t="s">
-        <v>369</v>
-      </c>
-      <c r="C31" s="99" t="s">
-        <v>370</v>
-      </c>
-      <c r="D31" s="121" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
-      <c r="A32" s="93" t="s">
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A31" s="126" t="s">
+        <v>495</v>
+      </c>
+      <c r="B31" s="128" t="s">
+        <v>365</v>
+      </c>
+      <c r="C31" s="171" t="s">
+        <v>366</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A32" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="119" t="s">
-        <v>372</v>
-      </c>
-      <c r="C32" s="99" t="s">
+      <c r="B32" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="C32" s="172" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A35" s="100" t="s">
-        <v>373</v>
-      </c>
-      <c r="B35" s="100"/>
-    </row>
-    <row r="36" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A36" s="94" t="s">
+    <row r="34" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="162" t="s">
+        <v>369</v>
+      </c>
+      <c r="B35" s="163"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="167" t="s">
         <v>357</v>
       </c>
-      <c r="B36" s="66" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A37" s="94" t="s">
+      <c r="B36" s="99" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="93" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="66" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A38" s="94" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="93" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="66"/>
     </row>
-    <row r="39" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A39" s="101" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="122" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B39" s="110" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
         <v>13</v>
       </c>
@@ -8965,113 +8952,114 @@
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
     </row>
-    <row r="42" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A42" s="95" t="s">
+    <row r="42" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="96" t="s">
+      <c r="B42" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="97" t="s">
+      <c r="C42" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="98" t="s">
+      <c r="D42" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
-      <c r="A43" s="102" t="s">
-        <v>507</v>
-      </c>
-      <c r="B43" s="84" t="s">
+    <row r="43" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+      <c r="A43" s="151" t="s">
+        <v>496</v>
+      </c>
+      <c r="B43" s="128" t="s">
+        <v>371</v>
+      </c>
+      <c r="C43" s="128" t="s">
+        <v>372</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A44" s="95" t="s">
+        <v>497</v>
+      </c>
+      <c r="B44" s="130" t="s">
+        <v>374</v>
+      </c>
+      <c r="C44" s="130" t="s">
         <v>375</v>
       </c>
-      <c r="C43" s="84" t="s">
+      <c r="D44" s="48" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A45" s="143" t="s">
+        <v>498</v>
+      </c>
+      <c r="B45" s="130" t="s">
         <v>376</v>
       </c>
-      <c r="D43" s="86" t="s">
+      <c r="C45" s="130" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="69" x14ac:dyDescent="0.45">
-      <c r="A44" s="102" t="s">
-        <v>508</v>
-      </c>
-      <c r="B44" s="84" t="s">
+      <c r="D45" s="48" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A46" s="143" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="48" t="s">
         <v>378</v>
       </c>
-      <c r="C44" s="84" t="s">
+      <c r="C46" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="168" t="s">
         <v>379</v>
       </c>
-      <c r="D44" s="86" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
-      <c r="A45" s="93" t="s">
-        <v>509</v>
-      </c>
-      <c r="B45" s="84" t="s">
+      <c r="B49" s="169"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="167" t="s">
+        <v>357</v>
+      </c>
+      <c r="B50" s="99" t="s">
         <v>380</v>
       </c>
-      <c r="C45" s="84" t="s">
-        <v>381</v>
-      </c>
-      <c r="D45" s="86" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
-      <c r="A46" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="87" t="s">
-        <v>382</v>
-      </c>
-      <c r="C46" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="86" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A49" s="166" t="s">
-        <v>383</v>
-      </c>
-      <c r="B49" s="166"/>
-    </row>
-    <row r="50" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A50" s="94" t="s">
-        <v>357</v>
-      </c>
-      <c r="B50" s="66" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A51" s="94" t="s">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="93" t="s">
         <v>1</v>
       </c>
       <c r="B51" s="66" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A52" s="94" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="93" t="s">
         <v>2</v>
       </c>
       <c r="B52" s="66"/>
     </row>
-    <row r="53" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="123" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B53" s="111" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20" t="s">
         <v>13</v>
       </c>
@@ -9079,67 +9067,68 @@
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
     </row>
-    <row r="56" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A56" s="95" t="s">
+    <row r="56" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="96" t="s">
+      <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="97" t="s">
+      <c r="C56" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="98" t="s">
+      <c r="D56" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
-      <c r="A57" s="93" t="s">
+    <row r="57" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+      <c r="A57" s="126" t="s">
+        <v>381</v>
+      </c>
+      <c r="B57" s="128" t="s">
+        <v>382</v>
+      </c>
+      <c r="C57" s="128" t="s">
+        <v>383</v>
+      </c>
+      <c r="D57" s="50" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+      <c r="A58" s="143" t="s">
+        <v>384</v>
+      </c>
+      <c r="B58" s="130" t="s">
         <v>385</v>
       </c>
-      <c r="B57" s="84" t="s">
+      <c r="C58" s="130" t="s">
         <v>386</v>
       </c>
-      <c r="C57" s="84" t="s">
+      <c r="D58" s="48" t="s">
         <v>387</v>
       </c>
-      <c r="D57" s="86" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="96.6" x14ac:dyDescent="0.45">
-      <c r="A58" s="93" t="s">
+    </row>
+    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A59" s="143" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="48" t="s">
         <v>388</v>
       </c>
-      <c r="B58" s="84" t="s">
-        <v>389</v>
-      </c>
-      <c r="C58" s="84" t="s">
-        <v>390</v>
-      </c>
-      <c r="D58" s="86" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
-      <c r="A59" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" s="87" t="s">
-        <v>392</v>
-      </c>
-      <c r="C59" s="84" t="s">
+      <c r="C59" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="86" t="s">
+      <c r="D59" s="48" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A35:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9149,33 +9138,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="167" t="s">
-        <v>393</v>
-      </c>
-      <c r="B1" s="167"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="108" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="160" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="160"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="99" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="108" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B2" s="99" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
@@ -9183,82 +9172,82 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="66"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="96" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="109" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="100" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
-      <c r="A10" s="107" t="s">
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A10" s="98" t="s">
+        <v>394</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="98" t="s">
         <v>398</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B11" s="89" t="s">
         <v>397</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C11" s="89" t="s">
         <v>396</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D11" s="89" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A11" s="107" t="s">
-        <v>402</v>
-      </c>
-      <c r="B11" s="89" t="s">
-        <v>401</v>
-      </c>
-      <c r="C11" s="89" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="160" t="s">
+        <v>399</v>
+      </c>
+      <c r="B14" s="160"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="99" t="s">
+        <v>357</v>
+      </c>
+      <c r="B15" s="99" t="s">
         <v>400</v>
       </c>
-      <c r="D11" s="89" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="167" t="s">
-        <v>403</v>
-      </c>
-      <c r="B14" s="167"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="108" t="s">
-        <v>357</v>
-      </c>
-      <c r="B15" s="108" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="66" t="s">
         <v>1</v>
       </c>
@@ -9266,152 +9255,152 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="66"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="103" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="96" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="109" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="109" t="s">
+      <c r="B22" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="109" t="s">
+      <c r="D22" s="100" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="220.8" x14ac:dyDescent="0.45">
-      <c r="A23" s="107" t="s">
+    <row r="23" spans="1:4" ht="225" x14ac:dyDescent="0.2">
+      <c r="A23" s="98" t="s">
+        <v>403</v>
+      </c>
+      <c r="B23" s="139" t="s">
+        <v>402</v>
+      </c>
+      <c r="C23" s="139" t="s">
+        <v>401</v>
+      </c>
+      <c r="D23" s="139" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+      <c r="A24" s="98" t="s">
+        <v>406</v>
+      </c>
+      <c r="B24" s="139" t="s">
+        <v>405</v>
+      </c>
+      <c r="C24" s="139" t="s">
+        <v>404</v>
+      </c>
+      <c r="D24" s="139" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="195" x14ac:dyDescent="0.2">
+      <c r="A25" s="98" t="s">
+        <v>409</v>
+      </c>
+      <c r="B25" s="139" t="s">
         <v>408</v>
       </c>
-      <c r="B23" s="151" t="s">
+      <c r="C25" s="140" t="s">
         <v>407</v>
       </c>
-      <c r="C23" s="151" t="s">
-        <v>406</v>
-      </c>
-      <c r="D23" s="151" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
-      <c r="A24" s="107" t="s">
+      <c r="D25" s="139" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+      <c r="A26" s="98" t="s">
         <v>412</v>
       </c>
-      <c r="B24" s="151" t="s">
+      <c r="B26" s="139" t="s">
         <v>411</v>
       </c>
-      <c r="C24" s="151" t="s">
+      <c r="C26" s="139" t="s">
         <v>410</v>
       </c>
-      <c r="D24" s="151" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="193.2" x14ac:dyDescent="0.45">
-      <c r="A25" s="107" t="s">
+      <c r="D26" s="139" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="409" x14ac:dyDescent="0.2">
+      <c r="A27" s="97" t="s">
+        <v>415</v>
+      </c>
+      <c r="B27" s="139" t="s">
+        <v>572</v>
+      </c>
+      <c r="C27" s="139" t="s">
+        <v>414</v>
+      </c>
+      <c r="D27" s="139" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+      <c r="A28" s="97" t="s">
+        <v>418</v>
+      </c>
+      <c r="B28" s="139" t="s">
+        <v>417</v>
+      </c>
+      <c r="C28" s="139" t="s">
         <v>416</v>
       </c>
-      <c r="B25" s="151" t="s">
-        <v>415</v>
-      </c>
-      <c r="C25" s="152" t="s">
-        <v>414</v>
-      </c>
-      <c r="D25" s="151" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
-      <c r="A26" s="107" t="s">
+      <c r="D28" s="139" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A29" s="97" t="s">
+        <v>421</v>
+      </c>
+      <c r="B29" s="139" t="s">
         <v>420</v>
       </c>
-      <c r="B26" s="151" t="s">
+      <c r="C29" s="139" t="s">
         <v>419</v>
       </c>
-      <c r="C26" s="151" t="s">
-        <v>418</v>
-      </c>
-      <c r="D26" s="151" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="106" t="s">
-        <v>424</v>
-      </c>
-      <c r="B27" s="151" t="s">
+      <c r="D29" s="139" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="161" t="s">
+        <v>422</v>
+      </c>
+      <c r="B33" s="161"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="99" t="s">
+        <v>357</v>
+      </c>
+      <c r="B34" s="99" t="s">
         <v>423</v>
       </c>
-      <c r="C27" s="151" t="s">
-        <v>422</v>
-      </c>
-      <c r="D27" s="151" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="96.6" x14ac:dyDescent="0.45">
-      <c r="A28" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="B28" s="151" t="s">
-        <v>426</v>
-      </c>
-      <c r="C28" s="151" t="s">
-        <v>425</v>
-      </c>
-      <c r="D28" s="151" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
-      <c r="A29" s="106" t="s">
-        <v>430</v>
-      </c>
-      <c r="B29" s="151" t="s">
-        <v>429</v>
-      </c>
-      <c r="C29" s="151" t="s">
-        <v>428</v>
-      </c>
-      <c r="D29" s="151" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="168" t="s">
-        <v>431</v>
-      </c>
-      <c r="B33" s="168"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="108" t="s">
-        <v>357</v>
-      </c>
-      <c r="B34" s="108" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="66" t="s">
         <v>1</v>
       </c>
@@ -9419,133 +9408,135 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="66"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="103" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="96" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" s="109" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="109" t="s">
+      <c r="B41" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="109" t="s">
+      <c r="C41" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="109" t="s">
+      <c r="D41" s="100" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="248.4" x14ac:dyDescent="0.45">
-      <c r="A42" s="107" t="s">
+    <row r="42" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A42" s="98" t="s">
+        <v>426</v>
+      </c>
+      <c r="B42" s="89" t="s">
+        <v>425</v>
+      </c>
+      <c r="C42" s="89" t="s">
+        <v>424</v>
+      </c>
+      <c r="D42" s="89" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+      <c r="A43" s="98" t="s">
+        <v>429</v>
+      </c>
+      <c r="B43" s="89" t="s">
+        <v>428</v>
+      </c>
+      <c r="C43" s="89" t="s">
+        <v>427</v>
+      </c>
+      <c r="D43" s="89" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+      <c r="A44" s="98" t="s">
+        <v>432</v>
+      </c>
+      <c r="B44" s="89" t="s">
+        <v>431</v>
+      </c>
+      <c r="C44" s="89" t="s">
+        <v>430</v>
+      </c>
+      <c r="D44" s="89" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A45" s="98" t="s">
+        <v>435</v>
+      </c>
+      <c r="B45" s="89" t="s">
+        <v>434</v>
+      </c>
+      <c r="C45" s="89" t="s">
+        <v>433</v>
+      </c>
+      <c r="D45" s="89" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A46" s="98" t="s">
+        <v>438</v>
+      </c>
+      <c r="B46" s="89" t="s">
+        <v>437</v>
+      </c>
+      <c r="C46" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="B42" s="89" t="s">
-        <v>435</v>
-      </c>
-      <c r="C42" s="89" t="s">
-        <v>434</v>
-      </c>
-      <c r="D42" s="89" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
-      <c r="A43" s="107" t="s">
+      <c r="D46" s="141" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A47" s="97" t="s">
+        <v>441</v>
+      </c>
+      <c r="B47" s="89" t="s">
         <v>440</v>
       </c>
-      <c r="B43" s="89" t="s">
+      <c r="C47" s="89" t="s">
         <v>439</v>
       </c>
-      <c r="C43" s="89" t="s">
-        <v>438</v>
-      </c>
-      <c r="D43" s="89" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
-      <c r="A44" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="B44" s="89" t="s">
-        <v>442</v>
-      </c>
-      <c r="C44" s="89" t="s">
-        <v>441</v>
-      </c>
-      <c r="D44" s="89" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
-      <c r="A45" s="107" t="s">
-        <v>446</v>
-      </c>
-      <c r="B45" s="89" t="s">
-        <v>445</v>
-      </c>
-      <c r="C45" s="89" t="s">
-        <v>444</v>
-      </c>
-      <c r="D45" s="89" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
-      <c r="A46" s="107" t="s">
-        <v>449</v>
-      </c>
-      <c r="B46" s="89" t="s">
-        <v>448</v>
-      </c>
-      <c r="C46" s="89" t="s">
-        <v>447</v>
-      </c>
-      <c r="D46" s="156" t="s">
+      <c r="D47" s="89" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A48" s="98" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
-      <c r="A47" s="106" t="s">
-        <v>452</v>
-      </c>
-      <c r="B47" s="89" t="s">
-        <v>451</v>
-      </c>
-      <c r="C47" s="89" t="s">
-        <v>450</v>
-      </c>
-      <c r="D47" s="157"/>
-    </row>
-    <row r="48" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
-      <c r="A48" s="107" t="s">
-        <v>430</v>
-      </c>
       <c r="B48" s="89" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C48" s="89" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="D48" s="89" t="s">
-        <v>399</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -9560,455 +9551,291 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:B38"/>
+    <sheetView zoomScale="133" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.47265625" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="158" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="159"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A3" s="26" t="s">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="162" t="s">
+        <v>574</v>
+      </c>
+      <c r="B1" s="163"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="99" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A4" s="26" t="s">
+      <c r="B3" s="66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22"/>
-    </row>
-    <row r="5" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="A5" s="26" t="s">
+      <c r="B4" s="66"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="144" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="168" t="s">
-        <v>393</v>
-      </c>
-      <c r="B8" s="168"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="108" t="s">
+    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="148" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="147"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+    </row>
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="148" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+      <c r="A9" s="151" t="s">
+        <v>576</v>
+      </c>
+      <c r="B9" s="145" t="s">
+        <v>578</v>
+      </c>
+      <c r="C9" s="145" t="s">
+        <v>580</v>
+      </c>
+      <c r="D9" s="145" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A10" s="142" t="s">
+        <v>577</v>
+      </c>
+      <c r="B10" s="138" t="s">
+        <v>579</v>
+      </c>
+      <c r="C10" s="138" t="s">
+        <v>581</v>
+      </c>
+      <c r="D10" s="138" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="164" t="s">
+        <v>583</v>
+      </c>
+      <c r="B13" s="164"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="B9" s="108" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="66" t="s">
+      <c r="B14" s="66" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B15" s="66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="66"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="144" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="146" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="147"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="146" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="146" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="195" x14ac:dyDescent="0.2">
+      <c r="A22" s="142" t="s">
+        <v>585</v>
+      </c>
+      <c r="B22" s="138" t="s">
+        <v>587</v>
+      </c>
+      <c r="C22" s="138" t="s">
+        <v>589</v>
+      </c>
+      <c r="D22" s="138" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A23" s="142" t="s">
+        <v>586</v>
+      </c>
+      <c r="B23" s="138" t="s">
+        <v>588</v>
+      </c>
+      <c r="C23" s="138" t="s">
+        <v>590</v>
+      </c>
+      <c r="D23" s="138" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="165" t="s">
+        <v>593</v>
+      </c>
+      <c r="B26" s="166"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="99" t="s">
+        <v>357</v>
+      </c>
+      <c r="B27" s="99" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="66" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="66"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="66" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="103" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="20" t="s">
+      <c r="B30" s="144" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+    </row>
+    <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="148" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="109" t="s">
+      <c r="B33" s="149"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+    </row>
+    <row r="34" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="109" t="s">
+      <c r="B34" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C34" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="109" t="s">
+      <c r="D34" s="148" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
-      <c r="A16" s="105" t="s">
-        <v>398</v>
-      </c>
-      <c r="B16" s="151" t="s">
-        <v>397</v>
-      </c>
-      <c r="C16" s="151" t="s">
-        <v>396</v>
-      </c>
-      <c r="D16" s="150" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A17" s="105" t="s">
-        <v>402</v>
-      </c>
-      <c r="B17" s="151" t="s">
-        <v>401</v>
-      </c>
-      <c r="C17" s="151" t="s">
-        <v>400</v>
-      </c>
-      <c r="D17" s="150" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="167" t="s">
-        <v>403</v>
-      </c>
-      <c r="B21" s="167"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="108" t="s">
-        <v>357</v>
-      </c>
-      <c r="B22" s="108" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="66" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="66"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="103" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="109" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="109" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="109" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="109" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.45">
-      <c r="A30" s="105" t="s">
-        <v>408</v>
-      </c>
-      <c r="B30" s="151" t="s">
-        <v>407</v>
-      </c>
-      <c r="C30" s="151" t="s">
-        <v>406</v>
-      </c>
-      <c r="D30" s="151" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
-      <c r="A31" s="105" t="s">
-        <v>412</v>
-      </c>
-      <c r="B31" s="151" t="s">
-        <v>411</v>
-      </c>
-      <c r="C31" s="151" t="s">
-        <v>410</v>
-      </c>
-      <c r="D31" s="151" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
-      <c r="A32" s="105" t="s">
-        <v>416</v>
-      </c>
-      <c r="B32" s="151" t="s">
-        <v>415</v>
-      </c>
-      <c r="C32" s="152" t="s">
-        <v>414</v>
-      </c>
-      <c r="D32" s="151" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
-      <c r="A33" s="105" t="s">
-        <v>420</v>
-      </c>
-      <c r="B33" s="151" t="s">
-        <v>419</v>
-      </c>
-      <c r="C33" s="151" t="s">
-        <v>418</v>
-      </c>
-      <c r="D33" s="151" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="358.8" x14ac:dyDescent="0.45">
-      <c r="A34" s="104" t="s">
-        <v>424</v>
-      </c>
-      <c r="B34" s="151" t="s">
-        <v>423</v>
-      </c>
-      <c r="C34" s="151" t="s">
-        <v>422</v>
-      </c>
-      <c r="D34" s="151" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="82.8" x14ac:dyDescent="0.45">
-      <c r="A35" s="104" t="s">
-        <v>427</v>
-      </c>
-      <c r="B35" s="151" t="s">
-        <v>426</v>
-      </c>
-      <c r="C35" s="151" t="s">
-        <v>425</v>
-      </c>
-      <c r="D35" s="151" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
-      <c r="A36" s="104" t="s">
-        <v>430</v>
-      </c>
-      <c r="B36" s="151" t="s">
-        <v>429</v>
-      </c>
-      <c r="C36" s="151" t="s">
-        <v>428</v>
-      </c>
-      <c r="D36" s="151" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="38" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="169" t="s">
-        <v>431</v>
-      </c>
-      <c r="B38" s="170"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" s="108" t="s">
-        <v>357</v>
-      </c>
-      <c r="B39" s="108" t="s">
-        <v>432</v>
-      </c>
-      <c r="C39" s="108"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="66"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="103" t="s">
-        <v>394</v>
-      </c>
-      <c r="C42" s="66"/>
-    </row>
-    <row r="44" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" s="109" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="109" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="109" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="109" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="165.6" x14ac:dyDescent="0.45">
-      <c r="A46" s="105" t="s">
-        <v>436</v>
-      </c>
-      <c r="B46" s="153" t="s">
-        <v>435</v>
-      </c>
-      <c r="C46" s="153" t="s">
-        <v>434</v>
-      </c>
-      <c r="D46" s="153" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
-      <c r="A47" s="105" t="s">
-        <v>440</v>
-      </c>
-      <c r="B47" s="153" t="s">
-        <v>439</v>
-      </c>
-      <c r="C47" s="153" t="s">
-        <v>438</v>
-      </c>
-      <c r="D47" s="153" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
-      <c r="A48" s="105" t="s">
-        <v>443</v>
-      </c>
-      <c r="B48" s="153" t="s">
-        <v>442</v>
-      </c>
-      <c r="C48" s="153" t="s">
-        <v>441</v>
-      </c>
-      <c r="D48" s="153" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="96.6" x14ac:dyDescent="0.45">
-      <c r="A49" s="105" t="s">
-        <v>446</v>
-      </c>
-      <c r="B49" s="153" t="s">
-        <v>445</v>
-      </c>
-      <c r="C49" s="153" t="s">
-        <v>444</v>
-      </c>
-      <c r="D49" s="153" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="96.6" x14ac:dyDescent="0.45">
-      <c r="A50" s="105" t="s">
-        <v>449</v>
-      </c>
-      <c r="B50" s="153" t="s">
-        <v>448</v>
-      </c>
-      <c r="C50" s="153" t="s">
-        <v>447</v>
-      </c>
-      <c r="D50" s="154" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="96.6" x14ac:dyDescent="0.45">
-      <c r="A51" s="104" t="s">
-        <v>452</v>
-      </c>
-      <c r="B51" s="153" t="s">
-        <v>451</v>
-      </c>
-      <c r="C51" s="153" t="s">
-        <v>450</v>
-      </c>
-      <c r="D51" s="155"/>
-    </row>
-    <row r="52" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
-      <c r="A52" s="105" t="s">
-        <v>430</v>
-      </c>
-      <c r="B52" s="153" t="s">
-        <v>429</v>
-      </c>
-      <c r="C52" s="153" t="s">
-        <v>428</v>
-      </c>
-      <c r="D52" s="153" t="s">
-        <v>399</v>
+    <row r="35" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+      <c r="A35" s="126" t="s">
+        <v>595</v>
+      </c>
+      <c r="B35" s="145" t="s">
+        <v>597</v>
+      </c>
+      <c r="C35" s="145" t="s">
+        <v>598</v>
+      </c>
+      <c r="D35" s="145" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A36" s="142" t="s">
+        <v>596</v>
+      </c>
+      <c r="B36" s="138" t="s">
+        <v>588</v>
+      </c>
+      <c r="C36" s="138" t="s">
+        <v>599</v>
+      </c>
+      <c r="D36" s="138" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assignment 1/G1_Acceptance.Ass.1.xlsx
+++ b/Assignment 1/G1_Acceptance.Ass.1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asaf/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asaf/Desktop/GHealth-System/Assignment 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Names | Group 1" sheetId="8" r:id="rId1"/>
@@ -3622,7 +3622,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -3872,45 +3872,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -3959,7 +3920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4181,43 +4142,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4234,7 +4159,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
@@ -4247,13 +4172,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4331,17 +4256,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4349,9 +4268,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4360,6 +4276,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4369,9 +4295,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4384,19 +4307,25 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4405,21 +4334,59 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4777,12 +4744,12 @@
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="102" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="103" t="s">
+    <row r="2" spans="1:3" s="90" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="91" t="s">
         <v>448</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="103"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="91"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -4824,7 +4791,7 @@
       <c r="B6" s="14">
         <v>200940997</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="89" t="s">
         <v>447</v>
       </c>
     </row>
@@ -4913,7 +4880,7 @@
       <c r="F4" s="18">
         <v>1001</v>
       </c>
-      <c r="G4" s="136" t="s">
+      <c r="G4" s="124" t="s">
         <v>131</v>
       </c>
       <c r="H4" s="18">
@@ -4942,7 +4909,7 @@
       <c r="F5" s="14">
         <v>1002</v>
       </c>
-      <c r="G5" s="137" t="s">
+      <c r="G5" s="125" t="s">
         <v>132</v>
       </c>
       <c r="H5" s="14">
@@ -4971,7 +4938,7 @@
       <c r="F6" s="14">
         <v>1003</v>
       </c>
-      <c r="G6" s="137" t="s">
+      <c r="G6" s="125" t="s">
         <v>133</v>
       </c>
       <c r="H6" s="14">
@@ -5000,7 +4967,7 @@
       <c r="F7" s="14">
         <v>1004</v>
       </c>
-      <c r="G7" s="137" t="s">
+      <c r="G7" s="125" t="s">
         <v>135</v>
       </c>
       <c r="H7" s="14">
@@ -5029,7 +4996,7 @@
       <c r="F8" s="14">
         <v>1005</v>
       </c>
-      <c r="G8" s="137" t="s">
+      <c r="G8" s="125" t="s">
         <v>136</v>
       </c>
       <c r="H8" s="14">
@@ -5058,7 +5025,7 @@
       <c r="F9" s="14">
         <v>1006</v>
       </c>
-      <c r="G9" s="137" t="s">
+      <c r="G9" s="125" t="s">
         <v>137</v>
       </c>
       <c r="H9" s="14">
@@ -5087,7 +5054,7 @@
       <c r="F10" s="14">
         <v>1007</v>
       </c>
-      <c r="G10" s="137" t="s">
+      <c r="G10" s="125" t="s">
         <v>134</v>
       </c>
       <c r="H10" s="14">
@@ -5116,7 +5083,7 @@
       <c r="F11" s="14">
         <v>1008</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="125" t="s">
         <v>159</v>
       </c>
       <c r="H11" s="14">
@@ -5145,7 +5112,7 @@
       <c r="F12" s="14">
         <v>1009</v>
       </c>
-      <c r="G12" s="137" t="s">
+      <c r="G12" s="125" t="s">
         <v>160</v>
       </c>
       <c r="H12" s="14">
@@ -5174,7 +5141,7 @@
       <c r="F13" s="14">
         <v>1010</v>
       </c>
-      <c r="G13" s="137" t="s">
+      <c r="G13" s="125" t="s">
         <v>161</v>
       </c>
       <c r="H13" s="14">
@@ -5203,7 +5170,7 @@
       <c r="F14" s="14">
         <v>1011</v>
       </c>
-      <c r="G14" s="137" t="s">
+      <c r="G14" s="125" t="s">
         <v>162</v>
       </c>
       <c r="H14" s="14">
@@ -5232,7 +5199,7 @@
       <c r="F15" s="14">
         <v>1012</v>
       </c>
-      <c r="G15" s="137" t="s">
+      <c r="G15" s="125" t="s">
         <v>163</v>
       </c>
       <c r="H15" s="14">
@@ -5271,7 +5238,7 @@
       <c r="C20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="136" t="s">
+      <c r="D20" s="124" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5285,7 +5252,7 @@
       <c r="C21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="137" t="s">
+      <c r="D21" s="125" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5299,7 +5266,7 @@
       <c r="C22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="137" t="s">
+      <c r="D22" s="125" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5313,7 +5280,7 @@
       <c r="C23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="137" t="s">
+      <c r="D23" s="125" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6144,7 +6111,7 @@
       <c r="A109" s="50">
         <v>2001</v>
       </c>
-      <c r="B109" s="133" t="s">
+      <c r="B109" s="121" t="s">
         <v>552</v>
       </c>
     </row>
@@ -6152,7 +6119,7 @@
       <c r="A110" s="48">
         <v>2002</v>
       </c>
-      <c r="B110" s="134" t="s">
+      <c r="B110" s="122" t="s">
         <v>553</v>
       </c>
     </row>
@@ -6160,7 +6127,7 @@
       <c r="A111" s="48">
         <v>2003</v>
       </c>
-      <c r="B111" s="134" t="s">
+      <c r="B111" s="122" t="s">
         <v>554</v>
       </c>
     </row>
@@ -6168,7 +6135,7 @@
       <c r="A112" s="48">
         <v>2004</v>
       </c>
-      <c r="B112" s="134" t="s">
+      <c r="B112" s="122" t="s">
         <v>555</v>
       </c>
     </row>
@@ -6176,7 +6143,7 @@
       <c r="A113" s="48">
         <v>2005</v>
       </c>
-      <c r="B113" s="134" t="s">
+      <c r="B113" s="122" t="s">
         <v>556</v>
       </c>
     </row>
@@ -6184,7 +6151,7 @@
       <c r="A114" s="48">
         <v>2006</v>
       </c>
-      <c r="B114" s="134" t="s">
+      <c r="B114" s="122" t="s">
         <v>557</v>
       </c>
     </row>
@@ -6192,7 +6159,7 @@
       <c r="A115" s="48">
         <v>2007</v>
       </c>
-      <c r="B115" s="134" t="s">
+      <c r="B115" s="122" t="s">
         <v>558</v>
       </c>
     </row>
@@ -6200,7 +6167,7 @@
       <c r="A116" s="48">
         <v>2008</v>
       </c>
-      <c r="B116" s="135" t="s">
+      <c r="B116" s="123" t="s">
         <v>559</v>
       </c>
     </row>
@@ -6245,10 +6212,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="142"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
@@ -6374,10 +6341,10 @@
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="152" t="s">
+      <c r="A17" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="153"/>
+      <c r="B17" s="142"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
@@ -6556,10 +6523,10 @@
       <c r="D34" s="71"/>
     </row>
     <row r="35" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="152" t="s">
+      <c r="A35" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="153"/>
+      <c r="B35" s="142"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
@@ -6698,10 +6665,10 @@
       <c r="D50" s="71"/>
     </row>
     <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="152" t="s">
+      <c r="A51" s="141" t="s">
         <v>259</v>
       </c>
-      <c r="B51" s="153"/>
+      <c r="B51" s="142"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
@@ -6817,10 +6784,10 @@
     </row>
     <row r="65" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="152" t="s">
+      <c r="A66" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="B66" s="153"/>
+      <c r="B66" s="142"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="25" t="s">
@@ -6929,10 +6896,10 @@
     </row>
     <row r="79" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="152" t="s">
+      <c r="A80" s="141" t="s">
         <v>196</v>
       </c>
-      <c r="B80" s="153"/>
+      <c r="B80" s="142"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="25" t="s">
@@ -7041,10 +7008,10 @@
     </row>
     <row r="93" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="94" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="152" t="s">
+      <c r="A94" s="141" t="s">
         <v>198</v>
       </c>
-      <c r="B94" s="153"/>
+      <c r="B94" s="142"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="25" t="s">
@@ -7170,8 +7137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7183,10 +7150,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="150" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="151"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
@@ -7224,191 +7191,191 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="90" t="s">
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="170" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="114" t="s">
         <v>288</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="115" t="s">
         <v>317</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="115" t="s">
         <v>289</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="171" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="117" t="s">
         <v>318</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="117" t="s">
         <v>292</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="172" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="138" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="117" t="s">
         <v>319</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="117" t="s">
         <v>294</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="168" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A12" s="156" t="s">
+      <c r="A12" s="144" t="s">
         <v>296</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="117" t="s">
         <v>320</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="168" t="s">
         <v>333</v>
       </c>
-      <c r="D12" s="155" t="s">
+      <c r="D12" s="173" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A13" s="157"/>
-      <c r="B13" s="82" t="s">
+      <c r="A13" s="145"/>
+      <c r="B13" s="117" t="s">
         <v>297</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="117" t="s">
         <v>334</v>
       </c>
-      <c r="D13" s="155"/>
+      <c r="D13" s="173"/>
     </row>
     <row r="14" spans="1:4" ht="135" x14ac:dyDescent="0.2">
-      <c r="A14" s="157"/>
-      <c r="B14" s="84" t="s">
+      <c r="A14" s="145"/>
+      <c r="B14" s="168" t="s">
         <v>298</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="117" t="s">
         <v>336</v>
       </c>
-      <c r="D14" s="155"/>
+      <c r="D14" s="173"/>
     </row>
     <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A15" s="154" t="s">
+      <c r="A15" s="143" t="s">
         <v>337</v>
       </c>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="117" t="s">
         <v>332</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="168" t="s">
         <v>333</v>
       </c>
-      <c r="D15" s="155" t="s">
+      <c r="D15" s="173" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A16" s="154"/>
-      <c r="B16" s="82" t="s">
+      <c r="A16" s="143"/>
+      <c r="B16" s="117" t="s">
         <v>300</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="117" t="s">
         <v>335</v>
       </c>
-      <c r="D16" s="155"/>
+      <c r="D16" s="173"/>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="154"/>
-      <c r="B17" s="82" t="s">
+      <c r="A17" s="143"/>
+      <c r="B17" s="117" t="s">
         <v>301</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="174" t="s">
         <v>302</v>
       </c>
-      <c r="D17" s="155"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="154"/>
-      <c r="B18" s="82" t="s">
+      <c r="A18" s="143"/>
+      <c r="B18" s="117" t="s">
         <v>303</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="174" t="s">
         <v>304</v>
       </c>
-      <c r="D18" s="155"/>
+      <c r="D18" s="173"/>
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="137" t="s">
         <v>305</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="117" t="s">
         <v>321</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="117" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="138" t="s">
         <v>308</v>
       </c>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="117" t="s">
         <v>322</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="117" t="s">
         <v>309</v>
       </c>
-      <c r="D20" s="86"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="138" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="117" t="s">
         <v>309</v>
       </c>
-      <c r="D21" s="87" t="s">
+      <c r="D21" s="162" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="138" t="s">
         <v>312</v>
       </c>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="126" t="s">
         <v>324</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="D22" s="87" t="s">
+      <c r="D22" s="162" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7429,8 +7396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView topLeftCell="A100" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131:B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7442,10 +7409,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="151"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
@@ -7486,16 +7453,16 @@
       <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="31" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7571,64 +7538,64 @@
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="158" t="s">
+      <c r="A17" s="146" t="s">
         <v>341</v>
       </c>
-      <c r="B17" s="159"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="113" t="s">
+      <c r="A18" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="102" t="s">
         <v>342</v>
       </c>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="115" t="s">
+      <c r="A20" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="116"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="115" t="s">
+      <c r="A21" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="112"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
+      <c r="A22" s="100"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
     </row>
     <row r="23" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="118" t="s">
+      <c r="A23" s="106" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="119"/>
+      <c r="D23" s="107"/>
     </row>
     <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
@@ -7637,103 +7604,103 @@
       <c r="B24" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A25" s="120" t="s">
+      <c r="A25" s="108" t="s">
         <v>343</v>
       </c>
-      <c r="B25" s="121" t="s">
+      <c r="B25" s="109" t="s">
         <v>507</v>
       </c>
-      <c r="C25" s="121" t="s">
+      <c r="C25" s="109" t="s">
         <v>508</v>
       </c>
-      <c r="D25" s="122" t="s">
+      <c r="D25" s="110" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A26" s="120" t="s">
+      <c r="A26" s="108" t="s">
         <v>343</v>
       </c>
-      <c r="B26" s="121" t="s">
+      <c r="B26" s="109" t="s">
         <v>509</v>
       </c>
-      <c r="C26" s="121" t="s">
+      <c r="C26" s="109" t="s">
         <v>508</v>
       </c>
-      <c r="D26" s="122" t="s">
+      <c r="D26" s="110" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A27" s="120" t="s">
+      <c r="A27" s="108" t="s">
         <v>343</v>
       </c>
-      <c r="B27" s="121" t="s">
+      <c r="B27" s="109" t="s">
         <v>510</v>
       </c>
-      <c r="C27" s="121" t="s">
+      <c r="C27" s="109" t="s">
         <v>508</v>
       </c>
-      <c r="D27" s="122" t="s">
+      <c r="D27" s="110" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A28" s="123" t="s">
+      <c r="A28" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="124" t="s">
+      <c r="B28" s="112" t="s">
         <v>511</v>
       </c>
-      <c r="C28" s="124" t="s">
+      <c r="C28" s="112" t="s">
         <v>512</v>
       </c>
-      <c r="D28" s="125" t="s">
+      <c r="D28" s="113" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="123" t="s">
+    <row r="29" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A29" s="165" t="s">
         <v>513</v>
       </c>
-      <c r="B29" s="124" t="s">
+      <c r="B29" s="166" t="s">
         <v>514</v>
       </c>
-      <c r="C29" s="124" t="s">
+      <c r="C29" s="166" t="s">
         <v>515</v>
       </c>
-      <c r="D29" s="125" t="s">
+      <c r="D29" s="167" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A30" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="168" t="s">
         <v>355</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="169" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="118" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="152" t="s">
+      <c r="A33" s="150" t="s">
         <v>345</v>
       </c>
-      <c r="B33" s="153"/>
+      <c r="B33" s="151"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
@@ -7831,10 +7798,10 @@
     </row>
     <row r="44" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="152" t="s">
+      <c r="A45" s="150" t="s">
         <v>449</v>
       </c>
-      <c r="B45" s="153"/>
+      <c r="B45" s="151"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
@@ -7940,10 +7907,10 @@
     </row>
     <row r="58" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="152" t="s">
+      <c r="A59" s="150" t="s">
         <v>459</v>
       </c>
-      <c r="B59" s="153"/>
+      <c r="B59" s="151"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="25" t="s">
@@ -8048,7 +8015,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="106" t="s">
+      <c r="A71" s="94" t="s">
         <v>470</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -8062,25 +8029,25 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="107" t="s">
+      <c r="A72" s="95" t="s">
         <v>474</v>
       </c>
-      <c r="B72" s="108" t="s">
+      <c r="B72" s="96" t="s">
         <v>475</v>
       </c>
-      <c r="C72" s="108" t="s">
+      <c r="C72" s="96" t="s">
         <v>476</v>
       </c>
-      <c r="D72" s="109" t="s">
+      <c r="D72" s="97" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="152" t="s">
+      <c r="A75" s="150" t="s">
         <v>478</v>
       </c>
-      <c r="B75" s="153"/>
+      <c r="B75" s="151"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="25" t="s">
@@ -8187,7 +8154,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="106" t="s">
+      <c r="A87" s="94" t="s">
         <v>489</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -8202,10 +8169,10 @@
     </row>
     <row r="89" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="90" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="152" t="s">
+      <c r="A90" s="150" t="s">
         <v>518</v>
       </c>
-      <c r="B90" s="153"/>
+      <c r="B90" s="151"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="25" t="s">
@@ -8311,10 +8278,10 @@
     </row>
     <row r="103" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="104" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="152" t="s">
+      <c r="A104" s="150" t="s">
         <v>528</v>
       </c>
-      <c r="B104" s="153"/>
+      <c r="B104" s="151"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="25" t="s">
@@ -8346,8 +8313,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="132" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="131"/>
+    <row r="109" spans="1:4" s="120" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="119"/>
       <c r="B109" s="74"/>
     </row>
     <row r="111" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8416,10 +8383,10 @@
     </row>
     <row r="117" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="152" t="s">
+      <c r="A118" s="150" t="s">
         <v>538</v>
       </c>
-      <c r="B118" s="153"/>
+      <c r="B118" s="151"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="25" t="s">
@@ -8476,37 +8443,37 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A127" s="126" t="s">
+      <c r="A127" s="114" t="s">
         <v>540</v>
       </c>
-      <c r="B127" s="127" t="s">
+      <c r="B127" s="115" t="s">
         <v>541</v>
       </c>
-      <c r="C127" s="127" t="s">
+      <c r="C127" s="115" t="s">
         <v>542</v>
       </c>
-      <c r="D127" s="128" t="s">
+      <c r="D127" s="116" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A128" s="105" t="s">
+      <c r="A128" s="93" t="s">
         <v>544</v>
       </c>
-      <c r="B128" s="129"/>
-      <c r="C128" s="129" t="s">
+      <c r="B128" s="117"/>
+      <c r="C128" s="117" t="s">
         <v>545</v>
       </c>
-      <c r="D128" s="130" t="s">
+      <c r="D128" s="118" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="131" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="152" t="s">
+      <c r="A131" s="150" t="s">
         <v>547</v>
       </c>
-      <c r="B131" s="153"/>
+      <c r="B131" s="151"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="25" t="s">
@@ -8563,28 +8530,28 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A139" s="126" t="s">
+      <c r="A139" s="114" t="s">
         <v>540</v>
       </c>
-      <c r="B139" s="127" t="s">
+      <c r="B139" s="115" t="s">
         <v>541</v>
       </c>
-      <c r="C139" s="127" t="s">
+      <c r="C139" s="115" t="s">
         <v>542</v>
       </c>
-      <c r="D139" s="128" t="s">
+      <c r="D139" s="116" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A140" s="105" t="s">
+      <c r="A140" s="93" t="s">
         <v>544</v>
       </c>
-      <c r="B140" s="129"/>
-      <c r="C140" s="129" t="s">
+      <c r="B140" s="117"/>
+      <c r="C140" s="117" t="s">
         <v>545</v>
       </c>
-      <c r="D140" s="130" t="s">
+      <c r="D140" s="118" t="s">
         <v>546</v>
       </c>
     </row>
@@ -8610,8 +8577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="50" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D19"/>
+    <sheetView topLeftCell="A57" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8623,21 +8590,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="148" t="s">
         <v>356</v>
       </c>
-      <c r="B1" s="169"/>
+      <c r="B1" s="149"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="139" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="87" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="66" t="s">
@@ -8645,16 +8612,16 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="81" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="66"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="84" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8673,7 +8640,7 @@
       <c r="B9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="170" t="s">
+      <c r="C9" s="140" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="31" t="s">
@@ -8681,162 +8648,162 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="114" t="s">
         <v>493</v>
       </c>
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="115" t="s">
         <v>359</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="160" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A11" s="143" t="s">
+      <c r="A11" s="129" t="s">
         <v>494</v>
       </c>
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="115" t="s">
         <v>359</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="160" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A12" s="143" t="s">
+      <c r="A12" s="129" t="s">
         <v>500</v>
       </c>
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="115" t="s">
         <v>359</v>
       </c>
-      <c r="C12" s="130" t="s">
+      <c r="C12" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="160" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="129" t="s">
         <v>501</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="115" t="s">
         <v>359</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="160" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A14" s="143" t="s">
+      <c r="A14" s="129" t="s">
         <v>502</v>
       </c>
-      <c r="B14" s="128" t="s">
+      <c r="B14" s="115" t="s">
         <v>359</v>
       </c>
-      <c r="C14" s="130" t="s">
+      <c r="C14" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="160" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A15" s="143" t="s">
+      <c r="A15" s="129" t="s">
         <v>503</v>
       </c>
-      <c r="B15" s="128" t="s">
+      <c r="B15" s="115" t="s">
         <v>359</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="160" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A16" s="143" t="s">
+      <c r="A16" s="129" t="s">
         <v>504</v>
       </c>
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="115" t="s">
         <v>359</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="160" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A17" s="143" t="s">
+      <c r="A17" s="129" t="s">
         <v>506</v>
       </c>
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="115" t="s">
         <v>359</v>
       </c>
-      <c r="C17" s="130" t="s">
+      <c r="C17" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="160" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A18" s="143" t="s">
+      <c r="A18" s="129" t="s">
         <v>505</v>
       </c>
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="115" t="s">
         <v>359</v>
       </c>
-      <c r="C18" s="130" t="s">
+      <c r="C18" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="160" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A19" s="143" t="s">
+      <c r="A19" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="128" t="s">
+      <c r="B19" s="115" t="s">
         <v>359</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="160" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="168" t="s">
+      <c r="A22" s="148" t="s">
         <v>362</v>
       </c>
-      <c r="B22" s="169"/>
+      <c r="B22" s="149"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="167" t="s">
+      <c r="A23" s="139" t="s">
         <v>357</v>
       </c>
-      <c r="B23" s="99" t="s">
+      <c r="B23" s="87" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="81" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="66" t="s">
@@ -8844,16 +8811,16 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="81" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="66"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="96" t="s">
+      <c r="B26" s="84" t="s">
         <v>358</v>
       </c>
     </row>
@@ -8880,50 +8847,50 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A31" s="126" t="s">
+      <c r="A31" s="114" t="s">
         <v>495</v>
       </c>
-      <c r="B31" s="128" t="s">
+      <c r="B31" s="115" t="s">
         <v>365</v>
       </c>
-      <c r="C31" s="171" t="s">
+      <c r="C31" s="161" t="s">
         <v>366</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="160" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A32" s="143" t="s">
+      <c r="A32" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="162" t="s">
         <v>368</v>
       </c>
-      <c r="C32" s="172" t="s">
+      <c r="C32" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="164" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="162" t="s">
+      <c r="A35" s="150" t="s">
         <v>369</v>
       </c>
-      <c r="B35" s="163"/>
+      <c r="B35" s="151"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="167" t="s">
+      <c r="A36" s="139" t="s">
         <v>357</v>
       </c>
-      <c r="B36" s="99" t="s">
+      <c r="B36" s="87" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="81" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="66" t="s">
@@ -8931,16 +8898,16 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="81" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="66"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="94" t="s">
+      <c r="A39" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="110" t="s">
+      <c r="B39" s="98" t="s">
         <v>363</v>
       </c>
     </row>
@@ -8967,78 +8934,78 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="135" x14ac:dyDescent="0.2">
-      <c r="A43" s="151" t="s">
+      <c r="A43" s="136" t="s">
         <v>496</v>
       </c>
-      <c r="B43" s="128" t="s">
+      <c r="B43" s="115" t="s">
         <v>371</v>
       </c>
-      <c r="C43" s="128" t="s">
+      <c r="C43" s="115" t="s">
         <v>372</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="160" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A44" s="95" t="s">
+      <c r="A44" s="83" t="s">
         <v>497</v>
       </c>
-      <c r="B44" s="130" t="s">
+      <c r="B44" s="117" t="s">
         <v>374</v>
       </c>
-      <c r="C44" s="130" t="s">
+      <c r="C44" s="117" t="s">
         <v>375</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="162" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A45" s="143" t="s">
+      <c r="A45" s="129" t="s">
         <v>498</v>
       </c>
-      <c r="B45" s="130" t="s">
+      <c r="B45" s="117" t="s">
         <v>376</v>
       </c>
-      <c r="C45" s="130" t="s">
+      <c r="C45" s="117" t="s">
         <v>377</v>
       </c>
-      <c r="D45" s="48" t="s">
+      <c r="D45" s="162" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A46" s="143" t="s">
+      <c r="A46" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="162" t="s">
         <v>378</v>
       </c>
-      <c r="C46" s="130" t="s">
+      <c r="C46" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="48" t="s">
+      <c r="D46" s="162" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="168" t="s">
+      <c r="A49" s="148" t="s">
         <v>379</v>
       </c>
-      <c r="B49" s="169"/>
+      <c r="B49" s="149"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="167" t="s">
+      <c r="A50" s="139" t="s">
         <v>357</v>
       </c>
-      <c r="B50" s="99" t="s">
+      <c r="B50" s="87" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="93" t="s">
+      <c r="A51" s="81" t="s">
         <v>1</v>
       </c>
       <c r="B51" s="66" t="s">
@@ -9046,16 +9013,16 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="93" t="s">
+      <c r="A52" s="81" t="s">
         <v>2</v>
       </c>
       <c r="B52" s="66"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="88" t="s">
+      <c r="A53" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="111" t="s">
+      <c r="B53" s="99" t="s">
         <v>370</v>
       </c>
     </row>
@@ -9082,44 +9049,44 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="135" x14ac:dyDescent="0.2">
-      <c r="A57" s="126" t="s">
+      <c r="A57" s="114" t="s">
         <v>381</v>
       </c>
-      <c r="B57" s="128" t="s">
+      <c r="B57" s="115" t="s">
         <v>382</v>
       </c>
-      <c r="C57" s="128" t="s">
+      <c r="C57" s="115" t="s">
         <v>383</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="160" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A58" s="143" t="s">
+      <c r="A58" s="129" t="s">
         <v>384</v>
       </c>
-      <c r="B58" s="130" t="s">
+      <c r="B58" s="117" t="s">
         <v>385</v>
       </c>
-      <c r="C58" s="130" t="s">
+      <c r="C58" s="117" t="s">
         <v>386</v>
       </c>
-      <c r="D58" s="48" t="s">
+      <c r="D58" s="162" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A59" s="143" t="s">
+      <c r="A59" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="162" t="s">
         <v>388</v>
       </c>
-      <c r="C59" s="130" t="s">
+      <c r="C59" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="48" t="s">
+      <c r="D59" s="162" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9139,28 +9106,28 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B42" sqref="B42:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="152" t="s">
         <v>389</v>
       </c>
-      <c r="B1" s="160"/>
+      <c r="B1" s="152"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="87" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="87" t="s">
         <v>390</v>
       </c>
     </row>
@@ -9182,7 +9149,7 @@
       <c r="A5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="84" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9192,58 +9159,59 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="88" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="86" t="s">
         <v>394</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="126" t="s">
         <v>393</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="126" t="s">
         <v>392</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="126" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="86" t="s">
         <v>398</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="126" t="s">
         <v>397</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="126" t="s">
         <v>396</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="126" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="160" t="s">
+    <row r="13" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="157" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="160"/>
+      <c r="B14" s="158"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="87" t="s">
         <v>357</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="87" t="s">
         <v>400</v>
       </c>
     </row>
@@ -9265,7 +9233,7 @@
       <c r="A18" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="84" t="s">
         <v>390</v>
       </c>
     </row>
@@ -9275,128 +9243,128 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="100" t="s">
+      <c r="C22" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="100" t="s">
+      <c r="D22" s="88" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="225" x14ac:dyDescent="0.2">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="86" t="s">
         <v>403</v>
       </c>
-      <c r="B23" s="139" t="s">
+      <c r="B23" s="126" t="s">
         <v>402</v>
       </c>
-      <c r="C23" s="139" t="s">
+      <c r="C23" s="126" t="s">
         <v>401</v>
       </c>
-      <c r="D23" s="139" t="s">
+      <c r="D23" s="126" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="135" x14ac:dyDescent="0.2">
-      <c r="A24" s="98" t="s">
+      <c r="A24" s="86" t="s">
         <v>406</v>
       </c>
-      <c r="B24" s="139" t="s">
+      <c r="B24" s="126" t="s">
         <v>405</v>
       </c>
-      <c r="C24" s="139" t="s">
+      <c r="C24" s="126" t="s">
         <v>404</v>
       </c>
-      <c r="D24" s="139" t="s">
+      <c r="D24" s="126" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="195" x14ac:dyDescent="0.2">
-      <c r="A25" s="98" t="s">
+      <c r="A25" s="86" t="s">
         <v>409</v>
       </c>
-      <c r="B25" s="139" t="s">
+      <c r="B25" s="126" t="s">
         <v>408</v>
       </c>
-      <c r="C25" s="140" t="s">
+      <c r="C25" s="127" t="s">
         <v>407</v>
       </c>
-      <c r="D25" s="139" t="s">
+      <c r="D25" s="126" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="135" x14ac:dyDescent="0.2">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="86" t="s">
         <v>412</v>
       </c>
-      <c r="B26" s="139" t="s">
+      <c r="B26" s="126" t="s">
         <v>411</v>
       </c>
-      <c r="C26" s="139" t="s">
+      <c r="C26" s="126" t="s">
         <v>410</v>
       </c>
-      <c r="D26" s="139" t="s">
+      <c r="D26" s="126" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="409" x14ac:dyDescent="0.2">
-      <c r="A27" s="97" t="s">
+      <c r="A27" s="85" t="s">
         <v>415</v>
       </c>
-      <c r="B27" s="139" t="s">
+      <c r="B27" s="126" t="s">
         <v>572</v>
       </c>
-      <c r="C27" s="139" t="s">
+      <c r="C27" s="126" t="s">
         <v>414</v>
       </c>
-      <c r="D27" s="139" t="s">
+      <c r="D27" s="126" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A28" s="97" t="s">
+      <c r="A28" s="85" t="s">
         <v>418</v>
       </c>
-      <c r="B28" s="139" t="s">
+      <c r="B28" s="126" t="s">
         <v>417</v>
       </c>
-      <c r="C28" s="139" t="s">
+      <c r="C28" s="126" t="s">
         <v>416</v>
       </c>
-      <c r="D28" s="139" t="s">
+      <c r="D28" s="126" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A29" s="97" t="s">
+      <c r="A29" s="85" t="s">
         <v>421</v>
       </c>
-      <c r="B29" s="139" t="s">
+      <c r="B29" s="126" t="s">
         <v>420</v>
       </c>
-      <c r="C29" s="139" t="s">
+      <c r="C29" s="126" t="s">
         <v>419</v>
       </c>
-      <c r="D29" s="139" t="s">
+      <c r="D29" s="126" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="161" t="s">
+      <c r="A33" s="153" t="s">
         <v>422</v>
       </c>
-      <c r="B33" s="161"/>
+      <c r="B33" s="153"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="99" t="s">
+      <c r="A34" s="87" t="s">
         <v>357</v>
       </c>
-      <c r="B34" s="99" t="s">
+      <c r="B34" s="87" t="s">
         <v>423</v>
       </c>
     </row>
@@ -9418,7 +9386,7 @@
       <c r="A37" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="96" t="s">
+      <c r="B37" s="84" t="s">
         <v>390</v>
       </c>
     </row>
@@ -9428,114 +9396,114 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="100" t="s">
+      <c r="A41" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="100" t="s">
+      <c r="B41" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="100" t="s">
+      <c r="C41" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="100" t="s">
+      <c r="D41" s="88" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="240" x14ac:dyDescent="0.2">
-      <c r="A42" s="98" t="s">
+      <c r="A42" s="86" t="s">
         <v>426</v>
       </c>
-      <c r="B42" s="89" t="s">
+      <c r="B42" s="126" t="s">
         <v>425</v>
       </c>
-      <c r="C42" s="89" t="s">
+      <c r="C42" s="126" t="s">
         <v>424</v>
       </c>
-      <c r="D42" s="89" t="s">
+      <c r="D42" s="126" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="135" x14ac:dyDescent="0.2">
-      <c r="A43" s="98" t="s">
+      <c r="A43" s="86" t="s">
         <v>429</v>
       </c>
-      <c r="B43" s="89" t="s">
+      <c r="B43" s="126" t="s">
         <v>428</v>
       </c>
-      <c r="C43" s="89" t="s">
+      <c r="C43" s="126" t="s">
         <v>427</v>
       </c>
-      <c r="D43" s="89" t="s">
+      <c r="D43" s="126" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="135" x14ac:dyDescent="0.2">
-      <c r="A44" s="98" t="s">
+      <c r="A44" s="86" t="s">
         <v>432</v>
       </c>
-      <c r="B44" s="89" t="s">
+      <c r="B44" s="126" t="s">
         <v>431</v>
       </c>
-      <c r="C44" s="89" t="s">
+      <c r="C44" s="126" t="s">
         <v>430</v>
       </c>
-      <c r="D44" s="89" t="s">
+      <c r="D44" s="126" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A45" s="98" t="s">
+      <c r="A45" s="86" t="s">
         <v>435</v>
       </c>
-      <c r="B45" s="89" t="s">
+      <c r="B45" s="126" t="s">
         <v>434</v>
       </c>
-      <c r="C45" s="89" t="s">
+      <c r="C45" s="126" t="s">
         <v>433</v>
       </c>
-      <c r="D45" s="89" t="s">
+      <c r="D45" s="126" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A46" s="98" t="s">
+      <c r="A46" s="86" t="s">
         <v>438</v>
       </c>
-      <c r="B46" s="89" t="s">
+      <c r="B46" s="126" t="s">
         <v>437</v>
       </c>
-      <c r="C46" s="89" t="s">
+      <c r="C46" s="126" t="s">
         <v>436</v>
       </c>
-      <c r="D46" s="141" t="s">
+      <c r="D46" s="127" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="120" x14ac:dyDescent="0.2">
-      <c r="A47" s="97" t="s">
+      <c r="A47" s="85" t="s">
         <v>441</v>
       </c>
-      <c r="B47" s="89" t="s">
+      <c r="B47" s="126" t="s">
         <v>440</v>
       </c>
-      <c r="C47" s="89" t="s">
+      <c r="C47" s="126" t="s">
         <v>439</v>
       </c>
-      <c r="D47" s="89" t="s">
+      <c r="D47" s="126" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A48" s="98" t="s">
+      <c r="A48" s="86" t="s">
         <v>421</v>
       </c>
-      <c r="B48" s="89" t="s">
+      <c r="B48" s="126" t="s">
         <v>420</v>
       </c>
-      <c r="C48" s="89" t="s">
+      <c r="C48" s="126" t="s">
         <v>419</v>
       </c>
-      <c r="D48" s="89" t="s">
+      <c r="D48" s="126" t="s">
         <v>567</v>
       </c>
     </row>
@@ -9553,8 +9521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScale="133" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A83" zoomScale="133" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9565,16 +9533,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="150" t="s">
         <v>574</v>
       </c>
-      <c r="B1" s="163"/>
+      <c r="B1" s="151"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="87" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="87" t="s">
         <v>575</v>
       </c>
     </row>
@@ -9596,66 +9564,66 @@
       <c r="A5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="144" t="s">
+      <c r="B5" s="130" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="148" t="s">
+      <c r="A7" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="148" t="s">
+      <c r="B8" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="148" t="s">
+      <c r="C8" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="148" t="s">
+      <c r="D8" s="133" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A9" s="151" t="s">
+      <c r="A9" s="136" t="s">
         <v>576</v>
       </c>
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="159" t="s">
         <v>578</v>
       </c>
-      <c r="C9" s="145" t="s">
+      <c r="C9" s="159" t="s">
         <v>580</v>
       </c>
-      <c r="D9" s="145" t="s">
+      <c r="D9" s="159" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="128" t="s">
         <v>577</v>
       </c>
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="126" t="s">
         <v>579</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="126" t="s">
         <v>581</v>
       </c>
-      <c r="D10" s="138" t="s">
+      <c r="D10" s="126" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="164" t="s">
+      <c r="A13" s="154" t="s">
         <v>583</v>
       </c>
-      <c r="B13" s="164"/>
+      <c r="B13" s="154"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="66" t="s">
@@ -9683,72 +9651,72 @@
       <c r="A17" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="144" t="s">
+      <c r="B17" s="130" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="146" t="s">
+      <c r="A20" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="147"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="146" t="s">
+      <c r="A21" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="146" t="s">
+      <c r="B21" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="146" t="s">
+      <c r="C21" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="146" t="s">
+      <c r="D21" s="131" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="195" x14ac:dyDescent="0.2">
-      <c r="A22" s="142" t="s">
+      <c r="A22" s="128" t="s">
         <v>585</v>
       </c>
-      <c r="B22" s="138" t="s">
+      <c r="B22" s="126" t="s">
         <v>587</v>
       </c>
-      <c r="C22" s="138" t="s">
+      <c r="C22" s="126" t="s">
         <v>589</v>
       </c>
-      <c r="D22" s="138" t="s">
+      <c r="D22" s="126" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A23" s="142" t="s">
+      <c r="A23" s="128" t="s">
         <v>586</v>
       </c>
-      <c r="B23" s="138" t="s">
+      <c r="B23" s="126" t="s">
         <v>588</v>
       </c>
-      <c r="C23" s="138" t="s">
+      <c r="C23" s="126" t="s">
         <v>590</v>
       </c>
-      <c r="D23" s="138" t="s">
+      <c r="D23" s="126" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="165" t="s">
+      <c r="A26" s="155" t="s">
         <v>593</v>
       </c>
-      <c r="B26" s="166"/>
+      <c r="B26" s="156"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="99" t="s">
+      <c r="A27" s="87" t="s">
         <v>357</v>
       </c>
-      <c r="B27" s="99" t="s">
+      <c r="B27" s="87" t="s">
         <v>594</v>
       </c>
     </row>
@@ -9772,7 +9740,7 @@
       <c r="A30" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="144" t="s">
+      <c r="B30" s="130" t="s">
         <v>575</v>
       </c>
     </row>
@@ -9782,52 +9750,52 @@
       <c r="D32" s="67"/>
     </row>
     <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="148" t="s">
+      <c r="A33" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="149"/>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
     </row>
     <row r="34" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="150" t="s">
+      <c r="A34" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="148" t="s">
+      <c r="B34" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="148" t="s">
+      <c r="C34" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="148" t="s">
+      <c r="D34" s="133" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="A35" s="126" t="s">
+      <c r="A35" s="114" t="s">
         <v>595</v>
       </c>
-      <c r="B35" s="145" t="s">
+      <c r="B35" s="159" t="s">
         <v>597</v>
       </c>
-      <c r="C35" s="145" t="s">
+      <c r="C35" s="159" t="s">
         <v>598</v>
       </c>
-      <c r="D35" s="145" t="s">
+      <c r="D35" s="159" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A36" s="142" t="s">
+      <c r="A36" s="128" t="s">
         <v>596</v>
       </c>
-      <c r="B36" s="138" t="s">
+      <c r="B36" s="126" t="s">
         <v>588</v>
       </c>
-      <c r="C36" s="138" t="s">
+      <c r="C36" s="126" t="s">
         <v>599</v>
       </c>
-      <c r="D36" s="138" t="s">
+      <c r="D36" s="126" t="s">
         <v>592</v>
       </c>
     </row>

--- a/Assignment 1/G1_Acceptance.Ass.1.xlsx
+++ b/Assignment 1/G1_Acceptance.Ass.1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26905"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asaf/Desktop/GHealth-System/Assignment 1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="462" windowWidth="25602" windowHeight="14640" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Names | Group 1" sheetId="8" r:id="rId1"/>
@@ -26,18 +21,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="601">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -997,7 +992,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1007,7 +1002,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1018,7 +1013,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1028,7 +1023,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1037,7 +1032,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1061,7 +1056,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1071,7 +1066,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1091,7 +1086,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1101,7 +1096,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1119,7 +1114,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1129,7 +1124,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1148,7 +1143,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1159,7 +1154,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1170,7 +1165,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1181,7 +1176,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1192,7 +1187,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1203,7 +1198,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1214,7 +1209,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1224,7 +1219,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1240,7 +1235,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1251,7 +1246,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1262,7 +1257,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1273,7 +1268,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1284,7 +1279,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1295,7 +1290,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1306,7 +1301,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1316,7 +1311,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1337,7 +1332,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1348,7 +1343,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1359,7 +1354,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1370,7 +1365,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1381,7 +1376,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1391,7 +1386,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1407,7 +1402,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1417,7 +1412,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1433,7 +1428,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1443,7 +1438,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1459,7 +1454,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1469,7 +1464,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1481,7 +1476,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1491,7 +1486,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1507,7 +1502,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1527,7 +1522,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1537,7 +1532,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1560,7 +1555,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1570,7 +1565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1589,7 +1584,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1599,7 +1594,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1631,7 +1626,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1642,7 +1637,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1653,7 +1648,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1664,7 +1659,7 @@
         <b/>
         <sz val="11"/>
         <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1675,7 +1670,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1686,7 +1681,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1697,7 +1692,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1707,7 +1702,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1724,7 +1719,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1735,7 +1730,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1746,7 +1741,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1757,7 +1752,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1768,7 +1763,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1778,7 +1773,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1795,7 +1790,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1806,7 +1801,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1817,7 +1812,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1828,7 +1823,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1839,7 +1834,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1849,7 +1844,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1866,7 +1861,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1877,7 +1872,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1888,7 +1883,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1899,7 +1894,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1909,7 +1904,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1919,7 +1914,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1928,7 +1923,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1945,7 +1940,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1956,7 +1951,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1967,7 +1962,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1978,7 +1973,7 @@
         <b/>
         <sz val="11"/>
         <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1989,7 +1984,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1999,7 +1994,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2009,7 +2004,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2018,7 +2013,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2035,7 +2030,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2046,7 +2041,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2057,7 +2052,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2068,7 +2063,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2079,7 +2074,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2089,7 +2084,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2106,7 +2101,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2117,7 +2112,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2128,7 +2123,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2139,7 +2134,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2150,7 +2145,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2160,7 +2155,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2204,7 +2199,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2215,7 +2210,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2226,7 +2221,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2237,7 +2232,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2247,7 +2242,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2257,7 +2252,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2266,7 +2261,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2282,7 +2277,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2292,7 +2287,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2309,7 +2304,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2319,7 +2314,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2336,7 +2331,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2346,7 +2341,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2363,7 +2358,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2373,7 +2368,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3451,12 +3446,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3464,7 +3459,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3473,7 +3468,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3481,7 +3476,7 @@
       <b/>
       <u/>
       <sz val="14"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3489,20 +3484,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3510,7 +3505,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3519,7 +3514,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3527,7 +3522,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF002060"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3535,7 +3530,7 @@
       <b/>
       <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3543,7 +3538,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3551,7 +3546,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3560,14 +3555,14 @@
       <u/>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3575,7 +3570,7 @@
       <b/>
       <u/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3920,7 +3915,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4286,6 +4281,51 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4295,98 +4335,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4737,21 +4726,21 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="90" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="90" customFormat="1" ht="22.2" x14ac:dyDescent="0.7">
       <c r="A2" s="91" t="s">
         <v>448</v>
       </c>
       <c r="B2" s="92"/>
       <c r="C2" s="91"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
@@ -4762,7 +4751,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>442</v>
       </c>
@@ -4773,7 +4762,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
@@ -4784,7 +4773,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
         <v>443</v>
       </c>
@@ -4811,28 +4800,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A111" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.80859375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.47265625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.47265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.80859375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>111</v>
       </c>
@@ -4861,7 +4850,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>113</v>
       </c>
@@ -4890,7 +4879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
@@ -4919,7 +4908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>117</v>
       </c>
@@ -4948,7 +4937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>118</v>
       </c>
@@ -4977,7 +4966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>119</v>
       </c>
@@ -5006,7 +4995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>121</v>
       </c>
@@ -5035,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>125</v>
       </c>
@@ -5064,7 +5053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>164</v>
       </c>
@@ -5093,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>166</v>
       </c>
@@ -5122,7 +5111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>167</v>
       </c>
@@ -5151,7 +5140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>169</v>
       </c>
@@ -5180,7 +5169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>171</v>
       </c>
@@ -5209,12 +5198,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27" t="s">
         <v>7</v>
       </c>
@@ -5228,7 +5217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="16">
         <v>302632195</v>
       </c>
@@ -5242,7 +5231,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>200940997</v>
       </c>
@@ -5256,7 +5245,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>312143969</v>
       </c>
@@ -5270,7 +5259,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>305003659</v>
       </c>
@@ -5284,12 +5273,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="27" t="s">
         <v>128</v>
       </c>
@@ -5300,7 +5289,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="14">
         <v>1002</v>
       </c>
@@ -5311,7 +5300,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="14">
         <v>1004</v>
       </c>
@@ -5322,7 +5311,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="14">
         <v>1003</v>
       </c>
@@ -5333,7 +5322,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="18">
         <v>1001</v>
       </c>
@@ -5344,90 +5333,90 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="36"/>
       <c r="B31" s="37"/>
       <c r="C31" s="38"/>
     </row>
-    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="44" t="s">
         <v>237</v>
       </c>
       <c r="B33" s="43"/>
       <c r="C33" s="40"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B34" s="37"/>
       <c r="C34" s="41"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B35" s="37"/>
       <c r="C35" s="41"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B36" s="37"/>
       <c r="C36" s="41"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B37" s="37"/>
       <c r="C37" s="41"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="14" t="s">
         <v>84</v>
       </c>
       <c r="B38" s="37"/>
       <c r="C38" s="41"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B39" s="37"/>
       <c r="C39" s="41"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B40" s="37"/>
       <c r="C40" s="41"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B41" s="37"/>
       <c r="C41" s="41"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="38"/>
       <c r="B42" s="37"/>
       <c r="C42" s="41"/>
     </row>
-    <row r="43" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="42" t="s">
         <v>89</v>
       </c>
@@ -5436,7 +5425,7 @@
       </c>
       <c r="C44" s="40"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="16">
         <v>11</v>
       </c>
@@ -5445,7 +5434,7 @@
       </c>
       <c r="C45" s="41"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>22</v>
       </c>
@@ -5454,7 +5443,7 @@
       </c>
       <c r="C46" s="41"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>33</v>
       </c>
@@ -5463,7 +5452,7 @@
       </c>
       <c r="C47" s="41"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>44</v>
       </c>
@@ -5472,17 +5461,17 @@
       </c>
       <c r="C48" s="41"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="36"/>
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
     </row>
-    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="27" t="s">
         <v>7</v>
       </c>
@@ -5493,7 +5482,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="16">
         <v>302632195</v>
       </c>
@@ -5504,7 +5493,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="16">
         <v>302632195</v>
       </c>
@@ -5515,7 +5504,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="16">
         <v>302632195</v>
       </c>
@@ -5526,7 +5515,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>200940997</v>
       </c>
@@ -5537,7 +5526,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>200940997</v>
       </c>
@@ -5548,7 +5537,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>305003659</v>
       </c>
@@ -5559,7 +5548,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>312143969</v>
       </c>
@@ -5570,7 +5559,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>305003659</v>
       </c>
@@ -5581,7 +5570,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>312143969</v>
       </c>
@@ -5592,12 +5581,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="27" t="s">
         <v>73</v>
       </c>
@@ -5611,7 +5600,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="18">
         <v>1001</v>
       </c>
@@ -5625,7 +5614,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="18">
         <v>1001</v>
       </c>
@@ -5639,7 +5628,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="14">
         <v>1002</v>
       </c>
@@ -5653,7 +5642,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="18">
         <v>1001</v>
       </c>
@@ -5667,7 +5656,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="14">
         <v>1002</v>
       </c>
@@ -5681,7 +5670,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="14">
         <v>1004</v>
       </c>
@@ -5695,7 +5684,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="14">
         <v>1002</v>
       </c>
@@ -5709,7 +5698,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="14">
         <v>1004</v>
       </c>
@@ -5723,7 +5712,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="18">
         <v>1001</v>
       </c>
@@ -5737,7 +5726,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="18">
         <v>1001</v>
       </c>
@@ -5751,7 +5740,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="14">
         <v>1002</v>
       </c>
@@ -5765,7 +5754,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="18">
         <v>1001</v>
       </c>
@@ -5779,7 +5768,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="14">
         <v>1002</v>
       </c>
@@ -5793,7 +5782,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="14">
         <v>1004</v>
       </c>
@@ -5807,7 +5796,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="14">
         <v>1002</v>
       </c>
@@ -5821,7 +5810,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="14">
         <v>1004</v>
       </c>
@@ -5835,12 +5824,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="27" t="s">
         <v>108</v>
       </c>
@@ -5854,7 +5843,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="16">
         <v>302632195</v>
       </c>
@@ -5868,7 +5857,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="16">
         <v>302632195</v>
       </c>
@@ -5882,7 +5871,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
         <v>305003659</v>
       </c>
@@ -5896,7 +5885,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
         <v>305003659</v>
       </c>
@@ -5910,7 +5899,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
         <v>305003659</v>
       </c>
@@ -5924,7 +5913,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
         <v>312143969</v>
       </c>
@@ -5938,7 +5927,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
         <v>312143969</v>
       </c>
@@ -5952,12 +5941,12 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A93" s="63" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A94" s="64" t="s">
         <v>108</v>
       </c>
@@ -5977,7 +5966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="14">
         <v>302632195</v>
       </c>
@@ -5997,7 +5986,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="14">
         <v>305003659</v>
       </c>
@@ -6017,7 +6006,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="14">
         <v>200940997</v>
       </c>
@@ -6037,7 +6026,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="67"/>
       <c r="B98" s="67"/>
       <c r="C98" s="67"/>
@@ -6045,12 +6034,12 @@
       <c r="E98" s="67"/>
       <c r="F98" s="67"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A100" s="63" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A101" s="65" t="s">
         <v>240</v>
       </c>
@@ -6061,7 +6050,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="14">
         <v>90000</v>
       </c>
@@ -6072,7 +6061,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="14">
         <v>90001</v>
       </c>
@@ -6083,7 +6072,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="14">
         <v>90002</v>
       </c>
@@ -6094,12 +6083,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A107" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A108" s="44" t="s">
         <v>550</v>
       </c>
@@ -6107,7 +6096,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="50">
         <v>2001</v>
       </c>
@@ -6115,7 +6104,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="48">
         <v>2002</v>
       </c>
@@ -6123,7 +6112,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="48">
         <v>2003</v>
       </c>
@@ -6131,7 +6120,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="48">
         <v>2004</v>
       </c>
@@ -6139,7 +6128,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" s="48">
         <v>2005</v>
       </c>
@@ -6147,7 +6136,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" s="48">
         <v>2006</v>
       </c>
@@ -6155,7 +6144,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" s="48">
         <v>2007</v>
       </c>
@@ -6163,7 +6152,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" s="48">
         <v>2008</v>
       </c>
@@ -6199,25 +6188,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.80859375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.33203125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
+    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="142"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="157"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -6225,7 +6214,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
@@ -6233,13 +6222,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="22"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
@@ -6247,7 +6236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
@@ -6255,7 +6244,7 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
     </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="30" t="s">
         <v>14</v>
       </c>
@@ -6269,7 +6258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -6283,7 +6272,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -6297,7 +6286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -6311,7 +6300,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -6325,7 +6314,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -6339,14 +6328,14 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="141" t="s">
+    <row r="16" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="142"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="157"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A18" s="25" t="s">
         <v>0</v>
       </c>
@@ -6354,7 +6343,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A19" s="26" t="s">
         <v>1</v>
       </c>
@@ -6362,13 +6351,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="22"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A21" s="26" t="s">
         <v>3</v>
       </c>
@@ -6376,7 +6365,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A23" s="20" t="s">
         <v>13</v>
       </c>
@@ -6384,7 +6373,7 @@
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
     </row>
-    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="30" t="s">
         <v>14</v>
       </c>
@@ -6398,7 +6387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
@@ -6412,7 +6401,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>49</v>
       </c>
@@ -6426,7 +6415,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="57" t="s">
         <v>279</v>
       </c>
@@ -6440,7 +6429,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="57" t="s">
         <v>281</v>
       </c>
@@ -6454,7 +6443,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
@@ -6468,7 +6457,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="7" t="s">
         <v>51</v>
       </c>
@@ -6482,7 +6471,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="7" t="s">
         <v>52</v>
       </c>
@@ -6496,7 +6485,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="7" t="s">
         <v>23</v>
       </c>
@@ -6510,25 +6499,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A33" s="68"/>
       <c r="B33" s="69"/>
       <c r="C33" s="70"/>
       <c r="D33" s="71"/>
     </row>
-    <row r="34" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="68"/>
       <c r="B34" s="69"/>
       <c r="C34" s="70"/>
       <c r="D34" s="71"/>
     </row>
-    <row r="35" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="141" t="s">
+    <row r="35" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="142"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="157"/>
+    </row>
+    <row r="36" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A36" s="25" t="s">
         <v>0</v>
       </c>
@@ -6536,7 +6525,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A37" s="26" t="s">
         <v>1</v>
       </c>
@@ -6544,7 +6533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A38" s="26" t="s">
         <v>2</v>
       </c>
@@ -6552,7 +6541,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A39" s="26" t="s">
         <v>3</v>
       </c>
@@ -6560,7 +6549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A42" s="20" t="s">
         <v>13</v>
       </c>
@@ -6568,7 +6557,7 @@
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
     </row>
-    <row r="43" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="30" t="s">
         <v>14</v>
       </c>
@@ -6582,7 +6571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
         <v>266</v>
       </c>
@@ -6596,7 +6585,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>267</v>
       </c>
@@ -6610,7 +6599,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="57" t="s">
         <v>328</v>
       </c>
@@ -6624,7 +6613,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="57" t="s">
         <v>268</v>
       </c>
@@ -6638,7 +6627,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="7" t="s">
         <v>23</v>
       </c>
@@ -6652,25 +6641,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A49" s="68"/>
       <c r="B49" s="69"/>
       <c r="C49" s="70"/>
       <c r="D49" s="71"/>
     </row>
-    <row r="50" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="68"/>
       <c r="B50" s="69"/>
       <c r="C50" s="70"/>
       <c r="D50" s="71"/>
     </row>
-    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="141" t="s">
+    <row r="51" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="156" t="s">
         <v>259</v>
       </c>
-      <c r="B51" s="142"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="157"/>
+    </row>
+    <row r="52" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A52" s="25" t="s">
         <v>0</v>
       </c>
@@ -6678,7 +6667,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A53" s="26" t="s">
         <v>1</v>
       </c>
@@ -6686,13 +6675,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A54" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B54" s="22"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A55" s="26" t="s">
         <v>3</v>
       </c>
@@ -6700,11 +6689,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A56" s="73"/>
       <c r="B56" s="74"/>
     </row>
-    <row r="58" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="20" t="s">
         <v>13</v>
       </c>
@@ -6712,7 +6701,7 @@
       <c r="C58" s="38"/>
       <c r="D58" s="39"/>
     </row>
-    <row r="59" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="30" t="s">
         <v>14</v>
       </c>
@@ -6726,7 +6715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
         <v>182</v>
       </c>
@@ -6740,7 +6729,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
         <v>183</v>
       </c>
@@ -6754,7 +6743,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
         <v>185</v>
       </c>
@@ -6768,7 +6757,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="7" t="s">
         <v>23</v>
       </c>
@@ -6782,14 +6771,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="141" t="s">
+    <row r="65" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="66" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="156" t="s">
         <v>190</v>
       </c>
-      <c r="B66" s="142"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="157"/>
+    </row>
+    <row r="67" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A67" s="25" t="s">
         <v>0</v>
       </c>
@@ -6797,7 +6786,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A68" s="26" t="s">
         <v>1</v>
       </c>
@@ -6805,13 +6794,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A69" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="22"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A70" s="26" t="s">
         <v>3</v>
       </c>
@@ -6819,12 +6808,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A73" s="30" t="s">
         <v>14</v>
       </c>
@@ -6838,7 +6827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
         <v>192</v>
       </c>
@@ -6852,7 +6841,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="106" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="96.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
         <v>193</v>
       </c>
@@ -6866,7 +6855,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="4" t="s">
         <v>200</v>
       </c>
@@ -6880,7 +6869,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77" s="7" t="s">
         <v>23</v>
       </c>
@@ -6894,14 +6883,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="141" t="s">
+    <row r="79" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="80" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A80" s="156" t="s">
         <v>196</v>
       </c>
-      <c r="B80" s="142"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B80" s="157"/>
+    </row>
+    <row r="81" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A81" s="25" t="s">
         <v>0</v>
       </c>
@@ -6909,7 +6898,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A82" s="26" t="s">
         <v>1</v>
       </c>
@@ -6917,13 +6906,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A83" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B83" s="22"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A84" s="26" t="s">
         <v>3</v>
       </c>
@@ -6931,12 +6920,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87" s="30" t="s">
         <v>14</v>
       </c>
@@ -6950,7 +6939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A88" s="4" t="s">
         <v>210</v>
       </c>
@@ -6964,7 +6953,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="166" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="165.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89" s="4" t="s">
         <v>212</v>
       </c>
@@ -6978,7 +6967,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A90" s="57" t="s">
         <v>214</v>
       </c>
@@ -6992,7 +6981,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A91" s="7" t="s">
         <v>23</v>
       </c>
@@ -7006,14 +6995,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="141" t="s">
+    <row r="93" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="94" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A94" s="156" t="s">
         <v>198</v>
       </c>
-      <c r="B94" s="142"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B94" s="157"/>
+    </row>
+    <row r="95" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A95" s="25" t="s">
         <v>0</v>
       </c>
@@ -7021,7 +7010,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A96" s="26" t="s">
         <v>1</v>
       </c>
@@ -7029,13 +7018,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A97" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B97" s="22"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A98" s="26" t="s">
         <v>3</v>
       </c>
@@ -7043,12 +7032,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A101" s="30" t="s">
         <v>14</v>
       </c>
@@ -7062,7 +7051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A102" s="4" t="s">
         <v>217</v>
       </c>
@@ -7076,7 +7065,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="106" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="110.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A103" s="4" t="s">
         <v>229</v>
       </c>
@@ -7090,7 +7079,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A104" s="4" t="s">
         <v>224</v>
       </c>
@@ -7104,7 +7093,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A105" s="7" t="s">
         <v>23</v>
       </c>
@@ -7137,11 +7126,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
@@ -7149,13 +7138,13 @@
     <col min="4" max="4" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="156" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="151"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="157"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -7163,7 +7152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
@@ -7171,41 +7160,41 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="77"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="78"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A6" s="75"/>
     </row>
-    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="79" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="170" t="s">
+    <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="170" t="s">
+      <c r="C8" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="170" t="s">
+      <c r="D8" s="152" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="56.1" x14ac:dyDescent="0.45">
       <c r="A9" s="114" t="s">
         <v>288</v>
       </c>
@@ -7215,11 +7204,11 @@
       <c r="C9" s="115" t="s">
         <v>289</v>
       </c>
-      <c r="D9" s="171" t="s">
+      <c r="D9" s="153" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="83.7" x14ac:dyDescent="0.45">
       <c r="A10" s="138" t="s">
         <v>291</v>
       </c>
@@ -7229,11 +7218,11 @@
       <c r="C10" s="117" t="s">
         <v>292</v>
       </c>
-      <c r="D10" s="172" t="s">
+      <c r="D10" s="154" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
       <c r="A11" s="138" t="s">
         <v>293</v>
       </c>
@@ -7243,89 +7232,89 @@
       <c r="C11" s="117" t="s">
         <v>294</v>
       </c>
-      <c r="D11" s="168" t="s">
+      <c r="D11" s="150" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A12" s="144" t="s">
+    <row r="12" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
+      <c r="A12" s="160" t="s">
         <v>296</v>
       </c>
       <c r="B12" s="117" t="s">
         <v>320</v>
       </c>
-      <c r="C12" s="168" t="s">
+      <c r="C12" s="150" t="s">
         <v>333</v>
       </c>
-      <c r="D12" s="173" t="s">
+      <c r="D12" s="159" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A13" s="145"/>
+    <row r="13" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
+      <c r="A13" s="161"/>
       <c r="B13" s="117" t="s">
         <v>297</v>
       </c>
       <c r="C13" s="117" t="s">
         <v>334</v>
       </c>
-      <c r="D13" s="173"/>
-    </row>
-    <row r="14" spans="1:4" ht="135" x14ac:dyDescent="0.2">
-      <c r="A14" s="145"/>
-      <c r="B14" s="168" t="s">
+      <c r="D13" s="159"/>
+    </row>
+    <row r="14" spans="1:4" ht="139.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="161"/>
+      <c r="B14" s="150" t="s">
         <v>298</v>
       </c>
       <c r="C14" s="117" t="s">
         <v>336</v>
       </c>
-      <c r="D14" s="173"/>
-    </row>
-    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A15" s="143" t="s">
+      <c r="D14" s="159"/>
+    </row>
+    <row r="15" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
+      <c r="A15" s="158" t="s">
         <v>337</v>
       </c>
       <c r="B15" s="117" t="s">
         <v>332</v>
       </c>
-      <c r="C15" s="168" t="s">
+      <c r="C15" s="150" t="s">
         <v>333</v>
       </c>
-      <c r="D15" s="173" t="s">
+      <c r="D15" s="159" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="105" x14ac:dyDescent="0.2">
-      <c r="A16" s="143"/>
+    <row r="16" spans="1:4" ht="97.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="158"/>
       <c r="B16" s="117" t="s">
         <v>300</v>
       </c>
       <c r="C16" s="117" t="s">
         <v>335</v>
       </c>
-      <c r="D16" s="173"/>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="143"/>
+      <c r="D16" s="159"/>
+    </row>
+    <row r="17" spans="1:4" ht="27.9" x14ac:dyDescent="0.45">
+      <c r="A17" s="158"/>
       <c r="B17" s="117" t="s">
         <v>301</v>
       </c>
-      <c r="C17" s="174" t="s">
+      <c r="C17" s="155" t="s">
         <v>302</v>
       </c>
-      <c r="D17" s="173"/>
-    </row>
-    <row r="18" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="143"/>
+      <c r="D17" s="159"/>
+    </row>
+    <row r="18" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="158"/>
       <c r="B18" s="117" t="s">
         <v>303</v>
       </c>
-      <c r="C18" s="174" t="s">
+      <c r="C18" s="155" t="s">
         <v>304</v>
       </c>
-      <c r="D18" s="173"/>
-    </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="D18" s="159"/>
+    </row>
+    <row r="19" spans="1:4" ht="56.1" x14ac:dyDescent="0.45">
       <c r="A19" s="137" t="s">
         <v>305</v>
       </c>
@@ -7339,7 +7328,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="56.1" x14ac:dyDescent="0.45">
       <c r="A20" s="138" t="s">
         <v>308</v>
       </c>
@@ -7351,7 +7340,7 @@
       </c>
       <c r="D20" s="48"/>
     </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="56.1" x14ac:dyDescent="0.45">
       <c r="A21" s="138" t="s">
         <v>310</v>
       </c>
@@ -7361,11 +7350,11 @@
       <c r="C21" s="117" t="s">
         <v>309</v>
       </c>
-      <c r="D21" s="162" t="s">
+      <c r="D21" s="144" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
       <c r="A22" s="138" t="s">
         <v>312</v>
       </c>
@@ -7375,7 +7364,7 @@
       <c r="C22" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="D22" s="162" t="s">
+      <c r="D22" s="144" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7396,25 +7385,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="A131" sqref="A131:B131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.47265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.33203125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="151"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="157"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -7422,7 +7411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
@@ -7430,13 +7419,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="22"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
@@ -7444,7 +7433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
@@ -7452,7 +7441,7 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
     </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="31" t="s">
         <v>14</v>
       </c>
@@ -7466,7 +7455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -7480,7 +7469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -7494,7 +7483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -7508,7 +7497,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -7522,7 +7511,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -7536,16 +7525,16 @@
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="146" t="s">
+    <row r="16" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="164" t="s">
         <v>341</v>
       </c>
-      <c r="B17" s="147"/>
+      <c r="B17" s="165"/>
       <c r="C17" s="100"/>
       <c r="D17" s="100"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A18" s="101" t="s">
         <v>0</v>
       </c>
@@ -7555,7 +7544,7 @@
       <c r="C18" s="100"/>
       <c r="D18" s="100"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A19" s="103" t="s">
         <v>1</v>
       </c>
@@ -7565,7 +7554,7 @@
       <c r="C19" s="100"/>
       <c r="D19" s="100"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A20" s="103" t="s">
         <v>2</v>
       </c>
@@ -7573,7 +7562,7 @@
       <c r="C20" s="100"/>
       <c r="D20" s="100"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A21" s="103" t="s">
         <v>3</v>
       </c>
@@ -7583,13 +7572,13 @@
       <c r="C21" s="100"/>
       <c r="D21" s="100"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="100"/>
       <c r="B22" s="100"/>
       <c r="C22" s="100"/>
       <c r="D22" s="100"/>
     </row>
-    <row r="23" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A23" s="106" t="s">
         <v>13</v>
       </c>
@@ -7597,7 +7586,7 @@
       <c r="C23" s="19"/>
       <c r="D23" s="107"/>
     </row>
-    <row r="24" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="30" t="s">
         <v>14</v>
       </c>
@@ -7611,7 +7600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="69" x14ac:dyDescent="0.45">
       <c r="A25" s="108" t="s">
         <v>343</v>
       </c>
@@ -7625,7 +7614,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="69" x14ac:dyDescent="0.45">
       <c r="A26" s="108" t="s">
         <v>343</v>
       </c>
@@ -7639,7 +7628,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="69" x14ac:dyDescent="0.45">
       <c r="A27" s="108" t="s">
         <v>343</v>
       </c>
@@ -7653,7 +7642,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="82.8" x14ac:dyDescent="0.45">
       <c r="A28" s="111" t="s">
         <v>19</v>
       </c>
@@ -7667,42 +7656,42 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A29" s="165" t="s">
+    <row r="29" spans="1:4" ht="82.8" x14ac:dyDescent="0.45">
+      <c r="A29" s="147" t="s">
         <v>513</v>
       </c>
-      <c r="B29" s="166" t="s">
+      <c r="B29" s="148" t="s">
         <v>514</v>
       </c>
-      <c r="C29" s="166" t="s">
+      <c r="C29" s="148" t="s">
         <v>515</v>
       </c>
-      <c r="D29" s="167" t="s">
+      <c r="D29" s="149" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="41.4" x14ac:dyDescent="0.45">
       <c r="A30" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="168" t="s">
+      <c r="B30" s="150" t="s">
         <v>355</v>
       </c>
-      <c r="C30" s="169" t="s">
+      <c r="C30" s="151" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="118" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="150" t="s">
+    <row r="32" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="33" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="156" t="s">
         <v>345</v>
       </c>
-      <c r="B33" s="151"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="157"/>
+    </row>
+    <row r="34" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A34" s="25" t="s">
         <v>0</v>
       </c>
@@ -7710,7 +7699,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A35" s="26" t="s">
         <v>1</v>
       </c>
@@ -7718,13 +7707,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A36" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="22"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A37" s="26" t="s">
         <v>3</v>
       </c>
@@ -7732,7 +7721,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A38" s="20" t="s">
         <v>13</v>
       </c>
@@ -7740,7 +7729,7 @@
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
     </row>
-    <row r="39" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="30" t="s">
         <v>14</v>
       </c>
@@ -7754,7 +7743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
         <v>347</v>
       </c>
@@ -7768,7 +7757,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
         <v>351</v>
       </c>
@@ -7782,7 +7771,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="7" t="s">
         <v>23</v>
       </c>
@@ -7796,14 +7785,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="150" t="s">
+    <row r="44" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="45" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="156" t="s">
         <v>449</v>
       </c>
-      <c r="B45" s="151"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="157"/>
+    </row>
+    <row r="46" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A46" s="25" t="s">
         <v>0</v>
       </c>
@@ -7811,7 +7800,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A47" s="26" t="s">
         <v>1</v>
       </c>
@@ -7819,13 +7808,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A48" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="22"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A49" s="26" t="s">
         <v>3</v>
       </c>
@@ -7833,15 +7822,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A50" s="73"/>
       <c r="B50" s="74"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A51" s="73"/>
       <c r="B51" s="74"/>
     </row>
-    <row r="52" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A52" s="20" t="s">
         <v>13</v>
       </c>
@@ -7849,7 +7838,7 @@
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
     </row>
-    <row r="53" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="30" t="s">
         <v>14</v>
       </c>
@@ -7863,7 +7852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
         <v>451</v>
       </c>
@@ -7877,7 +7866,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
         <v>454</v>
       </c>
@@ -7891,7 +7880,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="7" t="s">
         <v>23</v>
       </c>
@@ -7905,14 +7894,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="150" t="s">
+    <row r="58" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="59" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="156" t="s">
         <v>459</v>
       </c>
-      <c r="B59" s="151"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="157"/>
+    </row>
+    <row r="60" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A60" s="25" t="s">
         <v>0</v>
       </c>
@@ -7920,7 +7909,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A61" s="26" t="s">
         <v>1</v>
       </c>
@@ -7928,13 +7917,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A62" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B62" s="22"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A63" s="26" t="s">
         <v>3</v>
       </c>
@@ -7942,15 +7931,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A64" s="73"/>
       <c r="B64" s="74"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A65" s="73"/>
       <c r="B65" s="74"/>
     </row>
-    <row r="66" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A66" s="20" t="s">
         <v>13</v>
       </c>
@@ -7958,7 +7947,7 @@
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
     </row>
-    <row r="67" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" s="30" t="s">
         <v>14</v>
       </c>
@@ -7972,7 +7961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
         <v>461</v>
       </c>
@@ -7986,7 +7975,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
         <v>465</v>
       </c>
@@ -8000,7 +7989,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="41.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="7" t="s">
         <v>23</v>
       </c>
@@ -8014,7 +8003,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71" s="94" t="s">
         <v>470</v>
       </c>
@@ -8028,7 +8017,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="95" t="s">
         <v>474</v>
       </c>
@@ -8042,14 +8031,14 @@
         <v>477</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="150" t="s">
+    <row r="74" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="75" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A75" s="156" t="s">
         <v>478</v>
       </c>
-      <c r="B75" s="151"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B75" s="157"/>
+    </row>
+    <row r="76" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A76" s="25" t="s">
         <v>0</v>
       </c>
@@ -8057,7 +8046,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A77" s="26" t="s">
         <v>1</v>
       </c>
@@ -8065,7 +8054,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A78" s="26" t="s">
         <v>2</v>
       </c>
@@ -8073,7 +8062,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A79" s="26" t="s">
         <v>3</v>
       </c>
@@ -8081,15 +8070,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A80" s="73"/>
       <c r="B80" s="74"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A81" s="73"/>
       <c r="B81" s="74"/>
     </row>
-    <row r="82" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A82" s="20" t="s">
         <v>13</v>
       </c>
@@ -8097,7 +8086,7 @@
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
     </row>
-    <row r="83" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83" s="30" t="s">
         <v>14</v>
       </c>
@@ -8111,7 +8100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="106" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="110.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A84" s="4" t="s">
         <v>480</v>
       </c>
@@ -8125,7 +8114,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="96.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" s="4" t="s">
         <v>19</v>
       </c>
@@ -8139,7 +8128,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86" s="7" t="s">
         <v>23</v>
       </c>
@@ -8153,7 +8142,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="110.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87" s="94" t="s">
         <v>489</v>
       </c>
@@ -8167,14 +8156,14 @@
         <v>492</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="150" t="s">
+    <row r="89" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="90" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A90" s="156" t="s">
         <v>518</v>
       </c>
-      <c r="B90" s="151"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B90" s="157"/>
+    </row>
+    <row r="91" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A91" s="25" t="s">
         <v>0</v>
       </c>
@@ -8182,7 +8171,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A92" s="26" t="s">
         <v>1</v>
       </c>
@@ -8190,13 +8179,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A93" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B93" s="22"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A94" s="26" t="s">
         <v>3</v>
       </c>
@@ -8204,15 +8193,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A95" s="73"/>
       <c r="B95" s="74"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A96" s="73"/>
       <c r="B96" s="74"/>
     </row>
-    <row r="97" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A97" s="20" t="s">
         <v>13</v>
       </c>
@@ -8220,7 +8209,7 @@
       <c r="C97" s="19"/>
       <c r="D97" s="19"/>
     </row>
-    <row r="98" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A98" s="30" t="s">
         <v>14</v>
       </c>
@@ -8234,7 +8223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A99" s="4" t="s">
         <v>520</v>
       </c>
@@ -8248,7 +8237,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="83.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A100" s="4" t="s">
         <v>524</v>
       </c>
@@ -8262,7 +8251,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A101" s="7" t="s">
         <v>23</v>
       </c>
@@ -8276,14 +8265,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="150" t="s">
+    <row r="103" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="104" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A104" s="156" t="s">
         <v>528</v>
       </c>
-      <c r="B104" s="151"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B104" s="157"/>
+    </row>
+    <row r="105" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A105" s="25" t="s">
         <v>0</v>
       </c>
@@ -8291,7 +8280,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A106" s="26" t="s">
         <v>1</v>
       </c>
@@ -8299,13 +8288,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A107" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B107" s="22"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A108" s="26" t="s">
         <v>3</v>
       </c>
@@ -8313,11 +8302,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="120" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" s="120" customFormat="1" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A109" s="119"/>
       <c r="B109" s="74"/>
     </row>
-    <row r="111" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A111" s="20" t="s">
         <v>13</v>
       </c>
@@ -8325,7 +8314,7 @@
       <c r="C111" s="19"/>
       <c r="D111" s="19"/>
     </row>
-    <row r="112" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A112" s="30" t="s">
         <v>14</v>
       </c>
@@ -8339,7 +8328,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A113" s="4" t="s">
         <v>530</v>
       </c>
@@ -8353,7 +8342,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A114" s="4" t="s">
         <v>534</v>
       </c>
@@ -8367,7 +8356,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="69.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A115" s="7" t="s">
         <v>23</v>
       </c>
@@ -8381,14 +8370,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="150" t="s">
+    <row r="117" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="118" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A118" s="156" t="s">
         <v>538</v>
       </c>
-      <c r="B118" s="151"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B118" s="157"/>
+    </row>
+    <row r="119" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A119" s="25" t="s">
         <v>0</v>
       </c>
@@ -8396,7 +8385,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A120" s="26" t="s">
         <v>1</v>
       </c>
@@ -8404,7 +8393,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A121" s="26" t="s">
         <v>2</v>
       </c>
@@ -8412,7 +8401,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A122" s="26" t="s">
         <v>3</v>
       </c>
@@ -8420,7 +8409,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A125" s="20" t="s">
         <v>13</v>
       </c>
@@ -8428,7 +8417,7 @@
       <c r="C125" s="19"/>
       <c r="D125" s="19"/>
     </row>
-    <row r="126" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A126" s="30" t="s">
         <v>14</v>
       </c>
@@ -8442,7 +8431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
       <c r="A127" s="114" t="s">
         <v>540</v>
       </c>
@@ -8456,7 +8445,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
       <c r="A128" s="93" t="s">
         <v>544</v>
       </c>
@@ -8468,14 +8457,14 @@
         <v>546</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="150" t="s">
+    <row r="130" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="131" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A131" s="156" t="s">
         <v>547</v>
       </c>
-      <c r="B131" s="151"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B131" s="157"/>
+    </row>
+    <row r="132" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A132" s="25" t="s">
         <v>0</v>
       </c>
@@ -8483,7 +8472,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A133" s="26" t="s">
         <v>1</v>
       </c>
@@ -8491,7 +8480,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A134" s="26" t="s">
         <v>2</v>
       </c>
@@ -8499,7 +8488,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A135" s="26" t="s">
         <v>3</v>
       </c>
@@ -8507,7 +8496,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A137" s="20" t="s">
         <v>13</v>
       </c>
@@ -8515,7 +8504,7 @@
       <c r="C137" s="19"/>
       <c r="D137" s="19"/>
     </row>
-    <row r="138" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="30" t="s">
         <v>14</v>
       </c>
@@ -8529,7 +8518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
       <c r="A139" s="114" t="s">
         <v>540</v>
       </c>
@@ -8543,7 +8532,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
       <c r="A140" s="93" t="s">
         <v>544</v>
       </c>
@@ -8578,24 +8567,24 @@
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView topLeftCell="A57" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:D59"/>
+      <selection activeCell="A49" sqref="A49:B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="148" t="s">
+    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="166" t="s">
         <v>356</v>
       </c>
-      <c r="B1" s="149"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="167"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A2" s="139" t="s">
         <v>357</v>
       </c>
@@ -8603,7 +8592,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
@@ -8611,13 +8600,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A4" s="81" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="66"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A5" s="81" t="s">
         <v>3</v>
       </c>
@@ -8625,7 +8614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
@@ -8633,7 +8622,7 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
     </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="31" t="s">
         <v>14</v>
       </c>
@@ -8647,7 +8636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A10" s="114" t="s">
         <v>493</v>
       </c>
@@ -8657,11 +8646,11 @@
       <c r="C10" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="D10" s="160" t="s">
+      <c r="D10" s="142" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A11" s="129" t="s">
         <v>494</v>
       </c>
@@ -8671,11 +8660,11 @@
       <c r="C11" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="D11" s="160" t="s">
+      <c r="D11" s="142" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A12" s="129" t="s">
         <v>500</v>
       </c>
@@ -8685,11 +8674,11 @@
       <c r="C12" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="D12" s="160" t="s">
+      <c r="D12" s="142" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A13" s="129" t="s">
         <v>501</v>
       </c>
@@ -8699,11 +8688,11 @@
       <c r="C13" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="D13" s="160" t="s">
+      <c r="D13" s="142" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A14" s="129" t="s">
         <v>502</v>
       </c>
@@ -8713,11 +8702,11 @@
       <c r="C14" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="D14" s="160" t="s">
+      <c r="D14" s="142" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A15" s="129" t="s">
         <v>503</v>
       </c>
@@ -8727,11 +8716,11 @@
       <c r="C15" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="D15" s="160" t="s">
+      <c r="D15" s="142" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A16" s="129" t="s">
         <v>504</v>
       </c>
@@ -8741,11 +8730,11 @@
       <c r="C16" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="D16" s="160" t="s">
+      <c r="D16" s="142" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A17" s="129" t="s">
         <v>506</v>
       </c>
@@ -8755,11 +8744,11 @@
       <c r="C17" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="D17" s="160" t="s">
+      <c r="D17" s="142" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A18" s="129" t="s">
         <v>505</v>
       </c>
@@ -8769,11 +8758,11 @@
       <c r="C18" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="D18" s="160" t="s">
+      <c r="D18" s="142" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A19" s="129" t="s">
         <v>23</v>
       </c>
@@ -8783,18 +8772,18 @@
       <c r="C19" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="D19" s="160" t="s">
+      <c r="D19" s="142" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="148" t="s">
+    <row r="21" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="22" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="162" t="s">
         <v>362</v>
       </c>
-      <c r="B22" s="149"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="163"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A23" s="139" t="s">
         <v>357</v>
       </c>
@@ -8802,7 +8791,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A24" s="81" t="s">
         <v>1</v>
       </c>
@@ -8810,13 +8799,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A25" s="81" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="66"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A26" s="81" t="s">
         <v>3</v>
       </c>
@@ -8824,7 +8813,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A29" s="20" t="s">
         <v>13</v>
       </c>
@@ -8832,7 +8821,7 @@
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
     </row>
-    <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="31" t="s">
         <v>14</v>
       </c>
@@ -8846,42 +8835,42 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="41.4" x14ac:dyDescent="0.45">
       <c r="A31" s="114" t="s">
         <v>495</v>
       </c>
       <c r="B31" s="115" t="s">
         <v>365</v>
       </c>
-      <c r="C31" s="161" t="s">
+      <c r="C31" s="143" t="s">
         <v>366</v>
       </c>
-      <c r="D31" s="160" t="s">
+      <c r="D31" s="142" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
       <c r="A32" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="162" t="s">
+      <c r="B32" s="144" t="s">
         <v>368</v>
       </c>
-      <c r="C32" s="163" t="s">
+      <c r="C32" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="164" t="s">
+      <c r="D32" s="146" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="150" t="s">
+    <row r="34" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="35" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="156" t="s">
         <v>369</v>
       </c>
-      <c r="B35" s="151"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="157"/>
+    </row>
+    <row r="36" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A36" s="139" t="s">
         <v>357</v>
       </c>
@@ -8889,7 +8878,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A37" s="81" t="s">
         <v>1</v>
       </c>
@@ -8897,13 +8886,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A38" s="81" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="66"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A39" s="82" t="s">
         <v>3</v>
       </c>
@@ -8911,7 +8900,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A41" s="20" t="s">
         <v>13</v>
       </c>
@@ -8919,7 +8908,7 @@
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
     </row>
-    <row r="42" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="31" t="s">
         <v>14</v>
       </c>
@@ -8933,7 +8922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
       <c r="A43" s="136" t="s">
         <v>496</v>
       </c>
@@ -8943,11 +8932,11 @@
       <c r="C43" s="115" t="s">
         <v>372</v>
       </c>
-      <c r="D43" s="160" t="s">
+      <c r="D43" s="142" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="69" x14ac:dyDescent="0.45">
       <c r="A44" s="83" t="s">
         <v>497</v>
       </c>
@@ -8957,11 +8946,11 @@
       <c r="C44" s="117" t="s">
         <v>375</v>
       </c>
-      <c r="D44" s="162" t="s">
+      <c r="D44" s="144" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A45" s="129" t="s">
         <v>498</v>
       </c>
@@ -8971,32 +8960,32 @@
       <c r="C45" s="117" t="s">
         <v>377</v>
       </c>
-      <c r="D45" s="162" t="s">
+      <c r="D45" s="144" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
       <c r="A46" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="162" t="s">
+      <c r="B46" s="144" t="s">
         <v>378</v>
       </c>
       <c r="C46" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="162" t="s">
+      <c r="D46" s="144" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="148" t="s">
+    <row r="48" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="49" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="166" t="s">
         <v>379</v>
       </c>
-      <c r="B49" s="149"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="167"/>
+    </row>
+    <row r="50" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A50" s="139" t="s">
         <v>357</v>
       </c>
@@ -9004,7 +8993,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A51" s="81" t="s">
         <v>1</v>
       </c>
@@ -9012,13 +9001,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A52" s="81" t="s">
         <v>2</v>
       </c>
       <c r="B52" s="66"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A53" s="80" t="s">
         <v>3</v>
       </c>
@@ -9026,7 +9015,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A55" s="20" t="s">
         <v>13</v>
       </c>
@@ -9034,7 +9023,7 @@
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
     </row>
-    <row r="56" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="31" t="s">
         <v>14</v>
       </c>
@@ -9048,7 +9037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
       <c r="A57" s="114" t="s">
         <v>381</v>
       </c>
@@ -9058,11 +9047,11 @@
       <c r="C57" s="115" t="s">
         <v>383</v>
       </c>
-      <c r="D57" s="160" t="s">
+      <c r="D57" s="142" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="96.6" x14ac:dyDescent="0.45">
       <c r="A58" s="129" t="s">
         <v>384</v>
       </c>
@@ -9072,21 +9061,21 @@
       <c r="C58" s="117" t="s">
         <v>386</v>
       </c>
-      <c r="D58" s="162" t="s">
+      <c r="D58" s="144" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
       <c r="A59" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="162" t="s">
+      <c r="B59" s="144" t="s">
         <v>388</v>
       </c>
       <c r="C59" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="162" t="s">
+      <c r="D59" s="144" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9106,24 +9095,24 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:D48"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.80859375" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="152" t="s">
+    <row r="1" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="168" t="s">
         <v>389</v>
       </c>
-      <c r="B1" s="152"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="169"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="87" t="s">
         <v>357</v>
       </c>
@@ -9131,7 +9120,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
@@ -9139,13 +9128,13 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="66"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="66" t="s">
         <v>3</v>
       </c>
@@ -9153,12 +9142,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="88" t="s">
         <v>14</v>
       </c>
@@ -9172,7 +9161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
       <c r="A10" s="86" t="s">
         <v>394</v>
       </c>
@@ -9186,7 +9175,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="27.6" x14ac:dyDescent="0.45">
       <c r="A11" s="86" t="s">
         <v>398</v>
       </c>
@@ -9200,14 +9189,14 @@
         <v>395</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="157" t="s">
+    <row r="13" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="14" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="168" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="158"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="169"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="87" t="s">
         <v>357</v>
       </c>
@@ -9215,7 +9204,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="66" t="s">
         <v>1</v>
       </c>
@@ -9223,13 +9212,13 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="66"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="66" t="s">
         <v>3</v>
       </c>
@@ -9237,12 +9226,12 @@
         <v>390</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="88" t="s">
         <v>14</v>
       </c>
@@ -9256,7 +9245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="225" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.45">
       <c r="A23" s="86" t="s">
         <v>403</v>
       </c>
@@ -9270,7 +9259,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A24" s="86" t="s">
         <v>406</v>
       </c>
@@ -9284,7 +9273,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="195" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="124.2" x14ac:dyDescent="0.45">
       <c r="A25" s="86" t="s">
         <v>409</v>
       </c>
@@ -9298,7 +9287,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A26" s="86" t="s">
         <v>412</v>
       </c>
@@ -9312,7 +9301,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="409" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="358.8" x14ac:dyDescent="0.45">
       <c r="A27" s="85" t="s">
         <v>415</v>
       </c>
@@ -9326,7 +9315,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="82.8" x14ac:dyDescent="0.45">
       <c r="A28" s="85" t="s">
         <v>418</v>
       </c>
@@ -9340,7 +9329,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
       <c r="A29" s="85" t="s">
         <v>421</v>
       </c>
@@ -9354,13 +9343,14 @@
         <v>567</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="153" t="s">
+    <row r="32" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="33" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="168" t="s">
         <v>422</v>
       </c>
-      <c r="B33" s="153"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="169"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="87" t="s">
         <v>357</v>
       </c>
@@ -9368,7 +9358,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="66" t="s">
         <v>1</v>
       </c>
@@ -9376,13 +9366,13 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="66"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="66" t="s">
         <v>3</v>
       </c>
@@ -9390,12 +9380,12 @@
         <v>390</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="88" t="s">
         <v>14</v>
       </c>
@@ -9409,7 +9399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="138" x14ac:dyDescent="0.45">
       <c r="A42" s="86" t="s">
         <v>426</v>
       </c>
@@ -9423,7 +9413,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A43" s="86" t="s">
         <v>429</v>
       </c>
@@ -9437,7 +9427,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="135" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
       <c r="A44" s="86" t="s">
         <v>432</v>
       </c>
@@ -9451,7 +9441,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="96.6" x14ac:dyDescent="0.45">
       <c r="A45" s="86" t="s">
         <v>435</v>
       </c>
@@ -9465,7 +9455,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="96.6" x14ac:dyDescent="0.45">
       <c r="A46" s="86" t="s">
         <v>438</v>
       </c>
@@ -9479,7 +9469,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="96.6" x14ac:dyDescent="0.45">
       <c r="A47" s="85" t="s">
         <v>441</v>
       </c>
@@ -9493,7 +9483,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
       <c r="A48" s="86" t="s">
         <v>421</v>
       </c>
@@ -9521,24 +9511,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScale="133" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:D36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.76171875" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.80859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="156" t="s">
         <v>574</v>
       </c>
-      <c r="B1" s="151"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="157"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="87" t="s">
         <v>357</v>
       </c>
@@ -9546,7 +9537,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
@@ -9554,13 +9545,13 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="66"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="66" t="s">
         <v>3</v>
       </c>
@@ -9568,16 +9559,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="133" t="s">
+    <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="132"/>
       <c r="C7" s="132"/>
       <c r="D7" s="132"/>
     </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="133" t="s">
         <v>14</v>
       </c>
@@ -9591,21 +9581,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="96.6" x14ac:dyDescent="0.45">
       <c r="A9" s="136" t="s">
         <v>576</v>
       </c>
-      <c r="B9" s="159" t="s">
+      <c r="B9" s="141" t="s">
         <v>578</v>
       </c>
-      <c r="C9" s="159" t="s">
+      <c r="C9" s="141" t="s">
         <v>580</v>
       </c>
-      <c r="D9" s="159" t="s">
+      <c r="D9" s="141" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="82.8" x14ac:dyDescent="0.45">
       <c r="A10" s="128" t="s">
         <v>577</v>
       </c>
@@ -9619,13 +9609,13 @@
         <v>395</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="154" t="s">
+    <row r="13" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A13" s="170" t="s">
         <v>583</v>
       </c>
-      <c r="B13" s="154"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="170"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="66" t="s">
         <v>357</v>
       </c>
@@ -9633,7 +9623,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="66" t="s">
         <v>1</v>
       </c>
@@ -9641,13 +9631,13 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="66"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="66" t="s">
         <v>3</v>
       </c>
@@ -9655,15 +9645,15 @@
         <v>575</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="131" t="s">
+    <row r="20" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="132"/>
       <c r="C20" s="132"/>
       <c r="D20" s="132"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A21" s="131" t="s">
         <v>14</v>
       </c>
@@ -9677,7 +9667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="195" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="179.4" x14ac:dyDescent="0.45">
       <c r="A22" s="128" t="s">
         <v>585</v>
       </c>
@@ -9691,7 +9681,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="55.2" x14ac:dyDescent="0.45">
       <c r="A23" s="128" t="s">
         <v>586</v>
       </c>
@@ -9705,14 +9695,14 @@
         <v>592</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="155" t="s">
+    <row r="25" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="26" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="171" t="s">
         <v>593</v>
       </c>
-      <c r="B26" s="156"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="172"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="87" t="s">
         <v>357</v>
       </c>
@@ -9720,7 +9710,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="66" t="s">
         <v>1</v>
       </c>
@@ -9728,15 +9718,13 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="66" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="66"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="66" t="s">
         <v>3</v>
       </c>
@@ -9744,20 +9732,20 @@
         <v>575</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B32" s="67"/>
       <c r="C32" s="67"/>
       <c r="D32" s="67"/>
     </row>
-    <row r="33" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="133" t="s">
+    <row r="33" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="134"/>
       <c r="C33" s="134"/>
       <c r="D33" s="134"/>
     </row>
-    <row r="34" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="135" t="s">
         <v>14</v>
       </c>
@@ -9771,21 +9759,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="248.4" x14ac:dyDescent="0.45">
       <c r="A35" s="114" t="s">
         <v>595</v>
       </c>
-      <c r="B35" s="159" t="s">
+      <c r="B35" s="141" t="s">
         <v>597</v>
       </c>
-      <c r="C35" s="159" t="s">
+      <c r="C35" s="141" t="s">
         <v>598</v>
       </c>
-      <c r="D35" s="159" t="s">
+      <c r="D35" s="141" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="69" x14ac:dyDescent="0.45">
       <c r="A36" s="128" t="s">
         <v>596</v>
       </c>

--- a/Assignment 1/G1_Acceptance.Ass.1.xlsx
+++ b/Assignment 1/G1_Acceptance.Ass.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="462" windowWidth="25602" windowHeight="14640" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="462" windowWidth="25602" windowHeight="14640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Names | Group 1" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="609">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -3441,6 +3441,30 @@
   <si>
     <t>In case  Manager want to view monthly report and System display successfully 
 the report.</t>
+  </si>
+  <si>
+    <t>Reference not in DB</t>
+  </si>
+  <si>
+    <t>Missing reference date</t>
+  </si>
+  <si>
+    <t>Missing client's ID</t>
+  </si>
+  <si>
+    <t>Missing specialist ID</t>
+  </si>
+  <si>
+    <t>Missing client's ID and Date</t>
+  </si>
+  <si>
+    <t>Missing client's Id and specialist ID</t>
+  </si>
+  <si>
+    <t>Missing date and specialist ID</t>
+  </si>
+  <si>
+    <t>Missing all required fields</t>
   </si>
 </sst>
 </file>
@@ -4296,9 +4320,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4344,24 +4365,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4376,6 +4397,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4800,7 +4824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I116"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
+    <sheetView topLeftCell="A95" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -6201,10 +6225,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="157"/>
+      <c r="B1" s="156"/>
     </row>
     <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
@@ -6330,10 +6354,10 @@
     </row>
     <row r="16" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="157"/>
+      <c r="B17" s="156"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A18" s="25" t="s">
@@ -6512,10 +6536,10 @@
       <c r="D34" s="71"/>
     </row>
     <row r="35" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="156" t="s">
+      <c r="A35" s="155" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="157"/>
+      <c r="B35" s="156"/>
     </row>
     <row r="36" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A36" s="25" t="s">
@@ -6654,10 +6678,10 @@
       <c r="D50" s="71"/>
     </row>
     <row r="51" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="156" t="s">
+      <c r="A51" s="155" t="s">
         <v>259</v>
       </c>
-      <c r="B51" s="157"/>
+      <c r="B51" s="156"/>
     </row>
     <row r="52" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A52" s="25" t="s">
@@ -6773,10 +6797,10 @@
     </row>
     <row r="65" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="66" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="156" t="s">
+      <c r="A66" s="155" t="s">
         <v>190</v>
       </c>
-      <c r="B66" s="157"/>
+      <c r="B66" s="156"/>
     </row>
     <row r="67" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A67" s="25" t="s">
@@ -6885,10 +6909,10 @@
     </row>
     <row r="79" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="80" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A80" s="156" t="s">
+      <c r="A80" s="155" t="s">
         <v>196</v>
       </c>
-      <c r="B80" s="157"/>
+      <c r="B80" s="156"/>
     </row>
     <row r="81" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A81" s="25" t="s">
@@ -6997,10 +7021,10 @@
     </row>
     <row r="93" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="94" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="156" t="s">
+      <c r="A94" s="155" t="s">
         <v>198</v>
       </c>
-      <c r="B94" s="157"/>
+      <c r="B94" s="156"/>
     </row>
     <row r="95" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A95" s="25" t="s">
@@ -7139,10 +7163,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="155" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="157"/>
+      <c r="B1" s="156"/>
     </row>
     <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
@@ -7181,16 +7205,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="152" t="s">
+      <c r="A8" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="152" t="s">
+      <c r="C8" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="152" t="s">
+      <c r="D8" s="151" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7204,7 +7228,7 @@
       <c r="C9" s="115" t="s">
         <v>289</v>
       </c>
-      <c r="D9" s="153" t="s">
+      <c r="D9" s="152" t="s">
         <v>290</v>
       </c>
     </row>
@@ -7218,7 +7242,7 @@
       <c r="C10" s="117" t="s">
         <v>292</v>
       </c>
-      <c r="D10" s="154" t="s">
+      <c r="D10" s="153" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7232,87 +7256,87 @@
       <c r="C11" s="117" t="s">
         <v>294</v>
       </c>
-      <c r="D11" s="150" t="s">
+      <c r="D11" s="149" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
-      <c r="A12" s="160" t="s">
+      <c r="A12" s="159" t="s">
         <v>296</v>
       </c>
       <c r="B12" s="117" t="s">
         <v>320</v>
       </c>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="149" t="s">
         <v>333</v>
       </c>
-      <c r="D12" s="159" t="s">
+      <c r="D12" s="158" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="161"/>
+      <c r="A13" s="160"/>
       <c r="B13" s="117" t="s">
         <v>297</v>
       </c>
       <c r="C13" s="117" t="s">
         <v>334</v>
       </c>
-      <c r="D13" s="159"/>
+      <c r="D13" s="158"/>
     </row>
     <row r="14" spans="1:4" ht="139.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="161"/>
-      <c r="B14" s="150" t="s">
+      <c r="A14" s="160"/>
+      <c r="B14" s="149" t="s">
         <v>298</v>
       </c>
       <c r="C14" s="117" t="s">
         <v>336</v>
       </c>
-      <c r="D14" s="159"/>
+      <c r="D14" s="158"/>
     </row>
     <row r="15" spans="1:4" ht="83.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="158" t="s">
+      <c r="A15" s="157" t="s">
         <v>337</v>
       </c>
       <c r="B15" s="117" t="s">
         <v>332</v>
       </c>
-      <c r="C15" s="150" t="s">
+      <c r="C15" s="149" t="s">
         <v>333</v>
       </c>
-      <c r="D15" s="159" t="s">
+      <c r="D15" s="158" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="97.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="158"/>
+      <c r="A16" s="157"/>
       <c r="B16" s="117" t="s">
         <v>300</v>
       </c>
       <c r="C16" s="117" t="s">
         <v>335</v>
       </c>
-      <c r="D16" s="159"/>
+      <c r="D16" s="158"/>
     </row>
     <row r="17" spans="1:4" ht="27.9" x14ac:dyDescent="0.45">
-      <c r="A17" s="158"/>
+      <c r="A17" s="157"/>
       <c r="B17" s="117" t="s">
         <v>301</v>
       </c>
-      <c r="C17" s="155" t="s">
+      <c r="C17" s="154" t="s">
         <v>302</v>
       </c>
-      <c r="D17" s="159"/>
+      <c r="D17" s="158"/>
     </row>
     <row r="18" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="158"/>
+      <c r="A18" s="157"/>
       <c r="B18" s="117" t="s">
         <v>303</v>
       </c>
-      <c r="C18" s="155" t="s">
+      <c r="C18" s="154" t="s">
         <v>304</v>
       </c>
-      <c r="D18" s="159"/>
+      <c r="D18" s="158"/>
     </row>
     <row r="19" spans="1:4" ht="56.1" x14ac:dyDescent="0.45">
       <c r="A19" s="137" t="s">
@@ -7398,10 +7422,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="157"/>
+      <c r="B1" s="156"/>
     </row>
     <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
@@ -7527,10 +7551,10 @@
     </row>
     <row r="16" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="164" t="s">
+      <c r="A17" s="161" t="s">
         <v>341</v>
       </c>
-      <c r="B17" s="165"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="100"/>
       <c r="D17" s="100"/>
     </row>
@@ -7657,16 +7681,16 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="82.8" x14ac:dyDescent="0.45">
-      <c r="A29" s="147" t="s">
+      <c r="A29" s="146" t="s">
         <v>513</v>
       </c>
-      <c r="B29" s="148" t="s">
+      <c r="B29" s="147" t="s">
         <v>514</v>
       </c>
-      <c r="C29" s="148" t="s">
+      <c r="C29" s="147" t="s">
         <v>515</v>
       </c>
-      <c r="D29" s="149" t="s">
+      <c r="D29" s="148" t="s">
         <v>516</v>
       </c>
     </row>
@@ -7674,10 +7698,10 @@
       <c r="A30" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="150" t="s">
+      <c r="B30" s="149" t="s">
         <v>355</v>
       </c>
-      <c r="C30" s="151" t="s">
+      <c r="C30" s="150" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="118" t="s">
@@ -7686,10 +7710,10 @@
     </row>
     <row r="32" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="33" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="155" t="s">
         <v>345</v>
       </c>
-      <c r="B33" s="157"/>
+      <c r="B33" s="156"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A34" s="25" t="s">
@@ -7787,10 +7811,10 @@
     </row>
     <row r="44" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="45" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="156" t="s">
+      <c r="A45" s="155" t="s">
         <v>449</v>
       </c>
-      <c r="B45" s="157"/>
+      <c r="B45" s="156"/>
     </row>
     <row r="46" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A46" s="25" t="s">
@@ -7896,10 +7920,10 @@
     </row>
     <row r="58" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="59" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="156" t="s">
+      <c r="A59" s="155" t="s">
         <v>459</v>
       </c>
-      <c r="B59" s="157"/>
+      <c r="B59" s="156"/>
     </row>
     <row r="60" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A60" s="25" t="s">
@@ -8033,10 +8057,10 @@
     </row>
     <row r="74" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="75" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="156" t="s">
+      <c r="A75" s="155" t="s">
         <v>478</v>
       </c>
-      <c r="B75" s="157"/>
+      <c r="B75" s="156"/>
     </row>
     <row r="76" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A76" s="25" t="s">
@@ -8158,10 +8182,10 @@
     </row>
     <row r="89" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="90" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A90" s="156" t="s">
+      <c r="A90" s="155" t="s">
         <v>518</v>
       </c>
-      <c r="B90" s="157"/>
+      <c r="B90" s="156"/>
     </row>
     <row r="91" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A91" s="25" t="s">
@@ -8267,10 +8291,10 @@
     </row>
     <row r="103" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="104" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A104" s="156" t="s">
+      <c r="A104" s="155" t="s">
         <v>528</v>
       </c>
-      <c r="B104" s="157"/>
+      <c r="B104" s="156"/>
     </row>
     <row r="105" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A105" s="25" t="s">
@@ -8372,10 +8396,10 @@
     </row>
     <row r="117" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="118" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A118" s="156" t="s">
+      <c r="A118" s="155" t="s">
         <v>538</v>
       </c>
-      <c r="B118" s="157"/>
+      <c r="B118" s="156"/>
     </row>
     <row r="119" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A119" s="25" t="s">
@@ -8459,10 +8483,10 @@
     </row>
     <row r="130" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="131" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A131" s="156" t="s">
+      <c r="A131" s="155" t="s">
         <v>547</v>
       </c>
-      <c r="B131" s="157"/>
+      <c r="B131" s="156"/>
     </row>
     <row r="132" spans="1:4" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A132" s="25" t="s">
@@ -8566,8 +8590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:B49"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -8579,10 +8603,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="163" t="s">
         <v>356</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="164"/>
     </row>
     <row r="2" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A2" s="139" t="s">
@@ -8661,7 +8685,7 @@
         <v>499</v>
       </c>
       <c r="D11" s="142" t="s">
-        <v>360</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
@@ -8675,7 +8699,7 @@
         <v>499</v>
       </c>
       <c r="D12" s="142" t="s">
-        <v>360</v>
+        <v>602</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
@@ -8689,7 +8713,7 @@
         <v>499</v>
       </c>
       <c r="D13" s="142" t="s">
-        <v>360</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
@@ -8703,7 +8727,7 @@
         <v>499</v>
       </c>
       <c r="D14" s="142" t="s">
-        <v>360</v>
+        <v>604</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
@@ -8717,7 +8741,7 @@
         <v>499</v>
       </c>
       <c r="D15" s="142" t="s">
-        <v>360</v>
+        <v>605</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
@@ -8731,7 +8755,7 @@
         <v>499</v>
       </c>
       <c r="D16" s="142" t="s">
-        <v>360</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
@@ -8745,7 +8769,7 @@
         <v>499</v>
       </c>
       <c r="D17" s="142" t="s">
-        <v>360</v>
+        <v>607</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
@@ -8759,7 +8783,7 @@
         <v>499</v>
       </c>
       <c r="D18" s="142" t="s">
-        <v>360</v>
+        <v>608</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="110.4" x14ac:dyDescent="0.45">
@@ -8772,16 +8796,16 @@
       <c r="C19" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="D19" s="142" t="s">
-        <v>360</v>
+      <c r="D19" s="144" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="22" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="162" t="s">
+      <c r="A22" s="165" t="s">
         <v>362</v>
       </c>
-      <c r="B22" s="163"/>
+      <c r="B22" s="166"/>
     </row>
     <row r="23" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A23" s="139" t="s">
@@ -8859,16 +8883,16 @@
       <c r="C32" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="146" t="s">
+      <c r="D32" s="172" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="35" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="156" t="s">
+      <c r="A35" s="155" t="s">
         <v>369</v>
       </c>
-      <c r="B35" s="157"/>
+      <c r="B35" s="156"/>
     </row>
     <row r="36" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A36" s="139" t="s">
@@ -8980,10 +9004,10 @@
     </row>
     <row r="48" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="49" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="166" t="s">
+      <c r="A49" s="163" t="s">
         <v>379</v>
       </c>
-      <c r="B49" s="167"/>
+      <c r="B49" s="164"/>
     </row>
     <row r="50" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A50" s="139" t="s">
@@ -9107,10 +9131,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="167" t="s">
         <v>389</v>
       </c>
-      <c r="B1" s="169"/>
+      <c r="B1" s="168"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="87" t="s">
@@ -9191,10 +9215,10 @@
     </row>
     <row r="13" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="14" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="168" t="s">
+      <c r="A14" s="167" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="169"/>
+      <c r="B14" s="168"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="87" t="s">
@@ -9345,10 +9369,10 @@
     </row>
     <row r="32" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="33" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="168" t="s">
+      <c r="A33" s="167" t="s">
         <v>422</v>
       </c>
-      <c r="B33" s="169"/>
+      <c r="B33" s="168"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="87" t="s">
@@ -9511,7 +9535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -9524,10 +9548,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="155" t="s">
         <v>574</v>
       </c>
-      <c r="B1" s="157"/>
+      <c r="B1" s="156"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="87" t="s">
@@ -9581,7 +9605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="96.6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="69" x14ac:dyDescent="0.45">
       <c r="A9" s="136" t="s">
         <v>576</v>
       </c>
@@ -9595,7 +9619,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="82.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="69" x14ac:dyDescent="0.45">
       <c r="A10" s="128" t="s">
         <v>577</v>
       </c>
@@ -9610,10 +9634,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A13" s="170" t="s">
+      <c r="A13" s="169" t="s">
         <v>583</v>
       </c>
-      <c r="B13" s="170"/>
+      <c r="B13" s="169"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="66" t="s">
@@ -9697,10 +9721,10 @@
     </row>
     <row r="25" spans="1:4" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="26" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="171" t="s">
+      <c r="A26" s="170" t="s">
         <v>593</v>
       </c>
-      <c r="B26" s="172"/>
+      <c r="B26" s="171"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="87" t="s">
